--- a/src/main/resources/excel/finished/能介/新一空压站运行记录表.xlsx
+++ b/src/main/resources/excel/finished/能介/新一空压站运行记录表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ACS_ACM1_MAIN" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
   <si>
     <t>能 源 环 保 部 一 空 压 站 运 行 记 录(ZH15000型离心式空压机）</t>
   </si>
@@ -41,7 +41,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
@@ -59,7 +59,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -77,7 +77,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -97,7 +97,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">IGV  </t>
     </r>
@@ -115,7 +115,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>%</t>
     </r>
@@ -144,7 +144,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
@@ -162,7 +162,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>MPa)</t>
     </r>
@@ -182,7 +182,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
@@ -200,7 +200,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>MPa</t>
     </r>
@@ -229,7 +229,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -267,7 +267,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
@@ -285,7 +285,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -314,7 +314,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
@@ -332,7 +332,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -361,7 +361,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
@@ -379,7 +379,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -408,7 +408,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -426,7 +426,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -455,7 +455,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -473,7 +473,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">         </t>
     </r>
@@ -502,7 +502,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -520,7 +520,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -549,7 +549,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  (</t>
     </r>
@@ -567,7 +567,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -587,7 +587,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -605,7 +605,7 @@
         <b/>
         <sz val="15"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -867,19 +867,17 @@
   </si>
   <si>
     <t>ES_L2C_ACS1_ACM3_Run_1h_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_ACS1_ACM1_Run_1h_sum</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -936,7 +934,7 @@
       <b/>
       <sz val="15"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
@@ -956,151 +954,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,194 +985,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1617,251 +1291,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
@@ -1870,162 +1302,162 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2033,71 +1465,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2388,19 +1773,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BJ8" sqref="BJ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -2418,340 +1803,340 @@
     <col min="62" max="64" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="2:57">
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
+    <row r="1" spans="2:64" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
     </row>
-    <row r="2" ht="27" spans="2:57">
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="56"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="7"/>
+    <row r="2" spans="2:64" ht="27" x14ac:dyDescent="0.15">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="6"/>
     </row>
-    <row r="3" ht="20.25" spans="2:57">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:64" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="57"/>
-      <c r="BE3" s="57"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47"/>
+      <c r="BE3" s="47"/>
     </row>
-    <row r="4" ht="23.25" spans="2:57">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="16"/>
-      <c r="BC4" s="16"/>
-      <c r="BD4" s="16"/>
-      <c r="BE4" s="16"/>
+    <row r="4" spans="2:64" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="2:64">
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="2:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="44" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46" t="s">
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="52" t="s">
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="53"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="19" t="s">
+      <c r="S5" s="57"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="18" t="s">
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19" t="s">
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="52" t="s">
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="19" t="s">
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="52" t="s">
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="19" t="s">
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="52" t="s">
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="19" t="s">
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="52" t="s">
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="54"/>
-      <c r="AY5" s="19" t="s">
+      <c r="AW5" s="57"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="18" t="s">
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="58" t="s">
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="BI5" s="58" t="s">
+      <c r="BI5" s="63" t="s">
         <v>22</v>
       </c>
       <c r="BJ5" s="59" t="s">
@@ -2760,195 +2145,195 @@
       <c r="BK5" s="60"/>
       <c r="BL5" s="60"/>
     </row>
-    <row r="6" ht="19.5" customHeight="1" spans="2:64">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24" t="s">
+    <row r="6" spans="2:64" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="62"/>
+      <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="O6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="27" t="s">
+      <c r="S6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="27" t="s">
+      <c r="T6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="47" t="s">
+      <c r="U6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="25" t="s">
+      <c r="V6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="25" t="s">
+      <c r="W6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="24" t="s">
+      <c r="X6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Y6" s="25" t="s">
+      <c r="Y6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="25" t="s">
+      <c r="Z6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="47" t="s">
+      <c r="AA6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AB6" s="25" t="s">
+      <c r="AB6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="25" t="s">
+      <c r="AC6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="26" t="s">
+      <c r="AD6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AE6" s="27" t="s">
+      <c r="AE6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AF6" s="27" t="s">
+      <c r="AF6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AG6" s="47" t="s">
+      <c r="AG6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AH6" s="25" t="s">
+      <c r="AH6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AI6" s="25" t="s">
+      <c r="AI6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AJ6" s="26" t="s">
+      <c r="AJ6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AK6" s="27" t="s">
+      <c r="AK6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AL6" s="27" t="s">
+      <c r="AL6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="47" t="s">
+      <c r="AM6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AN6" s="25" t="s">
+      <c r="AN6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AO6" s="25" t="s">
+      <c r="AO6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AP6" s="26" t="s">
+      <c r="AP6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AQ6" s="27" t="s">
+      <c r="AQ6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AR6" s="27" t="s">
+      <c r="AR6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="47" t="s">
+      <c r="AS6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AT6" s="25" t="s">
+      <c r="AT6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AU6" s="25" t="s">
+      <c r="AU6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AV6" s="26" t="s">
+      <c r="AV6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AW6" s="27" t="s">
+      <c r="AW6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AX6" s="27" t="s">
+      <c r="AX6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AY6" s="47" t="s">
+      <c r="AY6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AZ6" s="25" t="s">
+      <c r="AZ6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="BA6" s="25" t="s">
+      <c r="BA6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="BB6" s="47" t="s">
+      <c r="BB6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="BC6" s="25" t="s">
+      <c r="BC6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="BD6" s="25" t="s">
+      <c r="BD6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="BE6" s="61"/>
-      <c r="BF6" s="62" t="s">
+      <c r="BE6" s="64"/>
+      <c r="BF6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="BG6" s="62" t="s">
+      <c r="BG6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="BH6" s="62" t="s">
+      <c r="BH6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="BI6" s="61" t="s">
+      <c r="BI6" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="62" t="s">
+      <c r="BJ6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="BK6" s="62" t="s">
+      <c r="BK6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="BL6" s="62" t="s">
+      <c r="BL6" s="39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="19.5" hidden="1" customHeight="1" spans="2:61">
-      <c r="B7" s="28"/>
+    <row r="7" spans="2:64" s="4" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
@@ -3120,10 +2505,10 @@
       <c r="BH7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BI7" s="63"/>
+      <c r="BI7" s="40"/>
     </row>
-    <row r="8" ht="15" spans="2:64">
-      <c r="B8" s="29">
+    <row r="8" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B8" s="18">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -3342,7 +2727,7 @@
         <f>IF(_acsReport_day_each!BB2="","",_acsReport_day_each!BB2)</f>
         <v/>
       </c>
-      <c r="BE8" s="64">
+      <c r="BE8" s="41">
         <f>_acsReport_day_each!BD2:BF2</f>
         <v>0</v>
       </c>
@@ -3375,227 +2760,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="2:64">
-      <c r="B9" s="30">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="C9" s="31" t="str">
+    <row r="9" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B9" s="19">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="C9" s="20" t="str">
         <f>IF(_acsReport_day_each!A3="","",_acsReport_day_each!A3)</f>
         <v/>
       </c>
-      <c r="D9" s="32" t="str">
+      <c r="D9" s="21" t="str">
         <f>IF(_acsReport_day_each!B3="","",_acsReport_day_each!B3)</f>
         <v/>
       </c>
-      <c r="E9" s="32" t="str">
+      <c r="E9" s="21" t="str">
         <f>IF(_acsReport_day_each!C3="","",_acsReport_day_each!C3)</f>
         <v/>
       </c>
-      <c r="F9" s="33" t="str">
+      <c r="F9" s="22" t="str">
         <f>IF(_acsReport_day_each!D3="","",_acsReport_day_each!D3)</f>
         <v/>
       </c>
-      <c r="G9" s="32" t="str">
+      <c r="G9" s="21" t="str">
         <f>IF(_acsReport_day_each!E3="","",_acsReport_day_each!E3)</f>
         <v/>
       </c>
-      <c r="H9" s="32" t="str">
+      <c r="H9" s="21" t="str">
         <f>IF(_acsReport_day_each!F3="","",_acsReport_day_each!F3)</f>
         <v/>
       </c>
-      <c r="I9" s="48" t="str">
+      <c r="I9" s="34" t="str">
         <f>IF(_acsReport_day_each!G3="","",_acsReport_day_each!G3)</f>
         <v/>
       </c>
-      <c r="J9" s="32" t="str">
+      <c r="J9" s="21" t="str">
         <f>IF(_acsReport_day_each!H3="","",_acsReport_day_each!H3)</f>
         <v/>
       </c>
-      <c r="K9" s="32" t="str">
+      <c r="K9" s="21" t="str">
         <f>IF(_acsReport_day_each!I3="","",_acsReport_day_each!I3)</f>
         <v/>
       </c>
-      <c r="L9" s="33" t="str">
+      <c r="L9" s="22" t="str">
         <f>IF(_acsReport_day_each!J3="","",_acsReport_day_each!J3)</f>
         <v/>
       </c>
-      <c r="M9" s="32" t="str">
+      <c r="M9" s="21" t="str">
         <f>IF(_acsReport_day_each!K3="","",_acsReport_day_each!K3)</f>
         <v/>
       </c>
-      <c r="N9" s="32" t="str">
+      <c r="N9" s="21" t="str">
         <f>IF(_acsReport_day_each!L3="","",_acsReport_day_each!L3)</f>
         <v/>
       </c>
-      <c r="O9" s="48" t="str">
+      <c r="O9" s="34" t="str">
         <f>IF(_acsReport_day_each!M3="","",_acsReport_day_each!M3)</f>
         <v/>
       </c>
-      <c r="P9" s="32" t="str">
+      <c r="P9" s="21" t="str">
         <f>IF(_acsReport_day_each!N3="","",_acsReport_day_each!N3)</f>
         <v/>
       </c>
-      <c r="Q9" s="32" t="str">
+      <c r="Q9" s="21" t="str">
         <f>IF(_acsReport_day_each!O3="","",_acsReport_day_each!O3)</f>
         <v/>
       </c>
-      <c r="R9" s="33" t="str">
+      <c r="R9" s="22" t="str">
         <f>IF(_acsReport_day_each!P3="","",_acsReport_day_each!P3)</f>
         <v/>
       </c>
-      <c r="S9" s="32" t="str">
+      <c r="S9" s="21" t="str">
         <f>IF(_acsReport_day_each!Q3="","",_acsReport_day_each!Q3)</f>
         <v/>
       </c>
-      <c r="T9" s="32" t="str">
+      <c r="T9" s="21" t="str">
         <f>IF(_acsReport_day_each!R3="","",_acsReport_day_each!R3)</f>
         <v/>
       </c>
-      <c r="U9" s="48" t="str">
+      <c r="U9" s="34" t="str">
         <f>IF(_acsReport_day_each!S3="","",_acsReport_day_each!S3)</f>
         <v/>
       </c>
-      <c r="V9" s="32" t="str">
+      <c r="V9" s="21" t="str">
         <f>IF(_acsReport_day_each!T3="","",_acsReport_day_each!T3)</f>
         <v/>
       </c>
-      <c r="W9" s="32" t="str">
+      <c r="W9" s="21" t="str">
         <f>IF(_acsReport_day_each!U3="","",_acsReport_day_each!U3)</f>
         <v/>
       </c>
-      <c r="X9" s="33" t="str">
+      <c r="X9" s="22" t="str">
         <f>IF(_acsReport_day_each!V3="","",_acsReport_day_each!V3)</f>
         <v/>
       </c>
-      <c r="Y9" s="32" t="str">
+      <c r="Y9" s="21" t="str">
         <f>IF(_acsReport_day_each!W3="","",_acsReport_day_each!W3)</f>
         <v/>
       </c>
-      <c r="Z9" s="32" t="str">
+      <c r="Z9" s="21" t="str">
         <f>IF(_acsReport_day_each!X3="","",_acsReport_day_each!X3)</f>
         <v/>
       </c>
-      <c r="AA9" s="48" t="str">
+      <c r="AA9" s="34" t="str">
         <f>IF(_acsReport_day_each!Y3="","",_acsReport_day_each!Y3)</f>
         <v/>
       </c>
-      <c r="AB9" s="32" t="str">
+      <c r="AB9" s="21" t="str">
         <f>IF(_acsReport_day_each!Z3="","",_acsReport_day_each!Z3)</f>
         <v/>
       </c>
-      <c r="AC9" s="32" t="str">
+      <c r="AC9" s="21" t="str">
         <f>IF(_acsReport_day_each!AA3="","",_acsReport_day_each!AA3)</f>
         <v/>
       </c>
-      <c r="AD9" s="33" t="str">
+      <c r="AD9" s="22" t="str">
         <f>IF(_acsReport_day_each!AB3="","",_acsReport_day_each!AB3)</f>
         <v/>
       </c>
-      <c r="AE9" s="32" t="str">
+      <c r="AE9" s="21" t="str">
         <f>IF(_acsReport_day_each!AC3="","",_acsReport_day_each!AC3)</f>
         <v/>
       </c>
-      <c r="AF9" s="32" t="str">
+      <c r="AF9" s="21" t="str">
         <f>IF(_acsReport_day_each!AD3="","",_acsReport_day_each!AD3)</f>
         <v/>
       </c>
-      <c r="AG9" s="48" t="str">
+      <c r="AG9" s="34" t="str">
         <f>IF(_acsReport_day_each!AE3="","",_acsReport_day_each!AE3)</f>
         <v/>
       </c>
-      <c r="AH9" s="32" t="str">
+      <c r="AH9" s="21" t="str">
         <f>IF(_acsReport_day_each!AF3="","",_acsReport_day_each!AF3)</f>
         <v/>
       </c>
-      <c r="AI9" s="32" t="str">
+      <c r="AI9" s="21" t="str">
         <f>IF(_acsReport_day_each!AG3="","",_acsReport_day_each!AG3)</f>
         <v/>
       </c>
-      <c r="AJ9" s="33" t="str">
+      <c r="AJ9" s="22" t="str">
         <f>IF(_acsReport_day_each!AH3="","",_acsReport_day_each!AH3)</f>
         <v/>
       </c>
-      <c r="AK9" s="32" t="str">
+      <c r="AK9" s="21" t="str">
         <f>IF(_acsReport_day_each!AI3="","",_acsReport_day_each!AI3)</f>
         <v/>
       </c>
-      <c r="AL9" s="32" t="str">
+      <c r="AL9" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ3="","",_acsReport_day_each!AJ3)</f>
         <v/>
       </c>
-      <c r="AM9" s="48" t="str">
+      <c r="AM9" s="34" t="str">
         <f>IF(_acsReport_day_each!AK3="","",_acsReport_day_each!AK3)</f>
         <v/>
       </c>
-      <c r="AN9" s="32" t="str">
+      <c r="AN9" s="21" t="str">
         <f>IF(_acsReport_day_each!AL3="","",_acsReport_day_each!AL3)</f>
         <v/>
       </c>
-      <c r="AO9" s="32" t="str">
+      <c r="AO9" s="21" t="str">
         <f>IF(_acsReport_day_each!AM3="","",_acsReport_day_each!AM3)</f>
         <v/>
       </c>
-      <c r="AP9" s="33" t="str">
+      <c r="AP9" s="22" t="str">
         <f>IF(_acsReport_day_each!AN3="","",_acsReport_day_each!AN3)</f>
         <v/>
       </c>
-      <c r="AQ9" s="32" t="str">
+      <c r="AQ9" s="21" t="str">
         <f>IF(_acsReport_day_each!AO3="","",_acsReport_day_each!AO3)</f>
         <v/>
       </c>
-      <c r="AR9" s="32" t="str">
+      <c r="AR9" s="21" t="str">
         <f>IF(_acsReport_day_each!AP3="","",_acsReport_day_each!AP3)</f>
         <v/>
       </c>
-      <c r="AS9" s="48" t="str">
+      <c r="AS9" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ3="","",_acsReport_day_each!AQ3)</f>
         <v/>
       </c>
-      <c r="AT9" s="32" t="str">
+      <c r="AT9" s="21" t="str">
         <f>IF(_acsReport_day_each!AR3="","",_acsReport_day_each!AR3)</f>
         <v/>
       </c>
-      <c r="AU9" s="32" t="str">
+      <c r="AU9" s="21" t="str">
         <f>IF(_acsReport_day_each!AS3="","",_acsReport_day_each!AS3)</f>
         <v/>
       </c>
-      <c r="AV9" s="33" t="str">
+      <c r="AV9" s="22" t="str">
         <f>IF(_acsReport_day_each!AT3="","",_acsReport_day_each!AT3)</f>
         <v/>
       </c>
-      <c r="AW9" s="32" t="str">
+      <c r="AW9" s="21" t="str">
         <f>IF(_acsReport_day_each!AU3="","",_acsReport_day_each!AU3)</f>
         <v/>
       </c>
-      <c r="AX9" s="32" t="str">
+      <c r="AX9" s="21" t="str">
         <f>IF(_acsReport_day_each!AV3="","",_acsReport_day_each!AV3)</f>
         <v/>
       </c>
-      <c r="AY9" s="48" t="str">
+      <c r="AY9" s="34" t="str">
         <f>IF(_acsReport_day_each!AW3="","",_acsReport_day_each!AW3)</f>
         <v/>
       </c>
-      <c r="AZ9" s="32" t="str">
+      <c r="AZ9" s="21" t="str">
         <f>IF(_acsReport_day_each!AX3="","",_acsReport_day_each!AX3)</f>
         <v/>
       </c>
-      <c r="BA9" s="32" t="str">
+      <c r="BA9" s="21" t="str">
         <f>IF(_acsReport_day_each!AY3="","",_acsReport_day_each!AY3)</f>
         <v/>
       </c>
-      <c r="BB9" s="48" t="str">
+      <c r="BB9" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ3="","",_acsReport_day_each!AZ3)</f>
         <v/>
       </c>
-      <c r="BC9" s="32" t="str">
+      <c r="BC9" s="21" t="str">
         <f>IF(_acsReport_day_each!BA3="","",_acsReport_day_each!BA3)</f>
         <v/>
       </c>
-      <c r="BD9" s="32" t="str">
+      <c r="BD9" s="21" t="str">
         <f>IF(_acsReport_day_each!BB3="","",_acsReport_day_each!BB3)</f>
         <v/>
       </c>
-      <c r="BE9" s="64">
+      <c r="BE9" s="41">
         <f>_acsReport_day_each!BD3:BF3</f>
         <v>0</v>
       </c>
@@ -3616,227 +3001,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="2:64">
-      <c r="B10" s="30">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="C10" s="31" t="str">
+    <row r="10" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B10" s="19">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C10" s="20" t="str">
         <f>IF(_acsReport_day_each!A4="","",_acsReport_day_each!A4)</f>
         <v/>
       </c>
-      <c r="D10" s="32" t="str">
+      <c r="D10" s="21" t="str">
         <f>IF(_acsReport_day_each!B4="","",_acsReport_day_each!B4)</f>
         <v/>
       </c>
-      <c r="E10" s="32" t="str">
+      <c r="E10" s="21" t="str">
         <f>IF(_acsReport_day_each!C4="","",_acsReport_day_each!C4)</f>
         <v/>
       </c>
-      <c r="F10" s="33" t="str">
+      <c r="F10" s="22" t="str">
         <f>IF(_acsReport_day_each!D4="","",_acsReport_day_each!D4)</f>
         <v/>
       </c>
-      <c r="G10" s="32" t="str">
+      <c r="G10" s="21" t="str">
         <f>IF(_acsReport_day_each!E4="","",_acsReport_day_each!E4)</f>
         <v/>
       </c>
-      <c r="H10" s="32" t="str">
+      <c r="H10" s="21" t="str">
         <f>IF(_acsReport_day_each!F4="","",_acsReport_day_each!F4)</f>
         <v/>
       </c>
-      <c r="I10" s="48" t="str">
+      <c r="I10" s="34" t="str">
         <f>IF(_acsReport_day_each!G4="","",_acsReport_day_each!G4)</f>
         <v/>
       </c>
-      <c r="J10" s="32" t="str">
+      <c r="J10" s="21" t="str">
         <f>IF(_acsReport_day_each!H4="","",_acsReport_day_each!H4)</f>
         <v/>
       </c>
-      <c r="K10" s="32" t="str">
+      <c r="K10" s="21" t="str">
         <f>IF(_acsReport_day_each!I4="","",_acsReport_day_each!I4)</f>
         <v/>
       </c>
-      <c r="L10" s="33" t="str">
+      <c r="L10" s="22" t="str">
         <f>IF(_acsReport_day_each!J4="","",_acsReport_day_each!J4)</f>
         <v/>
       </c>
-      <c r="M10" s="32" t="str">
+      <c r="M10" s="21" t="str">
         <f>IF(_acsReport_day_each!K4="","",_acsReport_day_each!K4)</f>
         <v/>
       </c>
-      <c r="N10" s="32" t="str">
+      <c r="N10" s="21" t="str">
         <f>IF(_acsReport_day_each!L4="","",_acsReport_day_each!L4)</f>
         <v/>
       </c>
-      <c r="O10" s="48" t="str">
+      <c r="O10" s="34" t="str">
         <f>IF(_acsReport_day_each!M4="","",_acsReport_day_each!M4)</f>
         <v/>
       </c>
-      <c r="P10" s="32" t="str">
+      <c r="P10" s="21" t="str">
         <f>IF(_acsReport_day_each!N4="","",_acsReport_day_each!N4)</f>
         <v/>
       </c>
-      <c r="Q10" s="32" t="str">
+      <c r="Q10" s="21" t="str">
         <f>IF(_acsReport_day_each!O4="","",_acsReport_day_each!O4)</f>
         <v/>
       </c>
-      <c r="R10" s="33" t="str">
+      <c r="R10" s="22" t="str">
         <f>IF(_acsReport_day_each!P4="","",_acsReport_day_each!P4)</f>
         <v/>
       </c>
-      <c r="S10" s="32" t="str">
+      <c r="S10" s="21" t="str">
         <f>IF(_acsReport_day_each!Q4="","",_acsReport_day_each!Q4)</f>
         <v/>
       </c>
-      <c r="T10" s="32" t="str">
+      <c r="T10" s="21" t="str">
         <f>IF(_acsReport_day_each!R4="","",_acsReport_day_each!R4)</f>
         <v/>
       </c>
-      <c r="U10" s="48" t="str">
+      <c r="U10" s="34" t="str">
         <f>IF(_acsReport_day_each!S4="","",_acsReport_day_each!S4)</f>
         <v/>
       </c>
-      <c r="V10" s="32" t="str">
+      <c r="V10" s="21" t="str">
         <f>IF(_acsReport_day_each!T4="","",_acsReport_day_each!T4)</f>
         <v/>
       </c>
-      <c r="W10" s="32" t="str">
+      <c r="W10" s="21" t="str">
         <f>IF(_acsReport_day_each!U4="","",_acsReport_day_each!U4)</f>
         <v/>
       </c>
-      <c r="X10" s="33" t="str">
+      <c r="X10" s="22" t="str">
         <f>IF(_acsReport_day_each!V4="","",_acsReport_day_each!V4)</f>
         <v/>
       </c>
-      <c r="Y10" s="32" t="str">
+      <c r="Y10" s="21" t="str">
         <f>IF(_acsReport_day_each!W4="","",_acsReport_day_each!W4)</f>
         <v/>
       </c>
-      <c r="Z10" s="32" t="str">
+      <c r="Z10" s="21" t="str">
         <f>IF(_acsReport_day_each!X4="","",_acsReport_day_each!X4)</f>
         <v/>
       </c>
-      <c r="AA10" s="48" t="str">
+      <c r="AA10" s="34" t="str">
         <f>IF(_acsReport_day_each!Y4="","",_acsReport_day_each!Y4)</f>
         <v/>
       </c>
-      <c r="AB10" s="32" t="str">
+      <c r="AB10" s="21" t="str">
         <f>IF(_acsReport_day_each!Z4="","",_acsReport_day_each!Z4)</f>
         <v/>
       </c>
-      <c r="AC10" s="32" t="str">
+      <c r="AC10" s="21" t="str">
         <f>IF(_acsReport_day_each!AA4="","",_acsReport_day_each!AA4)</f>
         <v/>
       </c>
-      <c r="AD10" s="33" t="str">
+      <c r="AD10" s="22" t="str">
         <f>IF(_acsReport_day_each!AB4="","",_acsReport_day_each!AB4)</f>
         <v/>
       </c>
-      <c r="AE10" s="32" t="str">
+      <c r="AE10" s="21" t="str">
         <f>IF(_acsReport_day_each!AC4="","",_acsReport_day_each!AC4)</f>
         <v/>
       </c>
-      <c r="AF10" s="32" t="str">
+      <c r="AF10" s="21" t="str">
         <f>IF(_acsReport_day_each!AD4="","",_acsReport_day_each!AD4)</f>
         <v/>
       </c>
-      <c r="AG10" s="48" t="str">
+      <c r="AG10" s="34" t="str">
         <f>IF(_acsReport_day_each!AE4="","",_acsReport_day_each!AE4)</f>
         <v/>
       </c>
-      <c r="AH10" s="32" t="str">
+      <c r="AH10" s="21" t="str">
         <f>IF(_acsReport_day_each!AF4="","",_acsReport_day_each!AF4)</f>
         <v/>
       </c>
-      <c r="AI10" s="32" t="str">
+      <c r="AI10" s="21" t="str">
         <f>IF(_acsReport_day_each!AG4="","",_acsReport_day_each!AG4)</f>
         <v/>
       </c>
-      <c r="AJ10" s="33" t="str">
+      <c r="AJ10" s="22" t="str">
         <f>IF(_acsReport_day_each!AH4="","",_acsReport_day_each!AH4)</f>
         <v/>
       </c>
-      <c r="AK10" s="32" t="str">
+      <c r="AK10" s="21" t="str">
         <f>IF(_acsReport_day_each!AI4="","",_acsReport_day_each!AI4)</f>
         <v/>
       </c>
-      <c r="AL10" s="32" t="str">
+      <c r="AL10" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ4="","",_acsReport_day_each!AJ4)</f>
         <v/>
       </c>
-      <c r="AM10" s="48" t="str">
+      <c r="AM10" s="34" t="str">
         <f>IF(_acsReport_day_each!AK4="","",_acsReport_day_each!AK4)</f>
         <v/>
       </c>
-      <c r="AN10" s="32" t="str">
+      <c r="AN10" s="21" t="str">
         <f>IF(_acsReport_day_each!AL4="","",_acsReport_day_each!AL4)</f>
         <v/>
       </c>
-      <c r="AO10" s="32" t="str">
+      <c r="AO10" s="21" t="str">
         <f>IF(_acsReport_day_each!AM4="","",_acsReport_day_each!AM4)</f>
         <v/>
       </c>
-      <c r="AP10" s="33" t="str">
+      <c r="AP10" s="22" t="str">
         <f>IF(_acsReport_day_each!AN4="","",_acsReport_day_each!AN4)</f>
         <v/>
       </c>
-      <c r="AQ10" s="32" t="str">
+      <c r="AQ10" s="21" t="str">
         <f>IF(_acsReport_day_each!AO4="","",_acsReport_day_each!AO4)</f>
         <v/>
       </c>
-      <c r="AR10" s="32" t="str">
+      <c r="AR10" s="21" t="str">
         <f>IF(_acsReport_day_each!AP4="","",_acsReport_day_each!AP4)</f>
         <v/>
       </c>
-      <c r="AS10" s="48" t="str">
+      <c r="AS10" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ4="","",_acsReport_day_each!AQ4)</f>
         <v/>
       </c>
-      <c r="AT10" s="32" t="str">
+      <c r="AT10" s="21" t="str">
         <f>IF(_acsReport_day_each!AR4="","",_acsReport_day_each!AR4)</f>
         <v/>
       </c>
-      <c r="AU10" s="32" t="str">
+      <c r="AU10" s="21" t="str">
         <f>IF(_acsReport_day_each!AS4="","",_acsReport_day_each!AS4)</f>
         <v/>
       </c>
-      <c r="AV10" s="33" t="str">
+      <c r="AV10" s="22" t="str">
         <f>IF(_acsReport_day_each!AT4="","",_acsReport_day_each!AT4)</f>
         <v/>
       </c>
-      <c r="AW10" s="32" t="str">
+      <c r="AW10" s="21" t="str">
         <f>IF(_acsReport_day_each!AU4="","",_acsReport_day_each!AU4)</f>
         <v/>
       </c>
-      <c r="AX10" s="32" t="str">
+      <c r="AX10" s="21" t="str">
         <f>IF(_acsReport_day_each!AV4="","",_acsReport_day_each!AV4)</f>
         <v/>
       </c>
-      <c r="AY10" s="48" t="str">
+      <c r="AY10" s="34" t="str">
         <f>IF(_acsReport_day_each!AW4="","",_acsReport_day_each!AW4)</f>
         <v/>
       </c>
-      <c r="AZ10" s="32" t="str">
+      <c r="AZ10" s="21" t="str">
         <f>IF(_acsReport_day_each!AX4="","",_acsReport_day_each!AX4)</f>
         <v/>
       </c>
-      <c r="BA10" s="32" t="str">
+      <c r="BA10" s="21" t="str">
         <f>IF(_acsReport_day_each!AY4="","",_acsReport_day_each!AY4)</f>
         <v/>
       </c>
-      <c r="BB10" s="48" t="str">
+      <c r="BB10" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ4="","",_acsReport_day_each!AZ4)</f>
         <v/>
       </c>
-      <c r="BC10" s="32" t="str">
+      <c r="BC10" s="21" t="str">
         <f>IF(_acsReport_day_each!BA4="","",_acsReport_day_each!BA4)</f>
         <v/>
       </c>
-      <c r="BD10" s="32" t="str">
+      <c r="BD10" s="21" t="str">
         <f>IF(_acsReport_day_each!BB4="","",_acsReport_day_each!BB4)</f>
         <v/>
       </c>
-      <c r="BE10" s="64">
+      <c r="BE10" s="41">
         <f>_acsReport_day_each!BD4:BF4</f>
         <v>0</v>
       </c>
@@ -3857,227 +3242,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="2:64">
-      <c r="B11" s="30">
+    <row r="11" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B11" s="19">
         <v>0.125</v>
       </c>
-      <c r="C11" s="31" t="str">
+      <c r="C11" s="20" t="str">
         <f>IF(_acsReport_day_each!A5="","",_acsReport_day_each!A5)</f>
         <v/>
       </c>
-      <c r="D11" s="32" t="str">
+      <c r="D11" s="21" t="str">
         <f>IF(_acsReport_day_each!B5="","",_acsReport_day_each!B5)</f>
         <v/>
       </c>
-      <c r="E11" s="32" t="str">
+      <c r="E11" s="21" t="str">
         <f>IF(_acsReport_day_each!C5="","",_acsReport_day_each!C5)</f>
         <v/>
       </c>
-      <c r="F11" s="33" t="str">
+      <c r="F11" s="22" t="str">
         <f>IF(_acsReport_day_each!D5="","",_acsReport_day_each!D5)</f>
         <v/>
       </c>
-      <c r="G11" s="32" t="str">
+      <c r="G11" s="21" t="str">
         <f>IF(_acsReport_day_each!E5="","",_acsReport_day_each!E5)</f>
         <v/>
       </c>
-      <c r="H11" s="32" t="str">
+      <c r="H11" s="21" t="str">
         <f>IF(_acsReport_day_each!F5="","",_acsReport_day_each!F5)</f>
         <v/>
       </c>
-      <c r="I11" s="48" t="str">
+      <c r="I11" s="34" t="str">
         <f>IF(_acsReport_day_each!G5="","",_acsReport_day_each!G5)</f>
         <v/>
       </c>
-      <c r="J11" s="32" t="str">
+      <c r="J11" s="21" t="str">
         <f>IF(_acsReport_day_each!H5="","",_acsReport_day_each!H5)</f>
         <v/>
       </c>
-      <c r="K11" s="32" t="str">
+      <c r="K11" s="21" t="str">
         <f>IF(_acsReport_day_each!I5="","",_acsReport_day_each!I5)</f>
         <v/>
       </c>
-      <c r="L11" s="33" t="str">
+      <c r="L11" s="22" t="str">
         <f>IF(_acsReport_day_each!J5="","",_acsReport_day_each!J5)</f>
         <v/>
       </c>
-      <c r="M11" s="32" t="str">
+      <c r="M11" s="21" t="str">
         <f>IF(_acsReport_day_each!K5="","",_acsReport_day_each!K5)</f>
         <v/>
       </c>
-      <c r="N11" s="32" t="str">
+      <c r="N11" s="21" t="str">
         <f>IF(_acsReport_day_each!L5="","",_acsReport_day_each!L5)</f>
         <v/>
       </c>
-      <c r="O11" s="48" t="str">
+      <c r="O11" s="34" t="str">
         <f>IF(_acsReport_day_each!M5="","",_acsReport_day_each!M5)</f>
         <v/>
       </c>
-      <c r="P11" s="32" t="str">
+      <c r="P11" s="21" t="str">
         <f>IF(_acsReport_day_each!N5="","",_acsReport_day_each!N5)</f>
         <v/>
       </c>
-      <c r="Q11" s="32" t="str">
+      <c r="Q11" s="21" t="str">
         <f>IF(_acsReport_day_each!O5="","",_acsReport_day_each!O5)</f>
         <v/>
       </c>
-      <c r="R11" s="33" t="str">
+      <c r="R11" s="22" t="str">
         <f>IF(_acsReport_day_each!P5="","",_acsReport_day_each!P5)</f>
         <v/>
       </c>
-      <c r="S11" s="32" t="str">
+      <c r="S11" s="21" t="str">
         <f>IF(_acsReport_day_each!Q5="","",_acsReport_day_each!Q5)</f>
         <v/>
       </c>
-      <c r="T11" s="32" t="str">
+      <c r="T11" s="21" t="str">
         <f>IF(_acsReport_day_each!R5="","",_acsReport_day_each!R5)</f>
         <v/>
       </c>
-      <c r="U11" s="48" t="str">
+      <c r="U11" s="34" t="str">
         <f>IF(_acsReport_day_each!S5="","",_acsReport_day_each!S5)</f>
         <v/>
       </c>
-      <c r="V11" s="32" t="str">
+      <c r="V11" s="21" t="str">
         <f>IF(_acsReport_day_each!T5="","",_acsReport_day_each!T5)</f>
         <v/>
       </c>
-      <c r="W11" s="32" t="str">
+      <c r="W11" s="21" t="str">
         <f>IF(_acsReport_day_each!U5="","",_acsReport_day_each!U5)</f>
         <v/>
       </c>
-      <c r="X11" s="33" t="str">
+      <c r="X11" s="22" t="str">
         <f>IF(_acsReport_day_each!V5="","",_acsReport_day_each!V5)</f>
         <v/>
       </c>
-      <c r="Y11" s="32" t="str">
+      <c r="Y11" s="21" t="str">
         <f>IF(_acsReport_day_each!W5="","",_acsReport_day_each!W5)</f>
         <v/>
       </c>
-      <c r="Z11" s="32" t="str">
+      <c r="Z11" s="21" t="str">
         <f>IF(_acsReport_day_each!X5="","",_acsReport_day_each!X5)</f>
         <v/>
       </c>
-      <c r="AA11" s="48" t="str">
+      <c r="AA11" s="34" t="str">
         <f>IF(_acsReport_day_each!Y5="","",_acsReport_day_each!Y5)</f>
         <v/>
       </c>
-      <c r="AB11" s="32" t="str">
+      <c r="AB11" s="21" t="str">
         <f>IF(_acsReport_day_each!Z5="","",_acsReport_day_each!Z5)</f>
         <v/>
       </c>
-      <c r="AC11" s="32" t="str">
+      <c r="AC11" s="21" t="str">
         <f>IF(_acsReport_day_each!AA5="","",_acsReport_day_each!AA5)</f>
         <v/>
       </c>
-      <c r="AD11" s="33" t="str">
+      <c r="AD11" s="22" t="str">
         <f>IF(_acsReport_day_each!AB5="","",_acsReport_day_each!AB5)</f>
         <v/>
       </c>
-      <c r="AE11" s="32" t="str">
+      <c r="AE11" s="21" t="str">
         <f>IF(_acsReport_day_each!AC5="","",_acsReport_day_each!AC5)</f>
         <v/>
       </c>
-      <c r="AF11" s="32" t="str">
+      <c r="AF11" s="21" t="str">
         <f>IF(_acsReport_day_each!AD5="","",_acsReport_day_each!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="48" t="str">
+      <c r="AG11" s="34" t="str">
         <f>IF(_acsReport_day_each!AE5="","",_acsReport_day_each!AE5)</f>
         <v/>
       </c>
-      <c r="AH11" s="32" t="str">
+      <c r="AH11" s="21" t="str">
         <f>IF(_acsReport_day_each!AF5="","",_acsReport_day_each!AF5)</f>
         <v/>
       </c>
-      <c r="AI11" s="32" t="str">
+      <c r="AI11" s="21" t="str">
         <f>IF(_acsReport_day_each!AG5="","",_acsReport_day_each!AG5)</f>
         <v/>
       </c>
-      <c r="AJ11" s="33" t="str">
+      <c r="AJ11" s="22" t="str">
         <f>IF(_acsReport_day_each!AH5="","",_acsReport_day_each!AH5)</f>
         <v/>
       </c>
-      <c r="AK11" s="32" t="str">
+      <c r="AK11" s="21" t="str">
         <f>IF(_acsReport_day_each!AI5="","",_acsReport_day_each!AI5)</f>
         <v/>
       </c>
-      <c r="AL11" s="32" t="str">
+      <c r="AL11" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ5="","",_acsReport_day_each!AJ5)</f>
         <v/>
       </c>
-      <c r="AM11" s="48" t="str">
+      <c r="AM11" s="34" t="str">
         <f>IF(_acsReport_day_each!AK5="","",_acsReport_day_each!AK5)</f>
         <v/>
       </c>
-      <c r="AN11" s="32" t="str">
+      <c r="AN11" s="21" t="str">
         <f>IF(_acsReport_day_each!AL5="","",_acsReport_day_each!AL5)</f>
         <v/>
       </c>
-      <c r="AO11" s="32" t="str">
+      <c r="AO11" s="21" t="str">
         <f>IF(_acsReport_day_each!AM5="","",_acsReport_day_each!AM5)</f>
         <v/>
       </c>
-      <c r="AP11" s="33" t="str">
+      <c r="AP11" s="22" t="str">
         <f>IF(_acsReport_day_each!AN5="","",_acsReport_day_each!AN5)</f>
         <v/>
       </c>
-      <c r="AQ11" s="32" t="str">
+      <c r="AQ11" s="21" t="str">
         <f>IF(_acsReport_day_each!AO5="","",_acsReport_day_each!AO5)</f>
         <v/>
       </c>
-      <c r="AR11" s="32" t="str">
+      <c r="AR11" s="21" t="str">
         <f>IF(_acsReport_day_each!AP5="","",_acsReport_day_each!AP5)</f>
         <v/>
       </c>
-      <c r="AS11" s="48" t="str">
+      <c r="AS11" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ5="","",_acsReport_day_each!AQ5)</f>
         <v/>
       </c>
-      <c r="AT11" s="32" t="str">
+      <c r="AT11" s="21" t="str">
         <f>IF(_acsReport_day_each!AR5="","",_acsReport_day_each!AR5)</f>
         <v/>
       </c>
-      <c r="AU11" s="32" t="str">
+      <c r="AU11" s="21" t="str">
         <f>IF(_acsReport_day_each!AS5="","",_acsReport_day_each!AS5)</f>
         <v/>
       </c>
-      <c r="AV11" s="33" t="str">
+      <c r="AV11" s="22" t="str">
         <f>IF(_acsReport_day_each!AT5="","",_acsReport_day_each!AT5)</f>
         <v/>
       </c>
-      <c r="AW11" s="32" t="str">
+      <c r="AW11" s="21" t="str">
         <f>IF(_acsReport_day_each!AU5="","",_acsReport_day_each!AU5)</f>
         <v/>
       </c>
-      <c r="AX11" s="32" t="str">
+      <c r="AX11" s="21" t="str">
         <f>IF(_acsReport_day_each!AV5="","",_acsReport_day_each!AV5)</f>
         <v/>
       </c>
-      <c r="AY11" s="48" t="str">
+      <c r="AY11" s="34" t="str">
         <f>IF(_acsReport_day_each!AW5="","",_acsReport_day_each!AW5)</f>
         <v/>
       </c>
-      <c r="AZ11" s="32" t="str">
+      <c r="AZ11" s="21" t="str">
         <f>IF(_acsReport_day_each!AX5="","",_acsReport_day_each!AX5)</f>
         <v/>
       </c>
-      <c r="BA11" s="32" t="str">
+      <c r="BA11" s="21" t="str">
         <f>IF(_acsReport_day_each!AY5="","",_acsReport_day_each!AY5)</f>
         <v/>
       </c>
-      <c r="BB11" s="48" t="str">
+      <c r="BB11" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ5="","",_acsReport_day_each!AZ5)</f>
         <v/>
       </c>
-      <c r="BC11" s="32" t="str">
+      <c r="BC11" s="21" t="str">
         <f>IF(_acsReport_day_each!BA5="","",_acsReport_day_each!BA5)</f>
         <v/>
       </c>
-      <c r="BD11" s="32" t="str">
+      <c r="BD11" s="21" t="str">
         <f>IF(_acsReport_day_each!BB5="","",_acsReport_day_each!BB5)</f>
         <v/>
       </c>
-      <c r="BE11" s="64">
+      <c r="BE11" s="41">
         <f>_acsReport_day_each!BD5:BF5</f>
         <v>0</v>
       </c>
@@ -4098,227 +3483,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="2:64">
-      <c r="B12" s="30">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="C12" s="31" t="str">
+    <row r="12" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B12" s="19">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C12" s="20" t="str">
         <f>IF(_acsReport_day_each!A6="","",_acsReport_day_each!A6)</f>
         <v/>
       </c>
-      <c r="D12" s="32" t="str">
+      <c r="D12" s="21" t="str">
         <f>IF(_acsReport_day_each!B6="","",_acsReport_day_each!B6)</f>
         <v/>
       </c>
-      <c r="E12" s="32" t="str">
+      <c r="E12" s="21" t="str">
         <f>IF(_acsReport_day_each!C6="","",_acsReport_day_each!C6)</f>
         <v/>
       </c>
-      <c r="F12" s="33" t="str">
+      <c r="F12" s="22" t="str">
         <f>IF(_acsReport_day_each!D6="","",_acsReport_day_each!D6)</f>
         <v/>
       </c>
-      <c r="G12" s="32" t="str">
+      <c r="G12" s="21" t="str">
         <f>IF(_acsReport_day_each!E6="","",_acsReport_day_each!E6)</f>
         <v/>
       </c>
-      <c r="H12" s="32" t="str">
+      <c r="H12" s="21" t="str">
         <f>IF(_acsReport_day_each!F6="","",_acsReport_day_each!F6)</f>
         <v/>
       </c>
-      <c r="I12" s="48" t="str">
+      <c r="I12" s="34" t="str">
         <f>IF(_acsReport_day_each!G6="","",_acsReport_day_each!G6)</f>
         <v/>
       </c>
-      <c r="J12" s="32" t="str">
+      <c r="J12" s="21" t="str">
         <f>IF(_acsReport_day_each!H6="","",_acsReport_day_each!H6)</f>
         <v/>
       </c>
-      <c r="K12" s="32" t="str">
+      <c r="K12" s="21" t="str">
         <f>IF(_acsReport_day_each!I6="","",_acsReport_day_each!I6)</f>
         <v/>
       </c>
-      <c r="L12" s="33" t="str">
+      <c r="L12" s="22" t="str">
         <f>IF(_acsReport_day_each!J6="","",_acsReport_day_each!J6)</f>
         <v/>
       </c>
-      <c r="M12" s="32" t="str">
+      <c r="M12" s="21" t="str">
         <f>IF(_acsReport_day_each!K6="","",_acsReport_day_each!K6)</f>
         <v/>
       </c>
-      <c r="N12" s="32" t="str">
+      <c r="N12" s="21" t="str">
         <f>IF(_acsReport_day_each!L6="","",_acsReport_day_each!L6)</f>
         <v/>
       </c>
-      <c r="O12" s="48" t="str">
+      <c r="O12" s="34" t="str">
         <f>IF(_acsReport_day_each!M6="","",_acsReport_day_each!M6)</f>
         <v/>
       </c>
-      <c r="P12" s="32" t="str">
+      <c r="P12" s="21" t="str">
         <f>IF(_acsReport_day_each!N6="","",_acsReport_day_each!N6)</f>
         <v/>
       </c>
-      <c r="Q12" s="32" t="str">
+      <c r="Q12" s="21" t="str">
         <f>IF(_acsReport_day_each!O6="","",_acsReport_day_each!O6)</f>
         <v/>
       </c>
-      <c r="R12" s="33" t="str">
+      <c r="R12" s="22" t="str">
         <f>IF(_acsReport_day_each!P6="","",_acsReport_day_each!P6)</f>
         <v/>
       </c>
-      <c r="S12" s="32" t="str">
+      <c r="S12" s="21" t="str">
         <f>IF(_acsReport_day_each!Q6="","",_acsReport_day_each!Q6)</f>
         <v/>
       </c>
-      <c r="T12" s="32" t="str">
+      <c r="T12" s="21" t="str">
         <f>IF(_acsReport_day_each!R6="","",_acsReport_day_each!R6)</f>
         <v/>
       </c>
-      <c r="U12" s="48" t="str">
+      <c r="U12" s="34" t="str">
         <f>IF(_acsReport_day_each!S6="","",_acsReport_day_each!S6)</f>
         <v/>
       </c>
-      <c r="V12" s="32" t="str">
+      <c r="V12" s="21" t="str">
         <f>IF(_acsReport_day_each!T6="","",_acsReport_day_each!T6)</f>
         <v/>
       </c>
-      <c r="W12" s="32" t="str">
+      <c r="W12" s="21" t="str">
         <f>IF(_acsReport_day_each!U6="","",_acsReport_day_each!U6)</f>
         <v/>
       </c>
-      <c r="X12" s="33" t="str">
+      <c r="X12" s="22" t="str">
         <f>IF(_acsReport_day_each!V6="","",_acsReport_day_each!V6)</f>
         <v/>
       </c>
-      <c r="Y12" s="32" t="str">
+      <c r="Y12" s="21" t="str">
         <f>IF(_acsReport_day_each!W6="","",_acsReport_day_each!W6)</f>
         <v/>
       </c>
-      <c r="Z12" s="32" t="str">
+      <c r="Z12" s="21" t="str">
         <f>IF(_acsReport_day_each!X6="","",_acsReport_day_each!X6)</f>
         <v/>
       </c>
-      <c r="AA12" s="48" t="str">
+      <c r="AA12" s="34" t="str">
         <f>IF(_acsReport_day_each!Y6="","",_acsReport_day_each!Y6)</f>
         <v/>
       </c>
-      <c r="AB12" s="32" t="str">
+      <c r="AB12" s="21" t="str">
         <f>IF(_acsReport_day_each!Z6="","",_acsReport_day_each!Z6)</f>
         <v/>
       </c>
-      <c r="AC12" s="32" t="str">
+      <c r="AC12" s="21" t="str">
         <f>IF(_acsReport_day_each!AA6="","",_acsReport_day_each!AA6)</f>
         <v/>
       </c>
-      <c r="AD12" s="33" t="str">
+      <c r="AD12" s="22" t="str">
         <f>IF(_acsReport_day_each!AB6="","",_acsReport_day_each!AB6)</f>
         <v/>
       </c>
-      <c r="AE12" s="32" t="str">
+      <c r="AE12" s="21" t="str">
         <f>IF(_acsReport_day_each!AC6="","",_acsReport_day_each!AC6)</f>
         <v/>
       </c>
-      <c r="AF12" s="32" t="str">
+      <c r="AF12" s="21" t="str">
         <f>IF(_acsReport_day_each!AD6="","",_acsReport_day_each!AD6)</f>
         <v/>
       </c>
-      <c r="AG12" s="48" t="str">
+      <c r="AG12" s="34" t="str">
         <f>IF(_acsReport_day_each!AE6="","",_acsReport_day_each!AE6)</f>
         <v/>
       </c>
-      <c r="AH12" s="32" t="str">
+      <c r="AH12" s="21" t="str">
         <f>IF(_acsReport_day_each!AF6="","",_acsReport_day_each!AF6)</f>
         <v/>
       </c>
-      <c r="AI12" s="32" t="str">
+      <c r="AI12" s="21" t="str">
         <f>IF(_acsReport_day_each!AG6="","",_acsReport_day_each!AG6)</f>
         <v/>
       </c>
-      <c r="AJ12" s="33" t="str">
+      <c r="AJ12" s="22" t="str">
         <f>IF(_acsReport_day_each!AH6="","",_acsReport_day_each!AH6)</f>
         <v/>
       </c>
-      <c r="AK12" s="32" t="str">
+      <c r="AK12" s="21" t="str">
         <f>IF(_acsReport_day_each!AI6="","",_acsReport_day_each!AI6)</f>
         <v/>
       </c>
-      <c r="AL12" s="32" t="str">
+      <c r="AL12" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ6="","",_acsReport_day_each!AJ6)</f>
         <v/>
       </c>
-      <c r="AM12" s="48" t="str">
+      <c r="AM12" s="34" t="str">
         <f>IF(_acsReport_day_each!AK6="","",_acsReport_day_each!AK6)</f>
         <v/>
       </c>
-      <c r="AN12" s="32" t="str">
+      <c r="AN12" s="21" t="str">
         <f>IF(_acsReport_day_each!AL6="","",_acsReport_day_each!AL6)</f>
         <v/>
       </c>
-      <c r="AO12" s="32" t="str">
+      <c r="AO12" s="21" t="str">
         <f>IF(_acsReport_day_each!AM6="","",_acsReport_day_each!AM6)</f>
         <v/>
       </c>
-      <c r="AP12" s="33" t="str">
+      <c r="AP12" s="22" t="str">
         <f>IF(_acsReport_day_each!AN6="","",_acsReport_day_each!AN6)</f>
         <v/>
       </c>
-      <c r="AQ12" s="32" t="str">
+      <c r="AQ12" s="21" t="str">
         <f>IF(_acsReport_day_each!AO6="","",_acsReport_day_each!AO6)</f>
         <v/>
       </c>
-      <c r="AR12" s="32" t="str">
+      <c r="AR12" s="21" t="str">
         <f>IF(_acsReport_day_each!AP6="","",_acsReport_day_each!AP6)</f>
         <v/>
       </c>
-      <c r="AS12" s="48" t="str">
+      <c r="AS12" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ6="","",_acsReport_day_each!AQ6)</f>
         <v/>
       </c>
-      <c r="AT12" s="32" t="str">
+      <c r="AT12" s="21" t="str">
         <f>IF(_acsReport_day_each!AR6="","",_acsReport_day_each!AR6)</f>
         <v/>
       </c>
-      <c r="AU12" s="32" t="str">
+      <c r="AU12" s="21" t="str">
         <f>IF(_acsReport_day_each!AS6="","",_acsReport_day_each!AS6)</f>
         <v/>
       </c>
-      <c r="AV12" s="33" t="str">
+      <c r="AV12" s="22" t="str">
         <f>IF(_acsReport_day_each!AT6="","",_acsReport_day_each!AT6)</f>
         <v/>
       </c>
-      <c r="AW12" s="32" t="str">
+      <c r="AW12" s="21" t="str">
         <f>IF(_acsReport_day_each!AU6="","",_acsReport_day_each!AU6)</f>
         <v/>
       </c>
-      <c r="AX12" s="32" t="str">
+      <c r="AX12" s="21" t="str">
         <f>IF(_acsReport_day_each!AV6="","",_acsReport_day_each!AV6)</f>
         <v/>
       </c>
-      <c r="AY12" s="48" t="str">
+      <c r="AY12" s="34" t="str">
         <f>IF(_acsReport_day_each!AW6="","",_acsReport_day_each!AW6)</f>
         <v/>
       </c>
-      <c r="AZ12" s="32" t="str">
+      <c r="AZ12" s="21" t="str">
         <f>IF(_acsReport_day_each!AX6="","",_acsReport_day_each!AX6)</f>
         <v/>
       </c>
-      <c r="BA12" s="32" t="str">
+      <c r="BA12" s="21" t="str">
         <f>IF(_acsReport_day_each!AY6="","",_acsReport_day_each!AY6)</f>
         <v/>
       </c>
-      <c r="BB12" s="48" t="str">
+      <c r="BB12" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ6="","",_acsReport_day_each!AZ6)</f>
         <v/>
       </c>
-      <c r="BC12" s="32" t="str">
+      <c r="BC12" s="21" t="str">
         <f>IF(_acsReport_day_each!BA6="","",_acsReport_day_each!BA6)</f>
         <v/>
       </c>
-      <c r="BD12" s="32" t="str">
+      <c r="BD12" s="21" t="str">
         <f>IF(_acsReport_day_each!BB6="","",_acsReport_day_each!BB6)</f>
         <v/>
       </c>
-      <c r="BE12" s="64">
+      <c r="BE12" s="41">
         <f>_acsReport_day_each!BD6:BF6</f>
         <v>0</v>
       </c>
@@ -4339,227 +3724,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="2:64">
-      <c r="B13" s="30">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="C13" s="31" t="str">
+    <row r="13" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B13" s="19">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="C13" s="20" t="str">
         <f>IF(_acsReport_day_each!A7="","",_acsReport_day_each!A7)</f>
         <v/>
       </c>
-      <c r="D13" s="32" t="str">
+      <c r="D13" s="21" t="str">
         <f>IF(_acsReport_day_each!B7="","",_acsReport_day_each!B7)</f>
         <v/>
       </c>
-      <c r="E13" s="32" t="str">
+      <c r="E13" s="21" t="str">
         <f>IF(_acsReport_day_each!C7="","",_acsReport_day_each!C7)</f>
         <v/>
       </c>
-      <c r="F13" s="33" t="str">
+      <c r="F13" s="22" t="str">
         <f>IF(_acsReport_day_each!D7="","",_acsReport_day_each!D7)</f>
         <v/>
       </c>
-      <c r="G13" s="32" t="str">
+      <c r="G13" s="21" t="str">
         <f>IF(_acsReport_day_each!E7="","",_acsReport_day_each!E7)</f>
         <v/>
       </c>
-      <c r="H13" s="32" t="str">
+      <c r="H13" s="21" t="str">
         <f>IF(_acsReport_day_each!F7="","",_acsReport_day_each!F7)</f>
         <v/>
       </c>
-      <c r="I13" s="48" t="str">
+      <c r="I13" s="34" t="str">
         <f>IF(_acsReport_day_each!G7="","",_acsReport_day_each!G7)</f>
         <v/>
       </c>
-      <c r="J13" s="32" t="str">
+      <c r="J13" s="21" t="str">
         <f>IF(_acsReport_day_each!H7="","",_acsReport_day_each!H7)</f>
         <v/>
       </c>
-      <c r="K13" s="32" t="str">
+      <c r="K13" s="21" t="str">
         <f>IF(_acsReport_day_each!I7="","",_acsReport_day_each!I7)</f>
         <v/>
       </c>
-      <c r="L13" s="33" t="str">
+      <c r="L13" s="22" t="str">
         <f>IF(_acsReport_day_each!J7="","",_acsReport_day_each!J7)</f>
         <v/>
       </c>
-      <c r="M13" s="32" t="str">
+      <c r="M13" s="21" t="str">
         <f>IF(_acsReport_day_each!K7="","",_acsReport_day_each!K7)</f>
         <v/>
       </c>
-      <c r="N13" s="32" t="str">
+      <c r="N13" s="21" t="str">
         <f>IF(_acsReport_day_each!L7="","",_acsReport_day_each!L7)</f>
         <v/>
       </c>
-      <c r="O13" s="48" t="str">
+      <c r="O13" s="34" t="str">
         <f>IF(_acsReport_day_each!M7="","",_acsReport_day_each!M7)</f>
         <v/>
       </c>
-      <c r="P13" s="32" t="str">
+      <c r="P13" s="21" t="str">
         <f>IF(_acsReport_day_each!N7="","",_acsReport_day_each!N7)</f>
         <v/>
       </c>
-      <c r="Q13" s="32" t="str">
+      <c r="Q13" s="21" t="str">
         <f>IF(_acsReport_day_each!O7="","",_acsReport_day_each!O7)</f>
         <v/>
       </c>
-      <c r="R13" s="33" t="str">
+      <c r="R13" s="22" t="str">
         <f>IF(_acsReport_day_each!P7="","",_acsReport_day_each!P7)</f>
         <v/>
       </c>
-      <c r="S13" s="32" t="str">
+      <c r="S13" s="21" t="str">
         <f>IF(_acsReport_day_each!Q7="","",_acsReport_day_each!Q7)</f>
         <v/>
       </c>
-      <c r="T13" s="32" t="str">
+      <c r="T13" s="21" t="str">
         <f>IF(_acsReport_day_each!R7="","",_acsReport_day_each!R7)</f>
         <v/>
       </c>
-      <c r="U13" s="48" t="str">
+      <c r="U13" s="34" t="str">
         <f>IF(_acsReport_day_each!S7="","",_acsReport_day_each!S7)</f>
         <v/>
       </c>
-      <c r="V13" s="32" t="str">
+      <c r="V13" s="21" t="str">
         <f>IF(_acsReport_day_each!T7="","",_acsReport_day_each!T7)</f>
         <v/>
       </c>
-      <c r="W13" s="32" t="str">
+      <c r="W13" s="21" t="str">
         <f>IF(_acsReport_day_each!U7="","",_acsReport_day_each!U7)</f>
         <v/>
       </c>
-      <c r="X13" s="33" t="str">
+      <c r="X13" s="22" t="str">
         <f>IF(_acsReport_day_each!V7="","",_acsReport_day_each!V7)</f>
         <v/>
       </c>
-      <c r="Y13" s="32" t="str">
+      <c r="Y13" s="21" t="str">
         <f>IF(_acsReport_day_each!W7="","",_acsReport_day_each!W7)</f>
         <v/>
       </c>
-      <c r="Z13" s="32" t="str">
+      <c r="Z13" s="21" t="str">
         <f>IF(_acsReport_day_each!X7="","",_acsReport_day_each!X7)</f>
         <v/>
       </c>
-      <c r="AA13" s="48" t="str">
+      <c r="AA13" s="34" t="str">
         <f>IF(_acsReport_day_each!Y7="","",_acsReport_day_each!Y7)</f>
         <v/>
       </c>
-      <c r="AB13" s="32" t="str">
+      <c r="AB13" s="21" t="str">
         <f>IF(_acsReport_day_each!Z7="","",_acsReport_day_each!Z7)</f>
         <v/>
       </c>
-      <c r="AC13" s="32" t="str">
+      <c r="AC13" s="21" t="str">
         <f>IF(_acsReport_day_each!AA7="","",_acsReport_day_each!AA7)</f>
         <v/>
       </c>
-      <c r="AD13" s="33" t="str">
+      <c r="AD13" s="22" t="str">
         <f>IF(_acsReport_day_each!AB7="","",_acsReport_day_each!AB7)</f>
         <v/>
       </c>
-      <c r="AE13" s="32" t="str">
+      <c r="AE13" s="21" t="str">
         <f>IF(_acsReport_day_each!AC7="","",_acsReport_day_each!AC7)</f>
         <v/>
       </c>
-      <c r="AF13" s="32" t="str">
+      <c r="AF13" s="21" t="str">
         <f>IF(_acsReport_day_each!AD7="","",_acsReport_day_each!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="48" t="str">
+      <c r="AG13" s="34" t="str">
         <f>IF(_acsReport_day_each!AE7="","",_acsReport_day_each!AE7)</f>
         <v/>
       </c>
-      <c r="AH13" s="32" t="str">
+      <c r="AH13" s="21" t="str">
         <f>IF(_acsReport_day_each!AF7="","",_acsReport_day_each!AF7)</f>
         <v/>
       </c>
-      <c r="AI13" s="32" t="str">
+      <c r="AI13" s="21" t="str">
         <f>IF(_acsReport_day_each!AG7="","",_acsReport_day_each!AG7)</f>
         <v/>
       </c>
-      <c r="AJ13" s="33" t="str">
+      <c r="AJ13" s="22" t="str">
         <f>IF(_acsReport_day_each!AH7="","",_acsReport_day_each!AH7)</f>
         <v/>
       </c>
-      <c r="AK13" s="32" t="str">
+      <c r="AK13" s="21" t="str">
         <f>IF(_acsReport_day_each!AI7="","",_acsReport_day_each!AI7)</f>
         <v/>
       </c>
-      <c r="AL13" s="32" t="str">
+      <c r="AL13" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ7="","",_acsReport_day_each!AJ7)</f>
         <v/>
       </c>
-      <c r="AM13" s="48" t="str">
+      <c r="AM13" s="34" t="str">
         <f>IF(_acsReport_day_each!AK7="","",_acsReport_day_each!AK7)</f>
         <v/>
       </c>
-      <c r="AN13" s="32" t="str">
+      <c r="AN13" s="21" t="str">
         <f>IF(_acsReport_day_each!AL7="","",_acsReport_day_each!AL7)</f>
         <v/>
       </c>
-      <c r="AO13" s="32" t="str">
+      <c r="AO13" s="21" t="str">
         <f>IF(_acsReport_day_each!AM7="","",_acsReport_day_each!AM7)</f>
         <v/>
       </c>
-      <c r="AP13" s="33" t="str">
+      <c r="AP13" s="22" t="str">
         <f>IF(_acsReport_day_each!AN7="","",_acsReport_day_each!AN7)</f>
         <v/>
       </c>
-      <c r="AQ13" s="32" t="str">
+      <c r="AQ13" s="21" t="str">
         <f>IF(_acsReport_day_each!AO7="","",_acsReport_day_each!AO7)</f>
         <v/>
       </c>
-      <c r="AR13" s="32" t="str">
+      <c r="AR13" s="21" t="str">
         <f>IF(_acsReport_day_each!AP7="","",_acsReport_day_each!AP7)</f>
         <v/>
       </c>
-      <c r="AS13" s="48" t="str">
+      <c r="AS13" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ7="","",_acsReport_day_each!AQ7)</f>
         <v/>
       </c>
-      <c r="AT13" s="32" t="str">
+      <c r="AT13" s="21" t="str">
         <f>IF(_acsReport_day_each!AR7="","",_acsReport_day_each!AR7)</f>
         <v/>
       </c>
-      <c r="AU13" s="32" t="str">
+      <c r="AU13" s="21" t="str">
         <f>IF(_acsReport_day_each!AS7="","",_acsReport_day_each!AS7)</f>
         <v/>
       </c>
-      <c r="AV13" s="33" t="str">
+      <c r="AV13" s="22" t="str">
         <f>IF(_acsReport_day_each!AT7="","",_acsReport_day_each!AT7)</f>
         <v/>
       </c>
-      <c r="AW13" s="32" t="str">
+      <c r="AW13" s="21" t="str">
         <f>IF(_acsReport_day_each!AU7="","",_acsReport_day_each!AU7)</f>
         <v/>
       </c>
-      <c r="AX13" s="32" t="str">
+      <c r="AX13" s="21" t="str">
         <f>IF(_acsReport_day_each!AV7="","",_acsReport_day_each!AV7)</f>
         <v/>
       </c>
-      <c r="AY13" s="48" t="str">
+      <c r="AY13" s="34" t="str">
         <f>IF(_acsReport_day_each!AW7="","",_acsReport_day_each!AW7)</f>
         <v/>
       </c>
-      <c r="AZ13" s="32" t="str">
+      <c r="AZ13" s="21" t="str">
         <f>IF(_acsReport_day_each!AX7="","",_acsReport_day_each!AX7)</f>
         <v/>
       </c>
-      <c r="BA13" s="32" t="str">
+      <c r="BA13" s="21" t="str">
         <f>IF(_acsReport_day_each!AY7="","",_acsReport_day_each!AY7)</f>
         <v/>
       </c>
-      <c r="BB13" s="48" t="str">
+      <c r="BB13" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ7="","",_acsReport_day_each!AZ7)</f>
         <v/>
       </c>
-      <c r="BC13" s="32" t="str">
+      <c r="BC13" s="21" t="str">
         <f>IF(_acsReport_day_each!BA7="","",_acsReport_day_each!BA7)</f>
         <v/>
       </c>
-      <c r="BD13" s="32" t="str">
+      <c r="BD13" s="21" t="str">
         <f>IF(_acsReport_day_each!BB7="","",_acsReport_day_each!BB7)</f>
         <v/>
       </c>
-      <c r="BE13" s="64">
+      <c r="BE13" s="41">
         <f>_acsReport_day_each!BD7:BF7</f>
         <v>0</v>
       </c>
@@ -4580,227 +3965,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="2:64">
-      <c r="B14" s="30">
+    <row r="14" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B14" s="19">
         <v>0.25</v>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="20" t="str">
         <f>IF(_acsReport_day_each!A8="","",_acsReport_day_each!A8)</f>
         <v/>
       </c>
-      <c r="D14" s="32" t="str">
+      <c r="D14" s="21" t="str">
         <f>IF(_acsReport_day_each!B8="","",_acsReport_day_each!B8)</f>
         <v/>
       </c>
-      <c r="E14" s="32" t="str">
+      <c r="E14" s="21" t="str">
         <f>IF(_acsReport_day_each!C8="","",_acsReport_day_each!C8)</f>
         <v/>
       </c>
-      <c r="F14" s="33" t="str">
+      <c r="F14" s="22" t="str">
         <f>IF(_acsReport_day_each!D8="","",_acsReport_day_each!D8)</f>
         <v/>
       </c>
-      <c r="G14" s="32" t="str">
+      <c r="G14" s="21" t="str">
         <f>IF(_acsReport_day_each!E8="","",_acsReport_day_each!E8)</f>
         <v/>
       </c>
-      <c r="H14" s="32" t="str">
+      <c r="H14" s="21" t="str">
         <f>IF(_acsReport_day_each!F8="","",_acsReport_day_each!F8)</f>
         <v/>
       </c>
-      <c r="I14" s="48" t="str">
+      <c r="I14" s="34" t="str">
         <f>IF(_acsReport_day_each!G8="","",_acsReport_day_each!G8)</f>
         <v/>
       </c>
-      <c r="J14" s="32" t="str">
+      <c r="J14" s="21" t="str">
         <f>IF(_acsReport_day_each!H8="","",_acsReport_day_each!H8)</f>
         <v/>
       </c>
-      <c r="K14" s="32" t="str">
+      <c r="K14" s="21" t="str">
         <f>IF(_acsReport_day_each!I8="","",_acsReport_day_each!I8)</f>
         <v/>
       </c>
-      <c r="L14" s="33" t="str">
+      <c r="L14" s="22" t="str">
         <f>IF(_acsReport_day_each!J8="","",_acsReport_day_each!J8)</f>
         <v/>
       </c>
-      <c r="M14" s="32" t="str">
+      <c r="M14" s="21" t="str">
         <f>IF(_acsReport_day_each!K8="","",_acsReport_day_each!K8)</f>
         <v/>
       </c>
-      <c r="N14" s="32" t="str">
+      <c r="N14" s="21" t="str">
         <f>IF(_acsReport_day_each!L8="","",_acsReport_day_each!L8)</f>
         <v/>
       </c>
-      <c r="O14" s="48" t="str">
+      <c r="O14" s="34" t="str">
         <f>IF(_acsReport_day_each!M8="","",_acsReport_day_each!M8)</f>
         <v/>
       </c>
-      <c r="P14" s="32" t="str">
+      <c r="P14" s="21" t="str">
         <f>IF(_acsReport_day_each!N8="","",_acsReport_day_each!N8)</f>
         <v/>
       </c>
-      <c r="Q14" s="32" t="str">
+      <c r="Q14" s="21" t="str">
         <f>IF(_acsReport_day_each!O8="","",_acsReport_day_each!O8)</f>
         <v/>
       </c>
-      <c r="R14" s="33" t="str">
+      <c r="R14" s="22" t="str">
         <f>IF(_acsReport_day_each!P8="","",_acsReport_day_each!P8)</f>
         <v/>
       </c>
-      <c r="S14" s="32" t="str">
+      <c r="S14" s="21" t="str">
         <f>IF(_acsReport_day_each!Q8="","",_acsReport_day_each!Q8)</f>
         <v/>
       </c>
-      <c r="T14" s="32" t="str">
+      <c r="T14" s="21" t="str">
         <f>IF(_acsReport_day_each!R8="","",_acsReport_day_each!R8)</f>
         <v/>
       </c>
-      <c r="U14" s="48" t="str">
+      <c r="U14" s="34" t="str">
         <f>IF(_acsReport_day_each!S8="","",_acsReport_day_each!S8)</f>
         <v/>
       </c>
-      <c r="V14" s="32" t="str">
+      <c r="V14" s="21" t="str">
         <f>IF(_acsReport_day_each!T8="","",_acsReport_day_each!T8)</f>
         <v/>
       </c>
-      <c r="W14" s="32" t="str">
+      <c r="W14" s="21" t="str">
         <f>IF(_acsReport_day_each!U8="","",_acsReport_day_each!U8)</f>
         <v/>
       </c>
-      <c r="X14" s="33" t="str">
+      <c r="X14" s="22" t="str">
         <f>IF(_acsReport_day_each!V8="","",_acsReport_day_each!V8)</f>
         <v/>
       </c>
-      <c r="Y14" s="32" t="str">
+      <c r="Y14" s="21" t="str">
         <f>IF(_acsReport_day_each!W8="","",_acsReport_day_each!W8)</f>
         <v/>
       </c>
-      <c r="Z14" s="32" t="str">
+      <c r="Z14" s="21" t="str">
         <f>IF(_acsReport_day_each!X8="","",_acsReport_day_each!X8)</f>
         <v/>
       </c>
-      <c r="AA14" s="48" t="str">
+      <c r="AA14" s="34" t="str">
         <f>IF(_acsReport_day_each!Y8="","",_acsReport_day_each!Y8)</f>
         <v/>
       </c>
-      <c r="AB14" s="32" t="str">
+      <c r="AB14" s="21" t="str">
         <f>IF(_acsReport_day_each!Z8="","",_acsReport_day_each!Z8)</f>
         <v/>
       </c>
-      <c r="AC14" s="32" t="str">
+      <c r="AC14" s="21" t="str">
         <f>IF(_acsReport_day_each!AA8="","",_acsReport_day_each!AA8)</f>
         <v/>
       </c>
-      <c r="AD14" s="33" t="str">
+      <c r="AD14" s="22" t="str">
         <f>IF(_acsReport_day_each!AB8="","",_acsReport_day_each!AB8)</f>
         <v/>
       </c>
-      <c r="AE14" s="32" t="str">
+      <c r="AE14" s="21" t="str">
         <f>IF(_acsReport_day_each!AC8="","",_acsReport_day_each!AC8)</f>
         <v/>
       </c>
-      <c r="AF14" s="32" t="str">
+      <c r="AF14" s="21" t="str">
         <f>IF(_acsReport_day_each!AD8="","",_acsReport_day_each!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="48" t="str">
+      <c r="AG14" s="34" t="str">
         <f>IF(_acsReport_day_each!AE8="","",_acsReport_day_each!AE8)</f>
         <v/>
       </c>
-      <c r="AH14" s="32" t="str">
+      <c r="AH14" s="21" t="str">
         <f>IF(_acsReport_day_each!AF8="","",_acsReport_day_each!AF8)</f>
         <v/>
       </c>
-      <c r="AI14" s="32" t="str">
+      <c r="AI14" s="21" t="str">
         <f>IF(_acsReport_day_each!AG8="","",_acsReport_day_each!AG8)</f>
         <v/>
       </c>
-      <c r="AJ14" s="33" t="str">
+      <c r="AJ14" s="22" t="str">
         <f>IF(_acsReport_day_each!AH8="","",_acsReport_day_each!AH8)</f>
         <v/>
       </c>
-      <c r="AK14" s="32" t="str">
+      <c r="AK14" s="21" t="str">
         <f>IF(_acsReport_day_each!AI8="","",_acsReport_day_each!AI8)</f>
         <v/>
       </c>
-      <c r="AL14" s="32" t="str">
+      <c r="AL14" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ8="","",_acsReport_day_each!AJ8)</f>
         <v/>
       </c>
-      <c r="AM14" s="48" t="str">
+      <c r="AM14" s="34" t="str">
         <f>IF(_acsReport_day_each!AK8="","",_acsReport_day_each!AK8)</f>
         <v/>
       </c>
-      <c r="AN14" s="32" t="str">
+      <c r="AN14" s="21" t="str">
         <f>IF(_acsReport_day_each!AL8="","",_acsReport_day_each!AL8)</f>
         <v/>
       </c>
-      <c r="AO14" s="32" t="str">
+      <c r="AO14" s="21" t="str">
         <f>IF(_acsReport_day_each!AM8="","",_acsReport_day_each!AM8)</f>
         <v/>
       </c>
-      <c r="AP14" s="33" t="str">
+      <c r="AP14" s="22" t="str">
         <f>IF(_acsReport_day_each!AN8="","",_acsReport_day_each!AN8)</f>
         <v/>
       </c>
-      <c r="AQ14" s="32" t="str">
+      <c r="AQ14" s="21" t="str">
         <f>IF(_acsReport_day_each!AO8="","",_acsReport_day_each!AO8)</f>
         <v/>
       </c>
-      <c r="AR14" s="32" t="str">
+      <c r="AR14" s="21" t="str">
         <f>IF(_acsReport_day_each!AP8="","",_acsReport_day_each!AP8)</f>
         <v/>
       </c>
-      <c r="AS14" s="48" t="str">
+      <c r="AS14" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ8="","",_acsReport_day_each!AQ8)</f>
         <v/>
       </c>
-      <c r="AT14" s="32" t="str">
+      <c r="AT14" s="21" t="str">
         <f>IF(_acsReport_day_each!AR8="","",_acsReport_day_each!AR8)</f>
         <v/>
       </c>
-      <c r="AU14" s="32" t="str">
+      <c r="AU14" s="21" t="str">
         <f>IF(_acsReport_day_each!AS8="","",_acsReport_day_each!AS8)</f>
         <v/>
       </c>
-      <c r="AV14" s="33" t="str">
+      <c r="AV14" s="22" t="str">
         <f>IF(_acsReport_day_each!AT8="","",_acsReport_day_each!AT8)</f>
         <v/>
       </c>
-      <c r="AW14" s="32" t="str">
+      <c r="AW14" s="21" t="str">
         <f>IF(_acsReport_day_each!AU8="","",_acsReport_day_each!AU8)</f>
         <v/>
       </c>
-      <c r="AX14" s="32" t="str">
+      <c r="AX14" s="21" t="str">
         <f>IF(_acsReport_day_each!AV8="","",_acsReport_day_each!AV8)</f>
         <v/>
       </c>
-      <c r="AY14" s="48" t="str">
+      <c r="AY14" s="34" t="str">
         <f>IF(_acsReport_day_each!AW8="","",_acsReport_day_each!AW8)</f>
         <v/>
       </c>
-      <c r="AZ14" s="32" t="str">
+      <c r="AZ14" s="21" t="str">
         <f>IF(_acsReport_day_each!AX8="","",_acsReport_day_each!AX8)</f>
         <v/>
       </c>
-      <c r="BA14" s="32" t="str">
+      <c r="BA14" s="21" t="str">
         <f>IF(_acsReport_day_each!AY8="","",_acsReport_day_each!AY8)</f>
         <v/>
       </c>
-      <c r="BB14" s="48" t="str">
+      <c r="BB14" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ8="","",_acsReport_day_each!AZ8)</f>
         <v/>
       </c>
-      <c r="BC14" s="32" t="str">
+      <c r="BC14" s="21" t="str">
         <f>IF(_acsReport_day_each!BA8="","",_acsReport_day_each!BA8)</f>
         <v/>
       </c>
-      <c r="BD14" s="32" t="str">
+      <c r="BD14" s="21" t="str">
         <f>IF(_acsReport_day_each!BB8="","",_acsReport_day_each!BB8)</f>
         <v/>
       </c>
-      <c r="BE14" s="64">
+      <c r="BE14" s="41">
         <f>_acsReport_day_each!BD8:BF8</f>
         <v>0</v>
       </c>
@@ -4821,227 +4206,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="2:64">
-      <c r="B15" s="34">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="C15" s="35" t="str">
+    <row r="15" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B15" s="23">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C15" s="24" t="str">
         <f>IF(_acsReport_day_each!A9="","",_acsReport_day_each!A9)</f>
         <v/>
       </c>
-      <c r="D15" s="36" t="str">
+      <c r="D15" s="25" t="str">
         <f>IF(_acsReport_day_each!B9="","",_acsReport_day_each!B9)</f>
         <v/>
       </c>
-      <c r="E15" s="36" t="str">
+      <c r="E15" s="25" t="str">
         <f>IF(_acsReport_day_each!C9="","",_acsReport_day_each!C9)</f>
         <v/>
       </c>
-      <c r="F15" s="33" t="str">
+      <c r="F15" s="22" t="str">
         <f>IF(_acsReport_day_each!D9="","",_acsReport_day_each!D9)</f>
         <v/>
       </c>
-      <c r="G15" s="32" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_acsReport_day_each!E9="","",_acsReport_day_each!E9)</f>
         <v/>
       </c>
-      <c r="H15" s="32" t="str">
+      <c r="H15" s="21" t="str">
         <f>IF(_acsReport_day_each!F9="","",_acsReport_day_each!F9)</f>
         <v/>
       </c>
-      <c r="I15" s="48" t="str">
+      <c r="I15" s="34" t="str">
         <f>IF(_acsReport_day_each!G9="","",_acsReport_day_each!G9)</f>
         <v/>
       </c>
-      <c r="J15" s="32" t="str">
+      <c r="J15" s="21" t="str">
         <f>IF(_acsReport_day_each!H9="","",_acsReport_day_each!H9)</f>
         <v/>
       </c>
-      <c r="K15" s="32" t="str">
+      <c r="K15" s="21" t="str">
         <f>IF(_acsReport_day_each!I9="","",_acsReport_day_each!I9)</f>
         <v/>
       </c>
-      <c r="L15" s="33" t="str">
+      <c r="L15" s="22" t="str">
         <f>IF(_acsReport_day_each!J9="","",_acsReport_day_each!J9)</f>
         <v/>
       </c>
-      <c r="M15" s="32" t="str">
+      <c r="M15" s="21" t="str">
         <f>IF(_acsReport_day_each!K9="","",_acsReport_day_each!K9)</f>
         <v/>
       </c>
-      <c r="N15" s="32" t="str">
+      <c r="N15" s="21" t="str">
         <f>IF(_acsReport_day_each!L9="","",_acsReport_day_each!L9)</f>
         <v/>
       </c>
-      <c r="O15" s="48" t="str">
+      <c r="O15" s="34" t="str">
         <f>IF(_acsReport_day_each!M9="","",_acsReport_day_each!M9)</f>
         <v/>
       </c>
-      <c r="P15" s="32" t="str">
+      <c r="P15" s="21" t="str">
         <f>IF(_acsReport_day_each!N9="","",_acsReport_day_each!N9)</f>
         <v/>
       </c>
-      <c r="Q15" s="32" t="str">
+      <c r="Q15" s="21" t="str">
         <f>IF(_acsReport_day_each!O9="","",_acsReport_day_each!O9)</f>
         <v/>
       </c>
-      <c r="R15" s="33" t="str">
+      <c r="R15" s="22" t="str">
         <f>IF(_acsReport_day_each!P9="","",_acsReport_day_each!P9)</f>
         <v/>
       </c>
-      <c r="S15" s="32" t="str">
+      <c r="S15" s="21" t="str">
         <f>IF(_acsReport_day_each!Q9="","",_acsReport_day_each!Q9)</f>
         <v/>
       </c>
-      <c r="T15" s="32" t="str">
+      <c r="T15" s="21" t="str">
         <f>IF(_acsReport_day_each!R9="","",_acsReport_day_each!R9)</f>
         <v/>
       </c>
-      <c r="U15" s="48" t="str">
+      <c r="U15" s="34" t="str">
         <f>IF(_acsReport_day_each!S9="","",_acsReport_day_each!S9)</f>
         <v/>
       </c>
-      <c r="V15" s="32" t="str">
+      <c r="V15" s="21" t="str">
         <f>IF(_acsReport_day_each!T9="","",_acsReport_day_each!T9)</f>
         <v/>
       </c>
-      <c r="W15" s="32" t="str">
+      <c r="W15" s="21" t="str">
         <f>IF(_acsReport_day_each!U9="","",_acsReport_day_each!U9)</f>
         <v/>
       </c>
-      <c r="X15" s="33" t="str">
+      <c r="X15" s="22" t="str">
         <f>IF(_acsReport_day_each!V9="","",_acsReport_day_each!V9)</f>
         <v/>
       </c>
-      <c r="Y15" s="32" t="str">
+      <c r="Y15" s="21" t="str">
         <f>IF(_acsReport_day_each!W9="","",_acsReport_day_each!W9)</f>
         <v/>
       </c>
-      <c r="Z15" s="32" t="str">
+      <c r="Z15" s="21" t="str">
         <f>IF(_acsReport_day_each!X9="","",_acsReport_day_each!X9)</f>
         <v/>
       </c>
-      <c r="AA15" s="50" t="str">
+      <c r="AA15" s="36" t="str">
         <f>IF(_acsReport_day_each!Y9="","",_acsReport_day_each!Y9)</f>
         <v/>
       </c>
-      <c r="AB15" s="36" t="str">
+      <c r="AB15" s="25" t="str">
         <f>IF(_acsReport_day_each!Z9="","",_acsReport_day_each!Z9)</f>
         <v/>
       </c>
-      <c r="AC15" s="36" t="str">
+      <c r="AC15" s="25" t="str">
         <f>IF(_acsReport_day_each!AA9="","",_acsReport_day_each!AA9)</f>
         <v/>
       </c>
-      <c r="AD15" s="35" t="str">
+      <c r="AD15" s="24" t="str">
         <f>IF(_acsReport_day_each!AB9="","",_acsReport_day_each!AB9)</f>
         <v/>
       </c>
-      <c r="AE15" s="36" t="str">
+      <c r="AE15" s="25" t="str">
         <f>IF(_acsReport_day_each!AC9="","",_acsReport_day_each!AC9)</f>
         <v/>
       </c>
-      <c r="AF15" s="36" t="str">
+      <c r="AF15" s="25" t="str">
         <f>IF(_acsReport_day_each!AD9="","",_acsReport_day_each!AD9)</f>
         <v/>
       </c>
-      <c r="AG15" s="50" t="str">
+      <c r="AG15" s="36" t="str">
         <f>IF(_acsReport_day_each!AE9="","",_acsReport_day_each!AE9)</f>
         <v/>
       </c>
-      <c r="AH15" s="36" t="str">
+      <c r="AH15" s="25" t="str">
         <f>IF(_acsReport_day_each!AF9="","",_acsReport_day_each!AF9)</f>
         <v/>
       </c>
-      <c r="AI15" s="32" t="str">
+      <c r="AI15" s="21" t="str">
         <f>IF(_acsReport_day_each!AG9="","",_acsReport_day_each!AG9)</f>
         <v/>
       </c>
-      <c r="AJ15" s="33" t="str">
+      <c r="AJ15" s="22" t="str">
         <f>IF(_acsReport_day_each!AH9="","",_acsReport_day_each!AH9)</f>
         <v/>
       </c>
-      <c r="AK15" s="32" t="str">
+      <c r="AK15" s="21" t="str">
         <f>IF(_acsReport_day_each!AI9="","",_acsReport_day_each!AI9)</f>
         <v/>
       </c>
-      <c r="AL15" s="32" t="str">
+      <c r="AL15" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ9="","",_acsReport_day_each!AJ9)</f>
         <v/>
       </c>
-      <c r="AM15" s="48" t="str">
+      <c r="AM15" s="34" t="str">
         <f>IF(_acsReport_day_each!AK9="","",_acsReport_day_each!AK9)</f>
         <v/>
       </c>
-      <c r="AN15" s="32" t="str">
+      <c r="AN15" s="21" t="str">
         <f>IF(_acsReport_day_each!AL9="","",_acsReport_day_each!AL9)</f>
         <v/>
       </c>
-      <c r="AO15" s="32" t="str">
+      <c r="AO15" s="21" t="str">
         <f>IF(_acsReport_day_each!AM9="","",_acsReport_day_each!AM9)</f>
         <v/>
       </c>
-      <c r="AP15" s="33" t="str">
+      <c r="AP15" s="22" t="str">
         <f>IF(_acsReport_day_each!AN9="","",_acsReport_day_each!AN9)</f>
         <v/>
       </c>
-      <c r="AQ15" s="32" t="str">
+      <c r="AQ15" s="21" t="str">
         <f>IF(_acsReport_day_each!AO9="","",_acsReport_day_each!AO9)</f>
         <v/>
       </c>
-      <c r="AR15" s="32" t="str">
+      <c r="AR15" s="21" t="str">
         <f>IF(_acsReport_day_each!AP9="","",_acsReport_day_each!AP9)</f>
         <v/>
       </c>
-      <c r="AS15" s="48" t="str">
+      <c r="AS15" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ9="","",_acsReport_day_each!AQ9)</f>
         <v/>
       </c>
-      <c r="AT15" s="32" t="str">
+      <c r="AT15" s="21" t="str">
         <f>IF(_acsReport_day_each!AR9="","",_acsReport_day_each!AR9)</f>
         <v/>
       </c>
-      <c r="AU15" s="32" t="str">
+      <c r="AU15" s="21" t="str">
         <f>IF(_acsReport_day_each!AS9="","",_acsReport_day_each!AS9)</f>
         <v/>
       </c>
-      <c r="AV15" s="33" t="str">
+      <c r="AV15" s="22" t="str">
         <f>IF(_acsReport_day_each!AT9="","",_acsReport_day_each!AT9)</f>
         <v/>
       </c>
-      <c r="AW15" s="32" t="str">
+      <c r="AW15" s="21" t="str">
         <f>IF(_acsReport_day_each!AU9="","",_acsReport_day_each!AU9)</f>
         <v/>
       </c>
-      <c r="AX15" s="32" t="str">
+      <c r="AX15" s="21" t="str">
         <f>IF(_acsReport_day_each!AV9="","",_acsReport_day_each!AV9)</f>
         <v/>
       </c>
-      <c r="AY15" s="48" t="str">
+      <c r="AY15" s="34" t="str">
         <f>IF(_acsReport_day_each!AW9="","",_acsReport_day_each!AW9)</f>
         <v/>
       </c>
-      <c r="AZ15" s="32" t="str">
+      <c r="AZ15" s="21" t="str">
         <f>IF(_acsReport_day_each!AX9="","",_acsReport_day_each!AX9)</f>
         <v/>
       </c>
-      <c r="BA15" s="32" t="str">
+      <c r="BA15" s="21" t="str">
         <f>IF(_acsReport_day_each!AY9="","",_acsReport_day_each!AY9)</f>
         <v/>
       </c>
-      <c r="BB15" s="48" t="str">
+      <c r="BB15" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ9="","",_acsReport_day_each!AZ9)</f>
         <v/>
       </c>
-      <c r="BC15" s="32" t="str">
+      <c r="BC15" s="21" t="str">
         <f>IF(_acsReport_day_each!BA9="","",_acsReport_day_each!BA9)</f>
         <v/>
       </c>
-      <c r="BD15" s="32" t="str">
+      <c r="BD15" s="21" t="str">
         <f>IF(_acsReport_day_each!BB9="","",_acsReport_day_each!BB9)</f>
         <v/>
       </c>
-      <c r="BE15" s="64">
+      <c r="BE15" s="41">
         <f>_acsReport_day_each!BD9:BF9</f>
         <v>0</v>
       </c>
@@ -5062,227 +4447,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="2:64">
-      <c r="B16" s="37">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="C16" s="38" t="str">
+    <row r="16" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B16" s="26">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C16" s="27" t="str">
         <f>IF(_acsReport_day_each!A10="","",_acsReport_day_each!A10)</f>
         <v/>
       </c>
-      <c r="D16" s="39" t="str">
+      <c r="D16" s="28" t="str">
         <f>IF(_acsReport_day_each!B10="","",_acsReport_day_each!B10)</f>
         <v/>
       </c>
-      <c r="E16" s="39" t="str">
+      <c r="E16" s="28" t="str">
         <f>IF(_acsReport_day_each!C10="","",_acsReport_day_each!C10)</f>
         <v/>
       </c>
-      <c r="F16" s="38" t="str">
+      <c r="F16" s="27" t="str">
         <f>IF(_acsReport_day_each!D10="","",_acsReport_day_each!D10)</f>
         <v/>
       </c>
-      <c r="G16" s="39" t="str">
+      <c r="G16" s="28" t="str">
         <f>IF(_acsReport_day_each!E10="","",_acsReport_day_each!E10)</f>
         <v/>
       </c>
-      <c r="H16" s="39" t="str">
+      <c r="H16" s="28" t="str">
         <f>IF(_acsReport_day_each!F10="","",_acsReport_day_each!F10)</f>
         <v/>
       </c>
-      <c r="I16" s="49" t="str">
+      <c r="I16" s="35" t="str">
         <f>IF(_acsReport_day_each!G10="","",_acsReport_day_each!G10)</f>
         <v/>
       </c>
-      <c r="J16" s="39" t="str">
+      <c r="J16" s="28" t="str">
         <f>IF(_acsReport_day_each!H10="","",_acsReport_day_each!H10)</f>
         <v/>
       </c>
-      <c r="K16" s="39" t="str">
+      <c r="K16" s="28" t="str">
         <f>IF(_acsReport_day_each!I10="","",_acsReport_day_each!I10)</f>
         <v/>
       </c>
-      <c r="L16" s="38" t="str">
+      <c r="L16" s="27" t="str">
         <f>IF(_acsReport_day_each!J10="","",_acsReport_day_each!J10)</f>
         <v/>
       </c>
-      <c r="M16" s="39" t="str">
+      <c r="M16" s="28" t="str">
         <f>IF(_acsReport_day_each!K10="","",_acsReport_day_each!K10)</f>
         <v/>
       </c>
-      <c r="N16" s="39" t="str">
+      <c r="N16" s="28" t="str">
         <f>IF(_acsReport_day_each!L10="","",_acsReport_day_each!L10)</f>
         <v/>
       </c>
-      <c r="O16" s="49" t="str">
+      <c r="O16" s="35" t="str">
         <f>IF(_acsReport_day_each!M10="","",_acsReport_day_each!M10)</f>
         <v/>
       </c>
-      <c r="P16" s="39" t="str">
+      <c r="P16" s="28" t="str">
         <f>IF(_acsReport_day_each!N10="","",_acsReport_day_each!N10)</f>
         <v/>
       </c>
-      <c r="Q16" s="39" t="str">
+      <c r="Q16" s="28" t="str">
         <f>IF(_acsReport_day_each!O10="","",_acsReport_day_each!O10)</f>
         <v/>
       </c>
-      <c r="R16" s="38" t="str">
+      <c r="R16" s="27" t="str">
         <f>IF(_acsReport_day_each!P10="","",_acsReport_day_each!P10)</f>
         <v/>
       </c>
-      <c r="S16" s="39" t="str">
+      <c r="S16" s="28" t="str">
         <f>IF(_acsReport_day_each!Q10="","",_acsReport_day_each!Q10)</f>
         <v/>
       </c>
-      <c r="T16" s="39" t="str">
+      <c r="T16" s="28" t="str">
         <f>IF(_acsReport_day_each!R10="","",_acsReport_day_each!R10)</f>
         <v/>
       </c>
-      <c r="U16" s="49" t="str">
+      <c r="U16" s="35" t="str">
         <f>IF(_acsReport_day_each!S10="","",_acsReport_day_each!S10)</f>
         <v/>
       </c>
-      <c r="V16" s="39" t="str">
+      <c r="V16" s="28" t="str">
         <f>IF(_acsReport_day_each!T10="","",_acsReport_day_each!T10)</f>
         <v/>
       </c>
-      <c r="W16" s="39" t="str">
+      <c r="W16" s="28" t="str">
         <f>IF(_acsReport_day_each!U10="","",_acsReport_day_each!U10)</f>
         <v/>
       </c>
-      <c r="X16" s="38" t="str">
+      <c r="X16" s="27" t="str">
         <f>IF(_acsReport_day_each!V10="","",_acsReport_day_each!V10)</f>
         <v/>
       </c>
-      <c r="Y16" s="39" t="str">
+      <c r="Y16" s="28" t="str">
         <f>IF(_acsReport_day_each!W10="","",_acsReport_day_each!W10)</f>
         <v/>
       </c>
-      <c r="Z16" s="39" t="str">
+      <c r="Z16" s="28" t="str">
         <f>IF(_acsReport_day_each!X10="","",_acsReport_day_each!X10)</f>
         <v/>
       </c>
-      <c r="AA16" s="49" t="str">
+      <c r="AA16" s="35" t="str">
         <f>IF(_acsReport_day_each!Y10="","",_acsReport_day_each!Y10)</f>
         <v/>
       </c>
-      <c r="AB16" s="39" t="str">
+      <c r="AB16" s="28" t="str">
         <f>IF(_acsReport_day_each!Z10="","",_acsReport_day_each!Z10)</f>
         <v/>
       </c>
-      <c r="AC16" s="39" t="str">
+      <c r="AC16" s="28" t="str">
         <f>IF(_acsReport_day_each!AA10="","",_acsReport_day_each!AA10)</f>
         <v/>
       </c>
-      <c r="AD16" s="38" t="str">
+      <c r="AD16" s="27" t="str">
         <f>IF(_acsReport_day_each!AB10="","",_acsReport_day_each!AB10)</f>
         <v/>
       </c>
-      <c r="AE16" s="39" t="str">
+      <c r="AE16" s="28" t="str">
         <f>IF(_acsReport_day_each!AC10="","",_acsReport_day_each!AC10)</f>
         <v/>
       </c>
-      <c r="AF16" s="39" t="str">
+      <c r="AF16" s="28" t="str">
         <f>IF(_acsReport_day_each!AD10="","",_acsReport_day_each!AD10)</f>
         <v/>
       </c>
-      <c r="AG16" s="49" t="str">
+      <c r="AG16" s="35" t="str">
         <f>IF(_acsReport_day_each!AE10="","",_acsReport_day_each!AE10)</f>
         <v/>
       </c>
-      <c r="AH16" s="39" t="str">
+      <c r="AH16" s="28" t="str">
         <f>IF(_acsReport_day_each!AF10="","",_acsReport_day_each!AF10)</f>
         <v/>
       </c>
-      <c r="AI16" s="39" t="str">
+      <c r="AI16" s="28" t="str">
         <f>IF(_acsReport_day_each!AG10="","",_acsReport_day_each!AG10)</f>
         <v/>
       </c>
-      <c r="AJ16" s="38" t="str">
+      <c r="AJ16" s="27" t="str">
         <f>IF(_acsReport_day_each!AH10="","",_acsReport_day_each!AH10)</f>
         <v/>
       </c>
-      <c r="AK16" s="39" t="str">
+      <c r="AK16" s="28" t="str">
         <f>IF(_acsReport_day_each!AI10="","",_acsReport_day_each!AI10)</f>
         <v/>
       </c>
-      <c r="AL16" s="39" t="str">
+      <c r="AL16" s="28" t="str">
         <f>IF(_acsReport_day_each!AJ10="","",_acsReport_day_each!AJ10)</f>
         <v/>
       </c>
-      <c r="AM16" s="49" t="str">
+      <c r="AM16" s="35" t="str">
         <f>IF(_acsReport_day_each!AK10="","",_acsReport_day_each!AK10)</f>
         <v/>
       </c>
-      <c r="AN16" s="39" t="str">
+      <c r="AN16" s="28" t="str">
         <f>IF(_acsReport_day_each!AL10="","",_acsReport_day_each!AL10)</f>
         <v/>
       </c>
-      <c r="AO16" s="39" t="str">
+      <c r="AO16" s="28" t="str">
         <f>IF(_acsReport_day_each!AM10="","",_acsReport_day_each!AM10)</f>
         <v/>
       </c>
-      <c r="AP16" s="38" t="str">
+      <c r="AP16" s="27" t="str">
         <f>IF(_acsReport_day_each!AN10="","",_acsReport_day_each!AN10)</f>
         <v/>
       </c>
-      <c r="AQ16" s="39" t="str">
+      <c r="AQ16" s="28" t="str">
         <f>IF(_acsReport_day_each!AO10="","",_acsReport_day_each!AO10)</f>
         <v/>
       </c>
-      <c r="AR16" s="39" t="str">
+      <c r="AR16" s="28" t="str">
         <f>IF(_acsReport_day_each!AP10="","",_acsReport_day_each!AP10)</f>
         <v/>
       </c>
-      <c r="AS16" s="49" t="str">
+      <c r="AS16" s="35" t="str">
         <f>IF(_acsReport_day_each!AQ10="","",_acsReport_day_each!AQ10)</f>
         <v/>
       </c>
-      <c r="AT16" s="39" t="str">
+      <c r="AT16" s="28" t="str">
         <f>IF(_acsReport_day_each!AR10="","",_acsReport_day_each!AR10)</f>
         <v/>
       </c>
-      <c r="AU16" s="39" t="str">
+      <c r="AU16" s="28" t="str">
         <f>IF(_acsReport_day_each!AS10="","",_acsReport_day_each!AS10)</f>
         <v/>
       </c>
-      <c r="AV16" s="38" t="str">
+      <c r="AV16" s="27" t="str">
         <f>IF(_acsReport_day_each!AT10="","",_acsReport_day_each!AT10)</f>
         <v/>
       </c>
-      <c r="AW16" s="39" t="str">
+      <c r="AW16" s="28" t="str">
         <f>IF(_acsReport_day_each!AU10="","",_acsReport_day_each!AU10)</f>
         <v/>
       </c>
-      <c r="AX16" s="39" t="str">
+      <c r="AX16" s="28" t="str">
         <f>IF(_acsReport_day_each!AV10="","",_acsReport_day_each!AV10)</f>
         <v/>
       </c>
-      <c r="AY16" s="49" t="str">
+      <c r="AY16" s="35" t="str">
         <f>IF(_acsReport_day_each!AW10="","",_acsReport_day_each!AW10)</f>
         <v/>
       </c>
-      <c r="AZ16" s="39" t="str">
+      <c r="AZ16" s="28" t="str">
         <f>IF(_acsReport_day_each!AX10="","",_acsReport_day_each!AX10)</f>
         <v/>
       </c>
-      <c r="BA16" s="39" t="str">
+      <c r="BA16" s="28" t="str">
         <f>IF(_acsReport_day_each!AY10="","",_acsReport_day_each!AY10)</f>
         <v/>
       </c>
-      <c r="BB16" s="49" t="str">
+      <c r="BB16" s="35" t="str">
         <f>IF(_acsReport_day_each!AZ10="","",_acsReport_day_each!AZ10)</f>
         <v/>
       </c>
-      <c r="BC16" s="39" t="str">
+      <c r="BC16" s="28" t="str">
         <f>IF(_acsReport_day_each!BA10="","",_acsReport_day_each!BA10)</f>
         <v/>
       </c>
-      <c r="BD16" s="39" t="str">
+      <c r="BD16" s="28" t="str">
         <f>IF(_acsReport_day_each!BB10="","",_acsReport_day_each!BB10)</f>
         <v/>
       </c>
-      <c r="BE16" s="64">
+      <c r="BE16" s="41">
         <f>_acsReport_day_each!BD10:BF10</f>
         <v>0</v>
       </c>
@@ -5303,227 +4688,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="2:64">
-      <c r="B17" s="30">
+    <row r="17" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B17" s="19">
         <v>0.375</v>
       </c>
-      <c r="C17" s="33" t="str">
+      <c r="C17" s="22" t="str">
         <f>IF(_acsReport_day_each!A11="","",_acsReport_day_each!A11)</f>
         <v/>
       </c>
-      <c r="D17" s="32" t="str">
+      <c r="D17" s="21" t="str">
         <f>IF(_acsReport_day_each!B11="","",_acsReport_day_each!B11)</f>
         <v/>
       </c>
-      <c r="E17" s="32" t="str">
+      <c r="E17" s="21" t="str">
         <f>IF(_acsReport_day_each!C11="","",_acsReport_day_each!C11)</f>
         <v/>
       </c>
-      <c r="F17" s="33" t="str">
+      <c r="F17" s="22" t="str">
         <f>IF(_acsReport_day_each!D11="","",_acsReport_day_each!D11)</f>
         <v/>
       </c>
-      <c r="G17" s="32" t="str">
+      <c r="G17" s="21" t="str">
         <f>IF(_acsReport_day_each!E11="","",_acsReport_day_each!E11)</f>
         <v/>
       </c>
-      <c r="H17" s="32" t="str">
+      <c r="H17" s="21" t="str">
         <f>IF(_acsReport_day_each!F11="","",_acsReport_day_each!F11)</f>
         <v/>
       </c>
-      <c r="I17" s="48" t="str">
+      <c r="I17" s="34" t="str">
         <f>IF(_acsReport_day_each!G11="","",_acsReport_day_each!G11)</f>
         <v/>
       </c>
-      <c r="J17" s="32" t="str">
+      <c r="J17" s="21" t="str">
         <f>IF(_acsReport_day_each!H11="","",_acsReport_day_each!H11)</f>
         <v/>
       </c>
-      <c r="K17" s="32" t="str">
+      <c r="K17" s="21" t="str">
         <f>IF(_acsReport_day_each!I11="","",_acsReport_day_each!I11)</f>
         <v/>
       </c>
-      <c r="L17" s="33" t="str">
+      <c r="L17" s="22" t="str">
         <f>IF(_acsReport_day_each!J11="","",_acsReport_day_each!J11)</f>
         <v/>
       </c>
-      <c r="M17" s="32" t="str">
+      <c r="M17" s="21" t="str">
         <f>IF(_acsReport_day_each!K11="","",_acsReport_day_each!K11)</f>
         <v/>
       </c>
-      <c r="N17" s="32" t="str">
+      <c r="N17" s="21" t="str">
         <f>IF(_acsReport_day_each!L11="","",_acsReport_day_each!L11)</f>
         <v/>
       </c>
-      <c r="O17" s="48" t="str">
+      <c r="O17" s="34" t="str">
         <f>IF(_acsReport_day_each!M11="","",_acsReport_day_each!M11)</f>
         <v/>
       </c>
-      <c r="P17" s="32" t="str">
+      <c r="P17" s="21" t="str">
         <f>IF(_acsReport_day_each!N11="","",_acsReport_day_each!N11)</f>
         <v/>
       </c>
-      <c r="Q17" s="32" t="str">
+      <c r="Q17" s="21" t="str">
         <f>IF(_acsReport_day_each!O11="","",_acsReport_day_each!O11)</f>
         <v/>
       </c>
-      <c r="R17" s="33" t="str">
+      <c r="R17" s="22" t="str">
         <f>IF(_acsReport_day_each!P11="","",_acsReport_day_each!P11)</f>
         <v/>
       </c>
-      <c r="S17" s="32" t="str">
+      <c r="S17" s="21" t="str">
         <f>IF(_acsReport_day_each!Q11="","",_acsReport_day_each!Q11)</f>
         <v/>
       </c>
-      <c r="T17" s="32" t="str">
+      <c r="T17" s="21" t="str">
         <f>IF(_acsReport_day_each!R11="","",_acsReport_day_each!R11)</f>
         <v/>
       </c>
-      <c r="U17" s="48" t="str">
+      <c r="U17" s="34" t="str">
         <f>IF(_acsReport_day_each!S11="","",_acsReport_day_each!S11)</f>
         <v/>
       </c>
-      <c r="V17" s="32" t="str">
+      <c r="V17" s="21" t="str">
         <f>IF(_acsReport_day_each!T11="","",_acsReport_day_each!T11)</f>
         <v/>
       </c>
-      <c r="W17" s="32" t="str">
+      <c r="W17" s="21" t="str">
         <f>IF(_acsReport_day_each!U11="","",_acsReport_day_each!U11)</f>
         <v/>
       </c>
-      <c r="X17" s="33" t="str">
+      <c r="X17" s="22" t="str">
         <f>IF(_acsReport_day_each!V11="","",_acsReport_day_each!V11)</f>
         <v/>
       </c>
-      <c r="Y17" s="32" t="str">
+      <c r="Y17" s="21" t="str">
         <f>IF(_acsReport_day_each!W11="","",_acsReport_day_each!W11)</f>
         <v/>
       </c>
-      <c r="Z17" s="32" t="str">
+      <c r="Z17" s="21" t="str">
         <f>IF(_acsReport_day_each!X11="","",_acsReport_day_each!X11)</f>
         <v/>
       </c>
-      <c r="AA17" s="48" t="str">
+      <c r="AA17" s="34" t="str">
         <f>IF(_acsReport_day_each!Y11="","",_acsReport_day_each!Y11)</f>
         <v/>
       </c>
-      <c r="AB17" s="32" t="str">
+      <c r="AB17" s="21" t="str">
         <f>IF(_acsReport_day_each!Z11="","",_acsReport_day_each!Z11)</f>
         <v/>
       </c>
-      <c r="AC17" s="32" t="str">
+      <c r="AC17" s="21" t="str">
         <f>IF(_acsReport_day_each!AA11="","",_acsReport_day_each!AA11)</f>
         <v/>
       </c>
-      <c r="AD17" s="33" t="str">
+      <c r="AD17" s="22" t="str">
         <f>IF(_acsReport_day_each!AB11="","",_acsReport_day_each!AB11)</f>
         <v/>
       </c>
-      <c r="AE17" s="32" t="str">
+      <c r="AE17" s="21" t="str">
         <f>IF(_acsReport_day_each!AC11="","",_acsReport_day_each!AC11)</f>
         <v/>
       </c>
-      <c r="AF17" s="32" t="str">
+      <c r="AF17" s="21" t="str">
         <f>IF(_acsReport_day_each!AD11="","",_acsReport_day_each!AD11)</f>
         <v/>
       </c>
-      <c r="AG17" s="48" t="str">
+      <c r="AG17" s="34" t="str">
         <f>IF(_acsReport_day_each!AE11="","",_acsReport_day_each!AE11)</f>
         <v/>
       </c>
-      <c r="AH17" s="32" t="str">
+      <c r="AH17" s="21" t="str">
         <f>IF(_acsReport_day_each!AF11="","",_acsReport_day_each!AF11)</f>
         <v/>
       </c>
-      <c r="AI17" s="32" t="str">
+      <c r="AI17" s="21" t="str">
         <f>IF(_acsReport_day_each!AG11="","",_acsReport_day_each!AG11)</f>
         <v/>
       </c>
-      <c r="AJ17" s="33" t="str">
+      <c r="AJ17" s="22" t="str">
         <f>IF(_acsReport_day_each!AH11="","",_acsReport_day_each!AH11)</f>
         <v/>
       </c>
-      <c r="AK17" s="32" t="str">
+      <c r="AK17" s="21" t="str">
         <f>IF(_acsReport_day_each!AI11="","",_acsReport_day_each!AI11)</f>
         <v/>
       </c>
-      <c r="AL17" s="32" t="str">
+      <c r="AL17" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ11="","",_acsReport_day_each!AJ11)</f>
         <v/>
       </c>
-      <c r="AM17" s="48" t="str">
+      <c r="AM17" s="34" t="str">
         <f>IF(_acsReport_day_each!AK11="","",_acsReport_day_each!AK11)</f>
         <v/>
       </c>
-      <c r="AN17" s="32" t="str">
+      <c r="AN17" s="21" t="str">
         <f>IF(_acsReport_day_each!AL11="","",_acsReport_day_each!AL11)</f>
         <v/>
       </c>
-      <c r="AO17" s="32" t="str">
+      <c r="AO17" s="21" t="str">
         <f>IF(_acsReport_day_each!AM11="","",_acsReport_day_each!AM11)</f>
         <v/>
       </c>
-      <c r="AP17" s="33" t="str">
+      <c r="AP17" s="22" t="str">
         <f>IF(_acsReport_day_each!AN11="","",_acsReport_day_each!AN11)</f>
         <v/>
       </c>
-      <c r="AQ17" s="32" t="str">
+      <c r="AQ17" s="21" t="str">
         <f>IF(_acsReport_day_each!AO11="","",_acsReport_day_each!AO11)</f>
         <v/>
       </c>
-      <c r="AR17" s="32" t="str">
+      <c r="AR17" s="21" t="str">
         <f>IF(_acsReport_day_each!AP11="","",_acsReport_day_each!AP11)</f>
         <v/>
       </c>
-      <c r="AS17" s="48" t="str">
+      <c r="AS17" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ11="","",_acsReport_day_each!AQ11)</f>
         <v/>
       </c>
-      <c r="AT17" s="32" t="str">
+      <c r="AT17" s="21" t="str">
         <f>IF(_acsReport_day_each!AR11="","",_acsReport_day_each!AR11)</f>
         <v/>
       </c>
-      <c r="AU17" s="32" t="str">
+      <c r="AU17" s="21" t="str">
         <f>IF(_acsReport_day_each!AS11="","",_acsReport_day_each!AS11)</f>
         <v/>
       </c>
-      <c r="AV17" s="33" t="str">
+      <c r="AV17" s="22" t="str">
         <f>IF(_acsReport_day_each!AT11="","",_acsReport_day_each!AT11)</f>
         <v/>
       </c>
-      <c r="AW17" s="32" t="str">
+      <c r="AW17" s="21" t="str">
         <f>IF(_acsReport_day_each!AU11="","",_acsReport_day_each!AU11)</f>
         <v/>
       </c>
-      <c r="AX17" s="32" t="str">
+      <c r="AX17" s="21" t="str">
         <f>IF(_acsReport_day_each!AV11="","",_acsReport_day_each!AV11)</f>
         <v/>
       </c>
-      <c r="AY17" s="48" t="str">
+      <c r="AY17" s="34" t="str">
         <f>IF(_acsReport_day_each!AW11="","",_acsReport_day_each!AW11)</f>
         <v/>
       </c>
-      <c r="AZ17" s="32" t="str">
+      <c r="AZ17" s="21" t="str">
         <f>IF(_acsReport_day_each!AX11="","",_acsReport_day_each!AX11)</f>
         <v/>
       </c>
-      <c r="BA17" s="32" t="str">
+      <c r="BA17" s="21" t="str">
         <f>IF(_acsReport_day_each!AY11="","",_acsReport_day_each!AY11)</f>
         <v/>
       </c>
-      <c r="BB17" s="48" t="str">
+      <c r="BB17" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ11="","",_acsReport_day_each!AZ11)</f>
         <v/>
       </c>
-      <c r="BC17" s="32" t="str">
+      <c r="BC17" s="21" t="str">
         <f>IF(_acsReport_day_each!BA11="","",_acsReport_day_each!BA11)</f>
         <v/>
       </c>
-      <c r="BD17" s="32" t="str">
+      <c r="BD17" s="21" t="str">
         <f>IF(_acsReport_day_each!BB11="","",_acsReport_day_each!BB11)</f>
         <v/>
       </c>
-      <c r="BE17" s="64">
+      <c r="BE17" s="41">
         <f>_acsReport_day_each!BD11:BF11</f>
         <v>0</v>
       </c>
@@ -5544,227 +4929,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="2:64">
-      <c r="B18" s="30">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C18" s="33" t="str">
+    <row r="18" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B18" s="19">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C18" s="22" t="str">
         <f>IF(_acsReport_day_each!A12="","",_acsReport_day_each!A12)</f>
         <v/>
       </c>
-      <c r="D18" s="32" t="str">
+      <c r="D18" s="21" t="str">
         <f>IF(_acsReport_day_each!B12="","",_acsReport_day_each!B12)</f>
         <v/>
       </c>
-      <c r="E18" s="32" t="str">
+      <c r="E18" s="21" t="str">
         <f>IF(_acsReport_day_each!C12="","",_acsReport_day_each!C12)</f>
         <v/>
       </c>
-      <c r="F18" s="33" t="str">
+      <c r="F18" s="22" t="str">
         <f>IF(_acsReport_day_each!D12="","",_acsReport_day_each!D12)</f>
         <v/>
       </c>
-      <c r="G18" s="32" t="str">
+      <c r="G18" s="21" t="str">
         <f>IF(_acsReport_day_each!E12="","",_acsReport_day_each!E12)</f>
         <v/>
       </c>
-      <c r="H18" s="32" t="str">
+      <c r="H18" s="21" t="str">
         <f>IF(_acsReport_day_each!F12="","",_acsReport_day_each!F12)</f>
         <v/>
       </c>
-      <c r="I18" s="48" t="str">
+      <c r="I18" s="34" t="str">
         <f>IF(_acsReport_day_each!G12="","",_acsReport_day_each!G12)</f>
         <v/>
       </c>
-      <c r="J18" s="32" t="str">
+      <c r="J18" s="21" t="str">
         <f>IF(_acsReport_day_each!H12="","",_acsReport_day_each!H12)</f>
         <v/>
       </c>
-      <c r="K18" s="32" t="str">
+      <c r="K18" s="21" t="str">
         <f>IF(_acsReport_day_each!I12="","",_acsReport_day_each!I12)</f>
         <v/>
       </c>
-      <c r="L18" s="33" t="str">
+      <c r="L18" s="22" t="str">
         <f>IF(_acsReport_day_each!J12="","",_acsReport_day_each!J12)</f>
         <v/>
       </c>
-      <c r="M18" s="32" t="str">
+      <c r="M18" s="21" t="str">
         <f>IF(_acsReport_day_each!K12="","",_acsReport_day_each!K12)</f>
         <v/>
       </c>
-      <c r="N18" s="32" t="str">
+      <c r="N18" s="21" t="str">
         <f>IF(_acsReport_day_each!L12="","",_acsReport_day_each!L12)</f>
         <v/>
       </c>
-      <c r="O18" s="48" t="str">
+      <c r="O18" s="34" t="str">
         <f>IF(_acsReport_day_each!M12="","",_acsReport_day_each!M12)</f>
         <v/>
       </c>
-      <c r="P18" s="32" t="str">
+      <c r="P18" s="21" t="str">
         <f>IF(_acsReport_day_each!N12="","",_acsReport_day_each!N12)</f>
         <v/>
       </c>
-      <c r="Q18" s="32" t="str">
+      <c r="Q18" s="21" t="str">
         <f>IF(_acsReport_day_each!O12="","",_acsReport_day_each!O12)</f>
         <v/>
       </c>
-      <c r="R18" s="33" t="str">
+      <c r="R18" s="22" t="str">
         <f>IF(_acsReport_day_each!P12="","",_acsReport_day_each!P12)</f>
         <v/>
       </c>
-      <c r="S18" s="32" t="str">
+      <c r="S18" s="21" t="str">
         <f>IF(_acsReport_day_each!Q12="","",_acsReport_day_each!Q12)</f>
         <v/>
       </c>
-      <c r="T18" s="32" t="str">
+      <c r="T18" s="21" t="str">
         <f>IF(_acsReport_day_each!R12="","",_acsReport_day_each!R12)</f>
         <v/>
       </c>
-      <c r="U18" s="48" t="str">
+      <c r="U18" s="34" t="str">
         <f>IF(_acsReport_day_each!S12="","",_acsReport_day_each!S12)</f>
         <v/>
       </c>
-      <c r="V18" s="32" t="str">
+      <c r="V18" s="21" t="str">
         <f>IF(_acsReport_day_each!T12="","",_acsReport_day_each!T12)</f>
         <v/>
       </c>
-      <c r="W18" s="32" t="str">
+      <c r="W18" s="21" t="str">
         <f>IF(_acsReport_day_each!U12="","",_acsReport_day_each!U12)</f>
         <v/>
       </c>
-      <c r="X18" s="33" t="str">
+      <c r="X18" s="22" t="str">
         <f>IF(_acsReport_day_each!V12="","",_acsReport_day_each!V12)</f>
         <v/>
       </c>
-      <c r="Y18" s="32" t="str">
+      <c r="Y18" s="21" t="str">
         <f>IF(_acsReport_day_each!W12="","",_acsReport_day_each!W12)</f>
         <v/>
       </c>
-      <c r="Z18" s="32" t="str">
+      <c r="Z18" s="21" t="str">
         <f>IF(_acsReport_day_each!X12="","",_acsReport_day_each!X12)</f>
         <v/>
       </c>
-      <c r="AA18" s="48" t="str">
+      <c r="AA18" s="34" t="str">
         <f>IF(_acsReport_day_each!Y12="","",_acsReport_day_each!Y12)</f>
         <v/>
       </c>
-      <c r="AB18" s="32" t="str">
+      <c r="AB18" s="21" t="str">
         <f>IF(_acsReport_day_each!Z12="","",_acsReport_day_each!Z12)</f>
         <v/>
       </c>
-      <c r="AC18" s="32" t="str">
+      <c r="AC18" s="21" t="str">
         <f>IF(_acsReport_day_each!AA12="","",_acsReport_day_each!AA12)</f>
         <v/>
       </c>
-      <c r="AD18" s="33" t="str">
+      <c r="AD18" s="22" t="str">
         <f>IF(_acsReport_day_each!AB12="","",_acsReport_day_each!AB12)</f>
         <v/>
       </c>
-      <c r="AE18" s="32" t="str">
+      <c r="AE18" s="21" t="str">
         <f>IF(_acsReport_day_each!AC12="","",_acsReport_day_each!AC12)</f>
         <v/>
       </c>
-      <c r="AF18" s="32" t="str">
+      <c r="AF18" s="21" t="str">
         <f>IF(_acsReport_day_each!AD12="","",_acsReport_day_each!AD12)</f>
         <v/>
       </c>
-      <c r="AG18" s="48" t="str">
+      <c r="AG18" s="34" t="str">
         <f>IF(_acsReport_day_each!AE12="","",_acsReport_day_each!AE12)</f>
         <v/>
       </c>
-      <c r="AH18" s="32" t="str">
+      <c r="AH18" s="21" t="str">
         <f>IF(_acsReport_day_each!AF12="","",_acsReport_day_each!AF12)</f>
         <v/>
       </c>
-      <c r="AI18" s="32" t="str">
+      <c r="AI18" s="21" t="str">
         <f>IF(_acsReport_day_each!AG12="","",_acsReport_day_each!AG12)</f>
         <v/>
       </c>
-      <c r="AJ18" s="33" t="str">
+      <c r="AJ18" s="22" t="str">
         <f>IF(_acsReport_day_each!AH12="","",_acsReport_day_each!AH12)</f>
         <v/>
       </c>
-      <c r="AK18" s="32" t="str">
+      <c r="AK18" s="21" t="str">
         <f>IF(_acsReport_day_each!AI12="","",_acsReport_day_each!AI12)</f>
         <v/>
       </c>
-      <c r="AL18" s="32" t="str">
+      <c r="AL18" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ12="","",_acsReport_day_each!AJ12)</f>
         <v/>
       </c>
-      <c r="AM18" s="48" t="str">
+      <c r="AM18" s="34" t="str">
         <f>IF(_acsReport_day_each!AK12="","",_acsReport_day_each!AK12)</f>
         <v/>
       </c>
-      <c r="AN18" s="32" t="str">
+      <c r="AN18" s="21" t="str">
         <f>IF(_acsReport_day_each!AL12="","",_acsReport_day_each!AL12)</f>
         <v/>
       </c>
-      <c r="AO18" s="32" t="str">
+      <c r="AO18" s="21" t="str">
         <f>IF(_acsReport_day_each!AM12="","",_acsReport_day_each!AM12)</f>
         <v/>
       </c>
-      <c r="AP18" s="33" t="str">
+      <c r="AP18" s="22" t="str">
         <f>IF(_acsReport_day_each!AN12="","",_acsReport_day_each!AN12)</f>
         <v/>
       </c>
-      <c r="AQ18" s="32" t="str">
+      <c r="AQ18" s="21" t="str">
         <f>IF(_acsReport_day_each!AO12="","",_acsReport_day_each!AO12)</f>
         <v/>
       </c>
-      <c r="AR18" s="32" t="str">
+      <c r="AR18" s="21" t="str">
         <f>IF(_acsReport_day_each!AP12="","",_acsReport_day_each!AP12)</f>
         <v/>
       </c>
-      <c r="AS18" s="48" t="str">
+      <c r="AS18" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ12="","",_acsReport_day_each!AQ12)</f>
         <v/>
       </c>
-      <c r="AT18" s="32" t="str">
+      <c r="AT18" s="21" t="str">
         <f>IF(_acsReport_day_each!AR12="","",_acsReport_day_each!AR12)</f>
         <v/>
       </c>
-      <c r="AU18" s="32" t="str">
+      <c r="AU18" s="21" t="str">
         <f>IF(_acsReport_day_each!AS12="","",_acsReport_day_each!AS12)</f>
         <v/>
       </c>
-      <c r="AV18" s="33" t="str">
+      <c r="AV18" s="22" t="str">
         <f>IF(_acsReport_day_each!AT12="","",_acsReport_day_each!AT12)</f>
         <v/>
       </c>
-      <c r="AW18" s="32" t="str">
+      <c r="AW18" s="21" t="str">
         <f>IF(_acsReport_day_each!AU12="","",_acsReport_day_each!AU12)</f>
         <v/>
       </c>
-      <c r="AX18" s="32" t="str">
+      <c r="AX18" s="21" t="str">
         <f>IF(_acsReport_day_each!AV12="","",_acsReport_day_each!AV12)</f>
         <v/>
       </c>
-      <c r="AY18" s="48" t="str">
+      <c r="AY18" s="34" t="str">
         <f>IF(_acsReport_day_each!AW12="","",_acsReport_day_each!AW12)</f>
         <v/>
       </c>
-      <c r="AZ18" s="32" t="str">
+      <c r="AZ18" s="21" t="str">
         <f>IF(_acsReport_day_each!AX12="","",_acsReport_day_each!AX12)</f>
         <v/>
       </c>
-      <c r="BA18" s="32" t="str">
+      <c r="BA18" s="21" t="str">
         <f>IF(_acsReport_day_each!AY12="","",_acsReport_day_each!AY12)</f>
         <v/>
       </c>
-      <c r="BB18" s="48" t="str">
+      <c r="BB18" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ12="","",_acsReport_day_each!AZ12)</f>
         <v/>
       </c>
-      <c r="BC18" s="32" t="str">
+      <c r="BC18" s="21" t="str">
         <f>IF(_acsReport_day_each!BA12="","",_acsReport_day_each!BA12)</f>
         <v/>
       </c>
-      <c r="BD18" s="32" t="str">
+      <c r="BD18" s="21" t="str">
         <f>IF(_acsReport_day_each!BB12="","",_acsReport_day_each!BB12)</f>
         <v/>
       </c>
-      <c r="BE18" s="64">
+      <c r="BE18" s="41">
         <f>_acsReport_day_each!BD12:BF12</f>
         <v>0</v>
       </c>
@@ -5785,227 +5170,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="2:64">
-      <c r="B19" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C19" s="33" t="str">
+    <row r="19" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B19" s="19">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C19" s="22" t="str">
         <f>IF(_acsReport_day_each!A13="","",_acsReport_day_each!A13)</f>
         <v/>
       </c>
-      <c r="D19" s="32" t="str">
+      <c r="D19" s="21" t="str">
         <f>IF(_acsReport_day_each!B13="","",_acsReport_day_each!B13)</f>
         <v/>
       </c>
-      <c r="E19" s="32" t="str">
+      <c r="E19" s="21" t="str">
         <f>IF(_acsReport_day_each!C13="","",_acsReport_day_each!C13)</f>
         <v/>
       </c>
-      <c r="F19" s="33" t="str">
+      <c r="F19" s="22" t="str">
         <f>IF(_acsReport_day_each!D13="","",_acsReport_day_each!D13)</f>
         <v/>
       </c>
-      <c r="G19" s="32" t="str">
+      <c r="G19" s="21" t="str">
         <f>IF(_acsReport_day_each!E13="","",_acsReport_day_each!E13)</f>
         <v/>
       </c>
-      <c r="H19" s="32" t="str">
+      <c r="H19" s="21" t="str">
         <f>IF(_acsReport_day_each!F13="","",_acsReport_day_each!F13)</f>
         <v/>
       </c>
-      <c r="I19" s="48" t="str">
+      <c r="I19" s="34" t="str">
         <f>IF(_acsReport_day_each!G13="","",_acsReport_day_each!G13)</f>
         <v/>
       </c>
-      <c r="J19" s="32" t="str">
+      <c r="J19" s="21" t="str">
         <f>IF(_acsReport_day_each!H13="","",_acsReport_day_each!H13)</f>
         <v/>
       </c>
-      <c r="K19" s="32" t="str">
+      <c r="K19" s="21" t="str">
         <f>IF(_acsReport_day_each!I13="","",_acsReport_day_each!I13)</f>
         <v/>
       </c>
-      <c r="L19" s="33" t="str">
+      <c r="L19" s="22" t="str">
         <f>IF(_acsReport_day_each!J13="","",_acsReport_day_each!J13)</f>
         <v/>
       </c>
-      <c r="M19" s="32" t="str">
+      <c r="M19" s="21" t="str">
         <f>IF(_acsReport_day_each!K13="","",_acsReport_day_each!K13)</f>
         <v/>
       </c>
-      <c r="N19" s="32" t="str">
+      <c r="N19" s="21" t="str">
         <f>IF(_acsReport_day_each!L13="","",_acsReport_day_each!L13)</f>
         <v/>
       </c>
-      <c r="O19" s="48" t="str">
+      <c r="O19" s="34" t="str">
         <f>IF(_acsReport_day_each!M13="","",_acsReport_day_each!M13)</f>
         <v/>
       </c>
-      <c r="P19" s="32" t="str">
+      <c r="P19" s="21" t="str">
         <f>IF(_acsReport_day_each!N13="","",_acsReport_day_each!N13)</f>
         <v/>
       </c>
-      <c r="Q19" s="32" t="str">
+      <c r="Q19" s="21" t="str">
         <f>IF(_acsReport_day_each!O13="","",_acsReport_day_each!O13)</f>
         <v/>
       </c>
-      <c r="R19" s="33" t="str">
+      <c r="R19" s="22" t="str">
         <f>IF(_acsReport_day_each!P13="","",_acsReport_day_each!P13)</f>
         <v/>
       </c>
-      <c r="S19" s="32" t="str">
+      <c r="S19" s="21" t="str">
         <f>IF(_acsReport_day_each!Q13="","",_acsReport_day_each!Q13)</f>
         <v/>
       </c>
-      <c r="T19" s="32" t="str">
+      <c r="T19" s="21" t="str">
         <f>IF(_acsReport_day_each!R13="","",_acsReport_day_each!R13)</f>
         <v/>
       </c>
-      <c r="U19" s="48" t="str">
+      <c r="U19" s="34" t="str">
         <f>IF(_acsReport_day_each!S13="","",_acsReport_day_each!S13)</f>
         <v/>
       </c>
-      <c r="V19" s="32" t="str">
+      <c r="V19" s="21" t="str">
         <f>IF(_acsReport_day_each!T13="","",_acsReport_day_each!T13)</f>
         <v/>
       </c>
-      <c r="W19" s="32" t="str">
+      <c r="W19" s="21" t="str">
         <f>IF(_acsReport_day_each!U13="","",_acsReport_day_each!U13)</f>
         <v/>
       </c>
-      <c r="X19" s="33" t="str">
+      <c r="X19" s="22" t="str">
         <f>IF(_acsReport_day_each!V13="","",_acsReport_day_each!V13)</f>
         <v/>
       </c>
-      <c r="Y19" s="32" t="str">
+      <c r="Y19" s="21" t="str">
         <f>IF(_acsReport_day_each!W13="","",_acsReport_day_each!W13)</f>
         <v/>
       </c>
-      <c r="Z19" s="32" t="str">
+      <c r="Z19" s="21" t="str">
         <f>IF(_acsReport_day_each!X13="","",_acsReport_day_each!X13)</f>
         <v/>
       </c>
-      <c r="AA19" s="48" t="str">
+      <c r="AA19" s="34" t="str">
         <f>IF(_acsReport_day_each!Y13="","",_acsReport_day_each!Y13)</f>
         <v/>
       </c>
-      <c r="AB19" s="32" t="str">
+      <c r="AB19" s="21" t="str">
         <f>IF(_acsReport_day_each!Z13="","",_acsReport_day_each!Z13)</f>
         <v/>
       </c>
-      <c r="AC19" s="32" t="str">
+      <c r="AC19" s="21" t="str">
         <f>IF(_acsReport_day_each!AA13="","",_acsReport_day_each!AA13)</f>
         <v/>
       </c>
-      <c r="AD19" s="33" t="str">
+      <c r="AD19" s="22" t="str">
         <f>IF(_acsReport_day_each!AB13="","",_acsReport_day_each!AB13)</f>
         <v/>
       </c>
-      <c r="AE19" s="32" t="str">
+      <c r="AE19" s="21" t="str">
         <f>IF(_acsReport_day_each!AC13="","",_acsReport_day_each!AC13)</f>
         <v/>
       </c>
-      <c r="AF19" s="32" t="str">
+      <c r="AF19" s="21" t="str">
         <f>IF(_acsReport_day_each!AD13="","",_acsReport_day_each!AD13)</f>
         <v/>
       </c>
-      <c r="AG19" s="48" t="str">
+      <c r="AG19" s="34" t="str">
         <f>IF(_acsReport_day_each!AE13="","",_acsReport_day_each!AE13)</f>
         <v/>
       </c>
-      <c r="AH19" s="32" t="str">
+      <c r="AH19" s="21" t="str">
         <f>IF(_acsReport_day_each!AF13="","",_acsReport_day_each!AF13)</f>
         <v/>
       </c>
-      <c r="AI19" s="32" t="str">
+      <c r="AI19" s="21" t="str">
         <f>IF(_acsReport_day_each!AG13="","",_acsReport_day_each!AG13)</f>
         <v/>
       </c>
-      <c r="AJ19" s="33" t="str">
+      <c r="AJ19" s="22" t="str">
         <f>IF(_acsReport_day_each!AH13="","",_acsReport_day_each!AH13)</f>
         <v/>
       </c>
-      <c r="AK19" s="32" t="str">
+      <c r="AK19" s="21" t="str">
         <f>IF(_acsReport_day_each!AI13="","",_acsReport_day_each!AI13)</f>
         <v/>
       </c>
-      <c r="AL19" s="32" t="str">
+      <c r="AL19" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ13="","",_acsReport_day_each!AJ13)</f>
         <v/>
       </c>
-      <c r="AM19" s="48" t="str">
+      <c r="AM19" s="34" t="str">
         <f>IF(_acsReport_day_each!AK13="","",_acsReport_day_each!AK13)</f>
         <v/>
       </c>
-      <c r="AN19" s="32" t="str">
+      <c r="AN19" s="21" t="str">
         <f>IF(_acsReport_day_each!AL13="","",_acsReport_day_each!AL13)</f>
         <v/>
       </c>
-      <c r="AO19" s="32" t="str">
+      <c r="AO19" s="21" t="str">
         <f>IF(_acsReport_day_each!AM13="","",_acsReport_day_each!AM13)</f>
         <v/>
       </c>
-      <c r="AP19" s="33" t="str">
+      <c r="AP19" s="22" t="str">
         <f>IF(_acsReport_day_each!AN13="","",_acsReport_day_each!AN13)</f>
         <v/>
       </c>
-      <c r="AQ19" s="32" t="str">
+      <c r="AQ19" s="21" t="str">
         <f>IF(_acsReport_day_each!AO13="","",_acsReport_day_each!AO13)</f>
         <v/>
       </c>
-      <c r="AR19" s="32" t="str">
+      <c r="AR19" s="21" t="str">
         <f>IF(_acsReport_day_each!AP13="","",_acsReport_day_each!AP13)</f>
         <v/>
       </c>
-      <c r="AS19" s="48" t="str">
+      <c r="AS19" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ13="","",_acsReport_day_each!AQ13)</f>
         <v/>
       </c>
-      <c r="AT19" s="32" t="str">
+      <c r="AT19" s="21" t="str">
         <f>IF(_acsReport_day_each!AR13="","",_acsReport_day_each!AR13)</f>
         <v/>
       </c>
-      <c r="AU19" s="32" t="str">
+      <c r="AU19" s="21" t="str">
         <f>IF(_acsReport_day_each!AS13="","",_acsReport_day_each!AS13)</f>
         <v/>
       </c>
-      <c r="AV19" s="33" t="str">
+      <c r="AV19" s="22" t="str">
         <f>IF(_acsReport_day_each!AT13="","",_acsReport_day_each!AT13)</f>
         <v/>
       </c>
-      <c r="AW19" s="32" t="str">
+      <c r="AW19" s="21" t="str">
         <f>IF(_acsReport_day_each!AU13="","",_acsReport_day_each!AU13)</f>
         <v/>
       </c>
-      <c r="AX19" s="32" t="str">
+      <c r="AX19" s="21" t="str">
         <f>IF(_acsReport_day_each!AV13="","",_acsReport_day_each!AV13)</f>
         <v/>
       </c>
-      <c r="AY19" s="48" t="str">
+      <c r="AY19" s="34" t="str">
         <f>IF(_acsReport_day_each!AW13="","",_acsReport_day_each!AW13)</f>
         <v/>
       </c>
-      <c r="AZ19" s="32" t="str">
+      <c r="AZ19" s="21" t="str">
         <f>IF(_acsReport_day_each!AX13="","",_acsReport_day_each!AX13)</f>
         <v/>
       </c>
-      <c r="BA19" s="32" t="str">
+      <c r="BA19" s="21" t="str">
         <f>IF(_acsReport_day_each!AY13="","",_acsReport_day_each!AY13)</f>
         <v/>
       </c>
-      <c r="BB19" s="48" t="str">
+      <c r="BB19" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ13="","",_acsReport_day_each!AZ13)</f>
         <v/>
       </c>
-      <c r="BC19" s="32" t="str">
+      <c r="BC19" s="21" t="str">
         <f>IF(_acsReport_day_each!BA13="","",_acsReport_day_each!BA13)</f>
         <v/>
       </c>
-      <c r="BD19" s="32" t="str">
+      <c r="BD19" s="21" t="str">
         <f>IF(_acsReport_day_each!BB13="","",_acsReport_day_each!BB13)</f>
         <v/>
       </c>
-      <c r="BE19" s="64">
+      <c r="BE19" s="41">
         <f>_acsReport_day_each!BD13:BF13</f>
         <v>0</v>
       </c>
@@ -6026,227 +5411,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="2:64">
-      <c r="B20" s="30">
+    <row r="20" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B20" s="19">
         <v>0.5</v>
       </c>
-      <c r="C20" s="33" t="str">
+      <c r="C20" s="22" t="str">
         <f>IF(_acsReport_day_each!A14="","",_acsReport_day_each!A14)</f>
         <v/>
       </c>
-      <c r="D20" s="32" t="str">
+      <c r="D20" s="21" t="str">
         <f>IF(_acsReport_day_each!B14="","",_acsReport_day_each!B14)</f>
         <v/>
       </c>
-      <c r="E20" s="32" t="str">
+      <c r="E20" s="21" t="str">
         <f>IF(_acsReport_day_each!C14="","",_acsReport_day_each!C14)</f>
         <v/>
       </c>
-      <c r="F20" s="33" t="str">
+      <c r="F20" s="22" t="str">
         <f>IF(_acsReport_day_each!D14="","",_acsReport_day_each!D14)</f>
         <v/>
       </c>
-      <c r="G20" s="32" t="str">
+      <c r="G20" s="21" t="str">
         <f>IF(_acsReport_day_each!E14="","",_acsReport_day_each!E14)</f>
         <v/>
       </c>
-      <c r="H20" s="32" t="str">
+      <c r="H20" s="21" t="str">
         <f>IF(_acsReport_day_each!F14="","",_acsReport_day_each!F14)</f>
         <v/>
       </c>
-      <c r="I20" s="48" t="str">
+      <c r="I20" s="34" t="str">
         <f>IF(_acsReport_day_each!G14="","",_acsReport_day_each!G14)</f>
         <v/>
       </c>
-      <c r="J20" s="32" t="str">
+      <c r="J20" s="21" t="str">
         <f>IF(_acsReport_day_each!H14="","",_acsReport_day_each!H14)</f>
         <v/>
       </c>
-      <c r="K20" s="32" t="str">
+      <c r="K20" s="21" t="str">
         <f>IF(_acsReport_day_each!I14="","",_acsReport_day_each!I14)</f>
         <v/>
       </c>
-      <c r="L20" s="33" t="str">
+      <c r="L20" s="22" t="str">
         <f>IF(_acsReport_day_each!J14="","",_acsReport_day_each!J14)</f>
         <v/>
       </c>
-      <c r="M20" s="32" t="str">
+      <c r="M20" s="21" t="str">
         <f>IF(_acsReport_day_each!K14="","",_acsReport_day_each!K14)</f>
         <v/>
       </c>
-      <c r="N20" s="32" t="str">
+      <c r="N20" s="21" t="str">
         <f>IF(_acsReport_day_each!L14="","",_acsReport_day_each!L14)</f>
         <v/>
       </c>
-      <c r="O20" s="48" t="str">
+      <c r="O20" s="34" t="str">
         <f>IF(_acsReport_day_each!M14="","",_acsReport_day_each!M14)</f>
         <v/>
       </c>
-      <c r="P20" s="32" t="str">
+      <c r="P20" s="21" t="str">
         <f>IF(_acsReport_day_each!N14="","",_acsReport_day_each!N14)</f>
         <v/>
       </c>
-      <c r="Q20" s="32" t="str">
+      <c r="Q20" s="21" t="str">
         <f>IF(_acsReport_day_each!O14="","",_acsReport_day_each!O14)</f>
         <v/>
       </c>
-      <c r="R20" s="33" t="str">
+      <c r="R20" s="22" t="str">
         <f>IF(_acsReport_day_each!P14="","",_acsReport_day_each!P14)</f>
         <v/>
       </c>
-      <c r="S20" s="32" t="str">
+      <c r="S20" s="21" t="str">
         <f>IF(_acsReport_day_each!Q14="","",_acsReport_day_each!Q14)</f>
         <v/>
       </c>
-      <c r="T20" s="32" t="str">
+      <c r="T20" s="21" t="str">
         <f>IF(_acsReport_day_each!R14="","",_acsReport_day_each!R14)</f>
         <v/>
       </c>
-      <c r="U20" s="48" t="str">
+      <c r="U20" s="34" t="str">
         <f>IF(_acsReport_day_each!S14="","",_acsReport_day_each!S14)</f>
         <v/>
       </c>
-      <c r="V20" s="32" t="str">
+      <c r="V20" s="21" t="str">
         <f>IF(_acsReport_day_each!T14="","",_acsReport_day_each!T14)</f>
         <v/>
       </c>
-      <c r="W20" s="32" t="str">
+      <c r="W20" s="21" t="str">
         <f>IF(_acsReport_day_each!U14="","",_acsReport_day_each!U14)</f>
         <v/>
       </c>
-      <c r="X20" s="33" t="str">
+      <c r="X20" s="22" t="str">
         <f>IF(_acsReport_day_each!V14="","",_acsReport_day_each!V14)</f>
         <v/>
       </c>
-      <c r="Y20" s="32" t="str">
+      <c r="Y20" s="21" t="str">
         <f>IF(_acsReport_day_each!W14="","",_acsReport_day_each!W14)</f>
         <v/>
       </c>
-      <c r="Z20" s="32" t="str">
+      <c r="Z20" s="21" t="str">
         <f>IF(_acsReport_day_each!X14="","",_acsReport_day_each!X14)</f>
         <v/>
       </c>
-      <c r="AA20" s="48" t="str">
+      <c r="AA20" s="34" t="str">
         <f>IF(_acsReport_day_each!Y14="","",_acsReport_day_each!Y14)</f>
         <v/>
       </c>
-      <c r="AB20" s="32" t="str">
+      <c r="AB20" s="21" t="str">
         <f>IF(_acsReport_day_each!Z14="","",_acsReport_day_each!Z14)</f>
         <v/>
       </c>
-      <c r="AC20" s="32" t="str">
+      <c r="AC20" s="21" t="str">
         <f>IF(_acsReport_day_each!AA14="","",_acsReport_day_each!AA14)</f>
         <v/>
       </c>
-      <c r="AD20" s="33" t="str">
+      <c r="AD20" s="22" t="str">
         <f>IF(_acsReport_day_each!AB14="","",_acsReport_day_each!AB14)</f>
         <v/>
       </c>
-      <c r="AE20" s="32" t="str">
+      <c r="AE20" s="21" t="str">
         <f>IF(_acsReport_day_each!AC14="","",_acsReport_day_each!AC14)</f>
         <v/>
       </c>
-      <c r="AF20" s="32" t="str">
+      <c r="AF20" s="21" t="str">
         <f>IF(_acsReport_day_each!AD14="","",_acsReport_day_each!AD14)</f>
         <v/>
       </c>
-      <c r="AG20" s="48" t="str">
+      <c r="AG20" s="34" t="str">
         <f>IF(_acsReport_day_each!AE14="","",_acsReport_day_each!AE14)</f>
         <v/>
       </c>
-      <c r="AH20" s="32" t="str">
+      <c r="AH20" s="21" t="str">
         <f>IF(_acsReport_day_each!AF14="","",_acsReport_day_each!AF14)</f>
         <v/>
       </c>
-      <c r="AI20" s="32" t="str">
+      <c r="AI20" s="21" t="str">
         <f>IF(_acsReport_day_each!AG14="","",_acsReport_day_each!AG14)</f>
         <v/>
       </c>
-      <c r="AJ20" s="33" t="str">
+      <c r="AJ20" s="22" t="str">
         <f>IF(_acsReport_day_each!AH14="","",_acsReport_day_each!AH14)</f>
         <v/>
       </c>
-      <c r="AK20" s="32" t="str">
+      <c r="AK20" s="21" t="str">
         <f>IF(_acsReport_day_each!AI14="","",_acsReport_day_each!AI14)</f>
         <v/>
       </c>
-      <c r="AL20" s="32" t="str">
+      <c r="AL20" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ14="","",_acsReport_day_each!AJ14)</f>
         <v/>
       </c>
-      <c r="AM20" s="48" t="str">
+      <c r="AM20" s="34" t="str">
         <f>IF(_acsReport_day_each!AK14="","",_acsReport_day_each!AK14)</f>
         <v/>
       </c>
-      <c r="AN20" s="32" t="str">
+      <c r="AN20" s="21" t="str">
         <f>IF(_acsReport_day_each!AL14="","",_acsReport_day_each!AL14)</f>
         <v/>
       </c>
-      <c r="AO20" s="32" t="str">
+      <c r="AO20" s="21" t="str">
         <f>IF(_acsReport_day_each!AM14="","",_acsReport_day_each!AM14)</f>
         <v/>
       </c>
-      <c r="AP20" s="33" t="str">
+      <c r="AP20" s="22" t="str">
         <f>IF(_acsReport_day_each!AN14="","",_acsReport_day_each!AN14)</f>
         <v/>
       </c>
-      <c r="AQ20" s="32" t="str">
+      <c r="AQ20" s="21" t="str">
         <f>IF(_acsReport_day_each!AO14="","",_acsReport_day_each!AO14)</f>
         <v/>
       </c>
-      <c r="AR20" s="32" t="str">
+      <c r="AR20" s="21" t="str">
         <f>IF(_acsReport_day_each!AP14="","",_acsReport_day_each!AP14)</f>
         <v/>
       </c>
-      <c r="AS20" s="48" t="str">
+      <c r="AS20" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ14="","",_acsReport_day_each!AQ14)</f>
         <v/>
       </c>
-      <c r="AT20" s="32" t="str">
+      <c r="AT20" s="21" t="str">
         <f>IF(_acsReport_day_each!AR14="","",_acsReport_day_each!AR14)</f>
         <v/>
       </c>
-      <c r="AU20" s="32" t="str">
+      <c r="AU20" s="21" t="str">
         <f>IF(_acsReport_day_each!AS14="","",_acsReport_day_each!AS14)</f>
         <v/>
       </c>
-      <c r="AV20" s="33" t="str">
+      <c r="AV20" s="22" t="str">
         <f>IF(_acsReport_day_each!AT14="","",_acsReport_day_each!AT14)</f>
         <v/>
       </c>
-      <c r="AW20" s="32" t="str">
+      <c r="AW20" s="21" t="str">
         <f>IF(_acsReport_day_each!AU14="","",_acsReport_day_each!AU14)</f>
         <v/>
       </c>
-      <c r="AX20" s="32" t="str">
+      <c r="AX20" s="21" t="str">
         <f>IF(_acsReport_day_each!AV14="","",_acsReport_day_each!AV14)</f>
         <v/>
       </c>
-      <c r="AY20" s="48" t="str">
+      <c r="AY20" s="34" t="str">
         <f>IF(_acsReport_day_each!AW14="","",_acsReport_day_each!AW14)</f>
         <v/>
       </c>
-      <c r="AZ20" s="32" t="str">
+      <c r="AZ20" s="21" t="str">
         <f>IF(_acsReport_day_each!AX14="","",_acsReport_day_each!AX14)</f>
         <v/>
       </c>
-      <c r="BA20" s="32" t="str">
+      <c r="BA20" s="21" t="str">
         <f>IF(_acsReport_day_each!AY14="","",_acsReport_day_each!AY14)</f>
         <v/>
       </c>
-      <c r="BB20" s="48" t="str">
+      <c r="BB20" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ14="","",_acsReport_day_each!AZ14)</f>
         <v/>
       </c>
-      <c r="BC20" s="32" t="str">
+      <c r="BC20" s="21" t="str">
         <f>IF(_acsReport_day_each!BA14="","",_acsReport_day_each!BA14)</f>
         <v/>
       </c>
-      <c r="BD20" s="32" t="str">
+      <c r="BD20" s="21" t="str">
         <f>IF(_acsReport_day_each!BB14="","",_acsReport_day_each!BB14)</f>
         <v/>
       </c>
-      <c r="BE20" s="64">
+      <c r="BE20" s="41">
         <f>_acsReport_day_each!BD14:BF14</f>
         <v>0</v>
       </c>
@@ -6267,227 +5652,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="2:64">
-      <c r="B21" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="C21" s="33" t="str">
+    <row r="21" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B21" s="19">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C21" s="22" t="str">
         <f>IF(_acsReport_day_each!A15="","",_acsReport_day_each!A15)</f>
         <v/>
       </c>
-      <c r="D21" s="32" t="str">
+      <c r="D21" s="21" t="str">
         <f>IF(_acsReport_day_each!B15="","",_acsReport_day_each!B15)</f>
         <v/>
       </c>
-      <c r="E21" s="32" t="str">
+      <c r="E21" s="21" t="str">
         <f>IF(_acsReport_day_each!C15="","",_acsReport_day_each!C15)</f>
         <v/>
       </c>
-      <c r="F21" s="33" t="str">
+      <c r="F21" s="22" t="str">
         <f>IF(_acsReport_day_each!D15="","",_acsReport_day_each!D15)</f>
         <v/>
       </c>
-      <c r="G21" s="32" t="str">
+      <c r="G21" s="21" t="str">
         <f>IF(_acsReport_day_each!E15="","",_acsReport_day_each!E15)</f>
         <v/>
       </c>
-      <c r="H21" s="32" t="str">
+      <c r="H21" s="21" t="str">
         <f>IF(_acsReport_day_each!F15="","",_acsReport_day_each!F15)</f>
         <v/>
       </c>
-      <c r="I21" s="48" t="str">
+      <c r="I21" s="34" t="str">
         <f>IF(_acsReport_day_each!G15="","",_acsReport_day_each!G15)</f>
         <v/>
       </c>
-      <c r="J21" s="32" t="str">
+      <c r="J21" s="21" t="str">
         <f>IF(_acsReport_day_each!H15="","",_acsReport_day_each!H15)</f>
         <v/>
       </c>
-      <c r="K21" s="32" t="str">
+      <c r="K21" s="21" t="str">
         <f>IF(_acsReport_day_each!I15="","",_acsReport_day_each!I15)</f>
         <v/>
       </c>
-      <c r="L21" s="33" t="str">
+      <c r="L21" s="22" t="str">
         <f>IF(_acsReport_day_each!J15="","",_acsReport_day_each!J15)</f>
         <v/>
       </c>
-      <c r="M21" s="32" t="str">
+      <c r="M21" s="21" t="str">
         <f>IF(_acsReport_day_each!K15="","",_acsReport_day_each!K15)</f>
         <v/>
       </c>
-      <c r="N21" s="32" t="str">
+      <c r="N21" s="21" t="str">
         <f>IF(_acsReport_day_each!L15="","",_acsReport_day_each!L15)</f>
         <v/>
       </c>
-      <c r="O21" s="48" t="str">
+      <c r="O21" s="34" t="str">
         <f>IF(_acsReport_day_each!M15="","",_acsReport_day_each!M15)</f>
         <v/>
       </c>
-      <c r="P21" s="32" t="str">
+      <c r="P21" s="21" t="str">
         <f>IF(_acsReport_day_each!N15="","",_acsReport_day_each!N15)</f>
         <v/>
       </c>
-      <c r="Q21" s="32" t="str">
+      <c r="Q21" s="21" t="str">
         <f>IF(_acsReport_day_each!O15="","",_acsReport_day_each!O15)</f>
         <v/>
       </c>
-      <c r="R21" s="33" t="str">
+      <c r="R21" s="22" t="str">
         <f>IF(_acsReport_day_each!P15="","",_acsReport_day_each!P15)</f>
         <v/>
       </c>
-      <c r="S21" s="32" t="str">
+      <c r="S21" s="21" t="str">
         <f>IF(_acsReport_day_each!Q15="","",_acsReport_day_each!Q15)</f>
         <v/>
       </c>
-      <c r="T21" s="32" t="str">
+      <c r="T21" s="21" t="str">
         <f>IF(_acsReport_day_each!R15="","",_acsReport_day_each!R15)</f>
         <v/>
       </c>
-      <c r="U21" s="48" t="str">
+      <c r="U21" s="34" t="str">
         <f>IF(_acsReport_day_each!S15="","",_acsReport_day_each!S15)</f>
         <v/>
       </c>
-      <c r="V21" s="32" t="str">
+      <c r="V21" s="21" t="str">
         <f>IF(_acsReport_day_each!T15="","",_acsReport_day_each!T15)</f>
         <v/>
       </c>
-      <c r="W21" s="32" t="str">
+      <c r="W21" s="21" t="str">
         <f>IF(_acsReport_day_each!U15="","",_acsReport_day_each!U15)</f>
         <v/>
       </c>
-      <c r="X21" s="33" t="str">
+      <c r="X21" s="22" t="str">
         <f>IF(_acsReport_day_each!V15="","",_acsReport_day_each!V15)</f>
         <v/>
       </c>
-      <c r="Y21" s="32" t="str">
+      <c r="Y21" s="21" t="str">
         <f>IF(_acsReport_day_each!W15="","",_acsReport_day_each!W15)</f>
         <v/>
       </c>
-      <c r="Z21" s="32" t="str">
+      <c r="Z21" s="21" t="str">
         <f>IF(_acsReport_day_each!X15="","",_acsReport_day_each!X15)</f>
         <v/>
       </c>
-      <c r="AA21" s="48" t="str">
+      <c r="AA21" s="34" t="str">
         <f>IF(_acsReport_day_each!Y15="","",_acsReport_day_each!Y15)</f>
         <v/>
       </c>
-      <c r="AB21" s="32" t="str">
+      <c r="AB21" s="21" t="str">
         <f>IF(_acsReport_day_each!Z15="","",_acsReport_day_each!Z15)</f>
         <v/>
       </c>
-      <c r="AC21" s="32" t="str">
+      <c r="AC21" s="21" t="str">
         <f>IF(_acsReport_day_each!AA15="","",_acsReport_day_each!AA15)</f>
         <v/>
       </c>
-      <c r="AD21" s="33" t="str">
+      <c r="AD21" s="22" t="str">
         <f>IF(_acsReport_day_each!AB15="","",_acsReport_day_each!AB15)</f>
         <v/>
       </c>
-      <c r="AE21" s="32" t="str">
+      <c r="AE21" s="21" t="str">
         <f>IF(_acsReport_day_each!AC15="","",_acsReport_day_each!AC15)</f>
         <v/>
       </c>
-      <c r="AF21" s="32" t="str">
+      <c r="AF21" s="21" t="str">
         <f>IF(_acsReport_day_each!AD15="","",_acsReport_day_each!AD15)</f>
         <v/>
       </c>
-      <c r="AG21" s="48" t="str">
+      <c r="AG21" s="34" t="str">
         <f>IF(_acsReport_day_each!AE15="","",_acsReport_day_each!AE15)</f>
         <v/>
       </c>
-      <c r="AH21" s="32" t="str">
+      <c r="AH21" s="21" t="str">
         <f>IF(_acsReport_day_each!AF15="","",_acsReport_day_each!AF15)</f>
         <v/>
       </c>
-      <c r="AI21" s="32" t="str">
+      <c r="AI21" s="21" t="str">
         <f>IF(_acsReport_day_each!AG15="","",_acsReport_day_each!AG15)</f>
         <v/>
       </c>
-      <c r="AJ21" s="33" t="str">
+      <c r="AJ21" s="22" t="str">
         <f>IF(_acsReport_day_each!AH15="","",_acsReport_day_each!AH15)</f>
         <v/>
       </c>
-      <c r="AK21" s="32" t="str">
+      <c r="AK21" s="21" t="str">
         <f>IF(_acsReport_day_each!AI15="","",_acsReport_day_each!AI15)</f>
         <v/>
       </c>
-      <c r="AL21" s="32" t="str">
+      <c r="AL21" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ15="","",_acsReport_day_each!AJ15)</f>
         <v/>
       </c>
-      <c r="AM21" s="48" t="str">
+      <c r="AM21" s="34" t="str">
         <f>IF(_acsReport_day_each!AK15="","",_acsReport_day_each!AK15)</f>
         <v/>
       </c>
-      <c r="AN21" s="32" t="str">
+      <c r="AN21" s="21" t="str">
         <f>IF(_acsReport_day_each!AL15="","",_acsReport_day_each!AL15)</f>
         <v/>
       </c>
-      <c r="AO21" s="32" t="str">
+      <c r="AO21" s="21" t="str">
         <f>IF(_acsReport_day_each!AM15="","",_acsReport_day_each!AM15)</f>
         <v/>
       </c>
-      <c r="AP21" s="33" t="str">
+      <c r="AP21" s="22" t="str">
         <f>IF(_acsReport_day_each!AN15="","",_acsReport_day_each!AN15)</f>
         <v/>
       </c>
-      <c r="AQ21" s="32" t="str">
+      <c r="AQ21" s="21" t="str">
         <f>IF(_acsReport_day_each!AO15="","",_acsReport_day_each!AO15)</f>
         <v/>
       </c>
-      <c r="AR21" s="32" t="str">
+      <c r="AR21" s="21" t="str">
         <f>IF(_acsReport_day_each!AP15="","",_acsReport_day_each!AP15)</f>
         <v/>
       </c>
-      <c r="AS21" s="48" t="str">
+      <c r="AS21" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ15="","",_acsReport_day_each!AQ15)</f>
         <v/>
       </c>
-      <c r="AT21" s="32" t="str">
+      <c r="AT21" s="21" t="str">
         <f>IF(_acsReport_day_each!AR15="","",_acsReport_day_each!AR15)</f>
         <v/>
       </c>
-      <c r="AU21" s="32" t="str">
+      <c r="AU21" s="21" t="str">
         <f>IF(_acsReport_day_each!AS15="","",_acsReport_day_each!AS15)</f>
         <v/>
       </c>
-      <c r="AV21" s="33" t="str">
+      <c r="AV21" s="22" t="str">
         <f>IF(_acsReport_day_each!AT15="","",_acsReport_day_each!AT15)</f>
         <v/>
       </c>
-      <c r="AW21" s="32" t="str">
+      <c r="AW21" s="21" t="str">
         <f>IF(_acsReport_day_each!AU15="","",_acsReport_day_each!AU15)</f>
         <v/>
       </c>
-      <c r="AX21" s="32" t="str">
+      <c r="AX21" s="21" t="str">
         <f>IF(_acsReport_day_each!AV15="","",_acsReport_day_each!AV15)</f>
         <v/>
       </c>
-      <c r="AY21" s="48" t="str">
+      <c r="AY21" s="34" t="str">
         <f>IF(_acsReport_day_each!AW15="","",_acsReport_day_each!AW15)</f>
         <v/>
       </c>
-      <c r="AZ21" s="32" t="str">
+      <c r="AZ21" s="21" t="str">
         <f>IF(_acsReport_day_each!AX15="","",_acsReport_day_each!AX15)</f>
         <v/>
       </c>
-      <c r="BA21" s="32" t="str">
+      <c r="BA21" s="21" t="str">
         <f>IF(_acsReport_day_each!AY15="","",_acsReport_day_each!AY15)</f>
         <v/>
       </c>
-      <c r="BB21" s="48" t="str">
+      <c r="BB21" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ15="","",_acsReport_day_each!AZ15)</f>
         <v/>
       </c>
-      <c r="BC21" s="32" t="str">
+      <c r="BC21" s="21" t="str">
         <f>IF(_acsReport_day_each!BA15="","",_acsReport_day_each!BA15)</f>
         <v/>
       </c>
-      <c r="BD21" s="32" t="str">
+      <c r="BD21" s="21" t="str">
         <f>IF(_acsReport_day_each!BB15="","",_acsReport_day_each!BB15)</f>
         <v/>
       </c>
-      <c r="BE21" s="64">
+      <c r="BE21" s="41">
         <f>_acsReport_day_each!BD15:BF15</f>
         <v>0</v>
       </c>
@@ -6508,227 +5893,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="2:64">
-      <c r="B22" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C22" s="33" t="str">
+    <row r="22" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B22" s="19">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C22" s="22" t="str">
         <f>IF(_acsReport_day_each!A16="","",_acsReport_day_each!A16)</f>
         <v/>
       </c>
-      <c r="D22" s="32" t="str">
+      <c r="D22" s="21" t="str">
         <f>IF(_acsReport_day_each!B16="","",_acsReport_day_each!B16)</f>
         <v/>
       </c>
-      <c r="E22" s="32" t="str">
+      <c r="E22" s="21" t="str">
         <f>IF(_acsReport_day_each!C16="","",_acsReport_day_each!C16)</f>
         <v/>
       </c>
-      <c r="F22" s="33" t="str">
+      <c r="F22" s="22" t="str">
         <f>IF(_acsReport_day_each!D16="","",_acsReport_day_each!D16)</f>
         <v/>
       </c>
-      <c r="G22" s="32" t="str">
+      <c r="G22" s="21" t="str">
         <f>IF(_acsReport_day_each!E16="","",_acsReport_day_each!E16)</f>
         <v/>
       </c>
-      <c r="H22" s="32" t="str">
+      <c r="H22" s="21" t="str">
         <f>IF(_acsReport_day_each!F16="","",_acsReport_day_each!F16)</f>
         <v/>
       </c>
-      <c r="I22" s="48" t="str">
+      <c r="I22" s="34" t="str">
         <f>IF(_acsReport_day_each!G16="","",_acsReport_day_each!G16)</f>
         <v/>
       </c>
-      <c r="J22" s="32" t="str">
+      <c r="J22" s="21" t="str">
         <f>IF(_acsReport_day_each!H16="","",_acsReport_day_each!H16)</f>
         <v/>
       </c>
-      <c r="K22" s="32" t="str">
+      <c r="K22" s="21" t="str">
         <f>IF(_acsReport_day_each!I16="","",_acsReport_day_each!I16)</f>
         <v/>
       </c>
-      <c r="L22" s="33" t="str">
+      <c r="L22" s="22" t="str">
         <f>IF(_acsReport_day_each!J16="","",_acsReport_day_each!J16)</f>
         <v/>
       </c>
-      <c r="M22" s="32" t="str">
+      <c r="M22" s="21" t="str">
         <f>IF(_acsReport_day_each!K16="","",_acsReport_day_each!K16)</f>
         <v/>
       </c>
-      <c r="N22" s="32" t="str">
+      <c r="N22" s="21" t="str">
         <f>IF(_acsReport_day_each!L16="","",_acsReport_day_each!L16)</f>
         <v/>
       </c>
-      <c r="O22" s="48" t="str">
+      <c r="O22" s="34" t="str">
         <f>IF(_acsReport_day_each!M16="","",_acsReport_day_each!M16)</f>
         <v/>
       </c>
-      <c r="P22" s="32" t="str">
+      <c r="P22" s="21" t="str">
         <f>IF(_acsReport_day_each!N16="","",_acsReport_day_each!N16)</f>
         <v/>
       </c>
-      <c r="Q22" s="32" t="str">
+      <c r="Q22" s="21" t="str">
         <f>IF(_acsReport_day_each!O16="","",_acsReport_day_each!O16)</f>
         <v/>
       </c>
-      <c r="R22" s="33" t="str">
+      <c r="R22" s="22" t="str">
         <f>IF(_acsReport_day_each!P16="","",_acsReport_day_each!P16)</f>
         <v/>
       </c>
-      <c r="S22" s="32" t="str">
+      <c r="S22" s="21" t="str">
         <f>IF(_acsReport_day_each!Q16="","",_acsReport_day_each!Q16)</f>
         <v/>
       </c>
-      <c r="T22" s="32" t="str">
+      <c r="T22" s="21" t="str">
         <f>IF(_acsReport_day_each!R16="","",_acsReport_day_each!R16)</f>
         <v/>
       </c>
-      <c r="U22" s="48" t="str">
+      <c r="U22" s="34" t="str">
         <f>IF(_acsReport_day_each!S16="","",_acsReport_day_each!S16)</f>
         <v/>
       </c>
-      <c r="V22" s="32" t="str">
+      <c r="V22" s="21" t="str">
         <f>IF(_acsReport_day_each!T16="","",_acsReport_day_each!T16)</f>
         <v/>
       </c>
-      <c r="W22" s="32" t="str">
+      <c r="W22" s="21" t="str">
         <f>IF(_acsReport_day_each!U16="","",_acsReport_day_each!U16)</f>
         <v/>
       </c>
-      <c r="X22" s="33" t="str">
+      <c r="X22" s="22" t="str">
         <f>IF(_acsReport_day_each!V16="","",_acsReport_day_each!V16)</f>
         <v/>
       </c>
-      <c r="Y22" s="32" t="str">
+      <c r="Y22" s="21" t="str">
         <f>IF(_acsReport_day_each!W16="","",_acsReport_day_each!W16)</f>
         <v/>
       </c>
-      <c r="Z22" s="32" t="str">
+      <c r="Z22" s="21" t="str">
         <f>IF(_acsReport_day_each!X16="","",_acsReport_day_each!X16)</f>
         <v/>
       </c>
-      <c r="AA22" s="48" t="str">
+      <c r="AA22" s="34" t="str">
         <f>IF(_acsReport_day_each!Y16="","",_acsReport_day_each!Y16)</f>
         <v/>
       </c>
-      <c r="AB22" s="32" t="str">
+      <c r="AB22" s="21" t="str">
         <f>IF(_acsReport_day_each!Z16="","",_acsReport_day_each!Z16)</f>
         <v/>
       </c>
-      <c r="AC22" s="32" t="str">
+      <c r="AC22" s="21" t="str">
         <f>IF(_acsReport_day_each!AA16="","",_acsReport_day_each!AA16)</f>
         <v/>
       </c>
-      <c r="AD22" s="33" t="str">
+      <c r="AD22" s="22" t="str">
         <f>IF(_acsReport_day_each!AB16="","",_acsReport_day_each!AB16)</f>
         <v/>
       </c>
-      <c r="AE22" s="32" t="str">
+      <c r="AE22" s="21" t="str">
         <f>IF(_acsReport_day_each!AC16="","",_acsReport_day_each!AC16)</f>
         <v/>
       </c>
-      <c r="AF22" s="32" t="str">
+      <c r="AF22" s="21" t="str">
         <f>IF(_acsReport_day_each!AD16="","",_acsReport_day_each!AD16)</f>
         <v/>
       </c>
-      <c r="AG22" s="48" t="str">
+      <c r="AG22" s="34" t="str">
         <f>IF(_acsReport_day_each!AE16="","",_acsReport_day_each!AE16)</f>
         <v/>
       </c>
-      <c r="AH22" s="32" t="str">
+      <c r="AH22" s="21" t="str">
         <f>IF(_acsReport_day_each!AF16="","",_acsReport_day_each!AF16)</f>
         <v/>
       </c>
-      <c r="AI22" s="32" t="str">
+      <c r="AI22" s="21" t="str">
         <f>IF(_acsReport_day_each!AG16="","",_acsReport_day_each!AG16)</f>
         <v/>
       </c>
-      <c r="AJ22" s="33" t="str">
+      <c r="AJ22" s="22" t="str">
         <f>IF(_acsReport_day_each!AH16="","",_acsReport_day_each!AH16)</f>
         <v/>
       </c>
-      <c r="AK22" s="32" t="str">
+      <c r="AK22" s="21" t="str">
         <f>IF(_acsReport_day_each!AI16="","",_acsReport_day_each!AI16)</f>
         <v/>
       </c>
-      <c r="AL22" s="32" t="str">
+      <c r="AL22" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ16="","",_acsReport_day_each!AJ16)</f>
         <v/>
       </c>
-      <c r="AM22" s="48" t="str">
+      <c r="AM22" s="34" t="str">
         <f>IF(_acsReport_day_each!AK16="","",_acsReport_day_each!AK16)</f>
         <v/>
       </c>
-      <c r="AN22" s="32" t="str">
+      <c r="AN22" s="21" t="str">
         <f>IF(_acsReport_day_each!AL16="","",_acsReport_day_each!AL16)</f>
         <v/>
       </c>
-      <c r="AO22" s="32" t="str">
+      <c r="AO22" s="21" t="str">
         <f>IF(_acsReport_day_each!AM16="","",_acsReport_day_each!AM16)</f>
         <v/>
       </c>
-      <c r="AP22" s="33" t="str">
+      <c r="AP22" s="22" t="str">
         <f>IF(_acsReport_day_each!AN16="","",_acsReport_day_each!AN16)</f>
         <v/>
       </c>
-      <c r="AQ22" s="32" t="str">
+      <c r="AQ22" s="21" t="str">
         <f>IF(_acsReport_day_each!AO16="","",_acsReport_day_each!AO16)</f>
         <v/>
       </c>
-      <c r="AR22" s="32" t="str">
+      <c r="AR22" s="21" t="str">
         <f>IF(_acsReport_day_each!AP16="","",_acsReport_day_each!AP16)</f>
         <v/>
       </c>
-      <c r="AS22" s="48" t="str">
+      <c r="AS22" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ16="","",_acsReport_day_each!AQ16)</f>
         <v/>
       </c>
-      <c r="AT22" s="32" t="str">
+      <c r="AT22" s="21" t="str">
         <f>IF(_acsReport_day_each!AR16="","",_acsReport_day_each!AR16)</f>
         <v/>
       </c>
-      <c r="AU22" s="32" t="str">
+      <c r="AU22" s="21" t="str">
         <f>IF(_acsReport_day_each!AS16="","",_acsReport_day_each!AS16)</f>
         <v/>
       </c>
-      <c r="AV22" s="33" t="str">
+      <c r="AV22" s="22" t="str">
         <f>IF(_acsReport_day_each!AT16="","",_acsReport_day_each!AT16)</f>
         <v/>
       </c>
-      <c r="AW22" s="32" t="str">
+      <c r="AW22" s="21" t="str">
         <f>IF(_acsReport_day_each!AU16="","",_acsReport_day_each!AU16)</f>
         <v/>
       </c>
-      <c r="AX22" s="32" t="str">
+      <c r="AX22" s="21" t="str">
         <f>IF(_acsReport_day_each!AV16="","",_acsReport_day_each!AV16)</f>
         <v/>
       </c>
-      <c r="AY22" s="48" t="str">
+      <c r="AY22" s="34" t="str">
         <f>IF(_acsReport_day_each!AW16="","",_acsReport_day_each!AW16)</f>
         <v/>
       </c>
-      <c r="AZ22" s="32" t="str">
+      <c r="AZ22" s="21" t="str">
         <f>IF(_acsReport_day_each!AX16="","",_acsReport_day_each!AX16)</f>
         <v/>
       </c>
-      <c r="BA22" s="32" t="str">
+      <c r="BA22" s="21" t="str">
         <f>IF(_acsReport_day_each!AY16="","",_acsReport_day_each!AY16)</f>
         <v/>
       </c>
-      <c r="BB22" s="48" t="str">
+      <c r="BB22" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ16="","",_acsReport_day_each!AZ16)</f>
         <v/>
       </c>
-      <c r="BC22" s="32" t="str">
+      <c r="BC22" s="21" t="str">
         <f>IF(_acsReport_day_each!BA16="","",_acsReport_day_each!BA16)</f>
         <v/>
       </c>
-      <c r="BD22" s="32" t="str">
+      <c r="BD22" s="21" t="str">
         <f>IF(_acsReport_day_each!BB16="","",_acsReport_day_each!BB16)</f>
         <v/>
       </c>
-      <c r="BE22" s="64">
+      <c r="BE22" s="41">
         <f>_acsReport_day_each!BD16:BF16</f>
         <v>0</v>
       </c>
@@ -6749,227 +6134,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="2:64">
-      <c r="B23" s="34">
+    <row r="23" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B23" s="23">
         <v>0.625</v>
       </c>
-      <c r="C23" s="35" t="str">
+      <c r="C23" s="24" t="str">
         <f>IF(_acsReport_day_each!A17="","",_acsReport_day_each!A17)</f>
         <v/>
       </c>
-      <c r="D23" s="36" t="str">
+      <c r="D23" s="25" t="str">
         <f>IF(_acsReport_day_each!B17="","",_acsReport_day_each!B17)</f>
         <v/>
       </c>
-      <c r="E23" s="36" t="str">
+      <c r="E23" s="25" t="str">
         <f>IF(_acsReport_day_each!C17="","",_acsReport_day_each!C17)</f>
         <v/>
       </c>
-      <c r="F23" s="33" t="str">
+      <c r="F23" s="22" t="str">
         <f>IF(_acsReport_day_each!D17="","",_acsReport_day_each!D17)</f>
         <v/>
       </c>
-      <c r="G23" s="32" t="str">
+      <c r="G23" s="21" t="str">
         <f>IF(_acsReport_day_each!E17="","",_acsReport_day_each!E17)</f>
         <v/>
       </c>
-      <c r="H23" s="32" t="str">
+      <c r="H23" s="21" t="str">
         <f>IF(_acsReport_day_each!F17="","",_acsReport_day_each!F17)</f>
         <v/>
       </c>
-      <c r="I23" s="48" t="str">
+      <c r="I23" s="34" t="str">
         <f>IF(_acsReport_day_each!G17="","",_acsReport_day_each!G17)</f>
         <v/>
       </c>
-      <c r="J23" s="32" t="str">
+      <c r="J23" s="21" t="str">
         <f>IF(_acsReport_day_each!H17="","",_acsReport_day_each!H17)</f>
         <v/>
       </c>
-      <c r="K23" s="32" t="str">
+      <c r="K23" s="21" t="str">
         <f>IF(_acsReport_day_each!I17="","",_acsReport_day_each!I17)</f>
         <v/>
       </c>
-      <c r="L23" s="33" t="str">
+      <c r="L23" s="22" t="str">
         <f>IF(_acsReport_day_each!J17="","",_acsReport_day_each!J17)</f>
         <v/>
       </c>
-      <c r="M23" s="32" t="str">
+      <c r="M23" s="21" t="str">
         <f>IF(_acsReport_day_each!K17="","",_acsReport_day_each!K17)</f>
         <v/>
       </c>
-      <c r="N23" s="32" t="str">
+      <c r="N23" s="21" t="str">
         <f>IF(_acsReport_day_each!L17="","",_acsReport_day_each!L17)</f>
         <v/>
       </c>
-      <c r="O23" s="48" t="str">
+      <c r="O23" s="34" t="str">
         <f>IF(_acsReport_day_each!M17="","",_acsReport_day_each!M17)</f>
         <v/>
       </c>
-      <c r="P23" s="32" t="str">
+      <c r="P23" s="21" t="str">
         <f>IF(_acsReport_day_each!N17="","",_acsReport_day_each!N17)</f>
         <v/>
       </c>
-      <c r="Q23" s="32" t="str">
+      <c r="Q23" s="21" t="str">
         <f>IF(_acsReport_day_each!O17="","",_acsReport_day_each!O17)</f>
         <v/>
       </c>
-      <c r="R23" s="33" t="str">
+      <c r="R23" s="22" t="str">
         <f>IF(_acsReport_day_each!P17="","",_acsReport_day_each!P17)</f>
         <v/>
       </c>
-      <c r="S23" s="32" t="str">
+      <c r="S23" s="21" t="str">
         <f>IF(_acsReport_day_each!Q17="","",_acsReport_day_each!Q17)</f>
         <v/>
       </c>
-      <c r="T23" s="32" t="str">
+      <c r="T23" s="21" t="str">
         <f>IF(_acsReport_day_each!R17="","",_acsReport_day_each!R17)</f>
         <v/>
       </c>
-      <c r="U23" s="48" t="str">
+      <c r="U23" s="34" t="str">
         <f>IF(_acsReport_day_each!S17="","",_acsReport_day_each!S17)</f>
         <v/>
       </c>
-      <c r="V23" s="32" t="str">
+      <c r="V23" s="21" t="str">
         <f>IF(_acsReport_day_each!T17="","",_acsReport_day_each!T17)</f>
         <v/>
       </c>
-      <c r="W23" s="32" t="str">
+      <c r="W23" s="21" t="str">
         <f>IF(_acsReport_day_each!U17="","",_acsReport_day_each!U17)</f>
         <v/>
       </c>
-      <c r="X23" s="33" t="str">
+      <c r="X23" s="22" t="str">
         <f>IF(_acsReport_day_each!V17="","",_acsReport_day_each!V17)</f>
         <v/>
       </c>
-      <c r="Y23" s="32" t="str">
+      <c r="Y23" s="21" t="str">
         <f>IF(_acsReport_day_each!W17="","",_acsReport_day_each!W17)</f>
         <v/>
       </c>
-      <c r="Z23" s="32" t="str">
+      <c r="Z23" s="21" t="str">
         <f>IF(_acsReport_day_each!X17="","",_acsReport_day_each!X17)</f>
         <v/>
       </c>
-      <c r="AA23" s="48" t="str">
+      <c r="AA23" s="34" t="str">
         <f>IF(_acsReport_day_each!Y17="","",_acsReport_day_each!Y17)</f>
         <v/>
       </c>
-      <c r="AB23" s="32" t="str">
+      <c r="AB23" s="21" t="str">
         <f>IF(_acsReport_day_each!Z17="","",_acsReport_day_each!Z17)</f>
         <v/>
       </c>
-      <c r="AC23" s="32" t="str">
+      <c r="AC23" s="21" t="str">
         <f>IF(_acsReport_day_each!AA17="","",_acsReport_day_each!AA17)</f>
         <v/>
       </c>
-      <c r="AD23" s="33" t="str">
+      <c r="AD23" s="22" t="str">
         <f>IF(_acsReport_day_each!AB17="","",_acsReport_day_each!AB17)</f>
         <v/>
       </c>
-      <c r="AE23" s="32" t="str">
+      <c r="AE23" s="21" t="str">
         <f>IF(_acsReport_day_each!AC17="","",_acsReport_day_each!AC17)</f>
         <v/>
       </c>
-      <c r="AF23" s="32" t="str">
+      <c r="AF23" s="21" t="str">
         <f>IF(_acsReport_day_each!AD17="","",_acsReport_day_each!AD17)</f>
         <v/>
       </c>
-      <c r="AG23" s="48" t="str">
+      <c r="AG23" s="34" t="str">
         <f>IF(_acsReport_day_each!AE17="","",_acsReport_day_each!AE17)</f>
         <v/>
       </c>
-      <c r="AH23" s="32" t="str">
+      <c r="AH23" s="21" t="str">
         <f>IF(_acsReport_day_each!AF17="","",_acsReport_day_each!AF17)</f>
         <v/>
       </c>
-      <c r="AI23" s="32" t="str">
+      <c r="AI23" s="21" t="str">
         <f>IF(_acsReport_day_each!AG17="","",_acsReport_day_each!AG17)</f>
         <v/>
       </c>
-      <c r="AJ23" s="33" t="str">
+      <c r="AJ23" s="22" t="str">
         <f>IF(_acsReport_day_each!AH17="","",_acsReport_day_each!AH17)</f>
         <v/>
       </c>
-      <c r="AK23" s="32" t="str">
+      <c r="AK23" s="21" t="str">
         <f>IF(_acsReport_day_each!AI17="","",_acsReport_day_each!AI17)</f>
         <v/>
       </c>
-      <c r="AL23" s="32" t="str">
+      <c r="AL23" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ17="","",_acsReport_day_each!AJ17)</f>
         <v/>
       </c>
-      <c r="AM23" s="48" t="str">
+      <c r="AM23" s="34" t="str">
         <f>IF(_acsReport_day_each!AK17="","",_acsReport_day_each!AK17)</f>
         <v/>
       </c>
-      <c r="AN23" s="32" t="str">
+      <c r="AN23" s="21" t="str">
         <f>IF(_acsReport_day_each!AL17="","",_acsReport_day_each!AL17)</f>
         <v/>
       </c>
-      <c r="AO23" s="32" t="str">
+      <c r="AO23" s="21" t="str">
         <f>IF(_acsReport_day_each!AM17="","",_acsReport_day_each!AM17)</f>
         <v/>
       </c>
-      <c r="AP23" s="33" t="str">
+      <c r="AP23" s="22" t="str">
         <f>IF(_acsReport_day_each!AN17="","",_acsReport_day_each!AN17)</f>
         <v/>
       </c>
-      <c r="AQ23" s="32" t="str">
+      <c r="AQ23" s="21" t="str">
         <f>IF(_acsReport_day_each!AO17="","",_acsReport_day_each!AO17)</f>
         <v/>
       </c>
-      <c r="AR23" s="32" t="str">
+      <c r="AR23" s="21" t="str">
         <f>IF(_acsReport_day_each!AP17="","",_acsReport_day_each!AP17)</f>
         <v/>
       </c>
-      <c r="AS23" s="48" t="str">
+      <c r="AS23" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ17="","",_acsReport_day_each!AQ17)</f>
         <v/>
       </c>
-      <c r="AT23" s="32" t="str">
+      <c r="AT23" s="21" t="str">
         <f>IF(_acsReport_day_each!AR17="","",_acsReport_day_each!AR17)</f>
         <v/>
       </c>
-      <c r="AU23" s="32" t="str">
+      <c r="AU23" s="21" t="str">
         <f>IF(_acsReport_day_each!AS17="","",_acsReport_day_each!AS17)</f>
         <v/>
       </c>
-      <c r="AV23" s="33" t="str">
+      <c r="AV23" s="22" t="str">
         <f>IF(_acsReport_day_each!AT17="","",_acsReport_day_each!AT17)</f>
         <v/>
       </c>
-      <c r="AW23" s="32" t="str">
+      <c r="AW23" s="21" t="str">
         <f>IF(_acsReport_day_each!AU17="","",_acsReport_day_each!AU17)</f>
         <v/>
       </c>
-      <c r="AX23" s="32" t="str">
+      <c r="AX23" s="21" t="str">
         <f>IF(_acsReport_day_each!AV17="","",_acsReport_day_each!AV17)</f>
         <v/>
       </c>
-      <c r="AY23" s="48" t="str">
+      <c r="AY23" s="34" t="str">
         <f>IF(_acsReport_day_each!AW17="","",_acsReport_day_each!AW17)</f>
         <v/>
       </c>
-      <c r="AZ23" s="32" t="str">
+      <c r="AZ23" s="21" t="str">
         <f>IF(_acsReport_day_each!AX17="","",_acsReport_day_each!AX17)</f>
         <v/>
       </c>
-      <c r="BA23" s="32" t="str">
+      <c r="BA23" s="21" t="str">
         <f>IF(_acsReport_day_each!AY17="","",_acsReport_day_each!AY17)</f>
         <v/>
       </c>
-      <c r="BB23" s="48" t="str">
+      <c r="BB23" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ17="","",_acsReport_day_each!AZ17)</f>
         <v/>
       </c>
-      <c r="BC23" s="32" t="str">
+      <c r="BC23" s="21" t="str">
         <f>IF(_acsReport_day_each!BA17="","",_acsReport_day_each!BA17)</f>
         <v/>
       </c>
-      <c r="BD23" s="32" t="str">
+      <c r="BD23" s="21" t="str">
         <f>IF(_acsReport_day_each!BB17="","",_acsReport_day_each!BB17)</f>
         <v/>
       </c>
-      <c r="BE23" s="64">
+      <c r="BE23" s="41">
         <f>_acsReport_day_each!BD17:BF17</f>
         <v>0</v>
       </c>
@@ -6990,227 +6375,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="2:64">
-      <c r="B24" s="37">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C24" s="38" t="str">
+    <row r="24" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B24" s="26">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C24" s="27" t="str">
         <f>IF(_acsReport_day_each!A18="","",_acsReport_day_each!A18)</f>
         <v/>
       </c>
-      <c r="D24" s="39" t="str">
+      <c r="D24" s="28" t="str">
         <f>IF(_acsReport_day_each!B18="","",_acsReport_day_each!B18)</f>
         <v/>
       </c>
-      <c r="E24" s="39" t="str">
+      <c r="E24" s="28" t="str">
         <f>IF(_acsReport_day_each!C18="","",_acsReport_day_each!C18)</f>
         <v/>
       </c>
-      <c r="F24" s="38" t="str">
+      <c r="F24" s="27" t="str">
         <f>IF(_acsReport_day_each!D18="","",_acsReport_day_each!D18)</f>
         <v/>
       </c>
-      <c r="G24" s="39" t="str">
+      <c r="G24" s="28" t="str">
         <f>IF(_acsReport_day_each!E18="","",_acsReport_day_each!E18)</f>
         <v/>
       </c>
-      <c r="H24" s="39" t="str">
+      <c r="H24" s="28" t="str">
         <f>IF(_acsReport_day_each!F18="","",_acsReport_day_each!F18)</f>
         <v/>
       </c>
-      <c r="I24" s="49" t="str">
+      <c r="I24" s="35" t="str">
         <f>IF(_acsReport_day_each!G18="","",_acsReport_day_each!G18)</f>
         <v/>
       </c>
-      <c r="J24" s="39" t="str">
+      <c r="J24" s="28" t="str">
         <f>IF(_acsReport_day_each!H18="","",_acsReport_day_each!H18)</f>
         <v/>
       </c>
-      <c r="K24" s="39" t="str">
+      <c r="K24" s="28" t="str">
         <f>IF(_acsReport_day_each!I18="","",_acsReport_day_each!I18)</f>
         <v/>
       </c>
-      <c r="L24" s="38" t="str">
+      <c r="L24" s="27" t="str">
         <f>IF(_acsReport_day_each!J18="","",_acsReport_day_each!J18)</f>
         <v/>
       </c>
-      <c r="M24" s="39" t="str">
+      <c r="M24" s="28" t="str">
         <f>IF(_acsReport_day_each!K18="","",_acsReport_day_each!K18)</f>
         <v/>
       </c>
-      <c r="N24" s="39" t="str">
+      <c r="N24" s="28" t="str">
         <f>IF(_acsReport_day_each!L18="","",_acsReport_day_each!L18)</f>
         <v/>
       </c>
-      <c r="O24" s="49" t="str">
+      <c r="O24" s="35" t="str">
         <f>IF(_acsReport_day_each!M18="","",_acsReport_day_each!M18)</f>
         <v/>
       </c>
-      <c r="P24" s="39" t="str">
+      <c r="P24" s="28" t="str">
         <f>IF(_acsReport_day_each!N18="","",_acsReport_day_each!N18)</f>
         <v/>
       </c>
-      <c r="Q24" s="39" t="str">
+      <c r="Q24" s="28" t="str">
         <f>IF(_acsReport_day_each!O18="","",_acsReport_day_each!O18)</f>
         <v/>
       </c>
-      <c r="R24" s="38" t="str">
+      <c r="R24" s="27" t="str">
         <f>IF(_acsReport_day_each!P18="","",_acsReport_day_each!P18)</f>
         <v/>
       </c>
-      <c r="S24" s="39" t="str">
+      <c r="S24" s="28" t="str">
         <f>IF(_acsReport_day_each!Q18="","",_acsReport_day_each!Q18)</f>
         <v/>
       </c>
-      <c r="T24" s="39" t="str">
+      <c r="T24" s="28" t="str">
         <f>IF(_acsReport_day_each!R18="","",_acsReport_day_each!R18)</f>
         <v/>
       </c>
-      <c r="U24" s="49" t="str">
+      <c r="U24" s="35" t="str">
         <f>IF(_acsReport_day_each!S18="","",_acsReport_day_each!S18)</f>
         <v/>
       </c>
-      <c r="V24" s="39" t="str">
+      <c r="V24" s="28" t="str">
         <f>IF(_acsReport_day_each!T18="","",_acsReport_day_each!T18)</f>
         <v/>
       </c>
-      <c r="W24" s="39" t="str">
+      <c r="W24" s="28" t="str">
         <f>IF(_acsReport_day_each!U18="","",_acsReport_day_each!U18)</f>
         <v/>
       </c>
-      <c r="X24" s="38" t="str">
+      <c r="X24" s="27" t="str">
         <f>IF(_acsReport_day_each!V18="","",_acsReport_day_each!V18)</f>
         <v/>
       </c>
-      <c r="Y24" s="39" t="str">
+      <c r="Y24" s="28" t="str">
         <f>IF(_acsReport_day_each!W18="","",_acsReport_day_each!W18)</f>
         <v/>
       </c>
-      <c r="Z24" s="39" t="str">
+      <c r="Z24" s="28" t="str">
         <f>IF(_acsReport_day_each!X18="","",_acsReport_day_each!X18)</f>
         <v/>
       </c>
-      <c r="AA24" s="49" t="str">
+      <c r="AA24" s="35" t="str">
         <f>IF(_acsReport_day_each!Y18="","",_acsReport_day_each!Y18)</f>
         <v/>
       </c>
-      <c r="AB24" s="39" t="str">
+      <c r="AB24" s="28" t="str">
         <f>IF(_acsReport_day_each!Z18="","",_acsReport_day_each!Z18)</f>
         <v/>
       </c>
-      <c r="AC24" s="39" t="str">
+      <c r="AC24" s="28" t="str">
         <f>IF(_acsReport_day_each!AA18="","",_acsReport_day_each!AA18)</f>
         <v/>
       </c>
-      <c r="AD24" s="38" t="str">
+      <c r="AD24" s="27" t="str">
         <f>IF(_acsReport_day_each!AB18="","",_acsReport_day_each!AB18)</f>
         <v/>
       </c>
-      <c r="AE24" s="39" t="str">
+      <c r="AE24" s="28" t="str">
         <f>IF(_acsReport_day_each!AC18="","",_acsReport_day_each!AC18)</f>
         <v/>
       </c>
-      <c r="AF24" s="39" t="str">
+      <c r="AF24" s="28" t="str">
         <f>IF(_acsReport_day_each!AD18="","",_acsReport_day_each!AD18)</f>
         <v/>
       </c>
-      <c r="AG24" s="49" t="str">
+      <c r="AG24" s="35" t="str">
         <f>IF(_acsReport_day_each!AE18="","",_acsReport_day_each!AE18)</f>
         <v/>
       </c>
-      <c r="AH24" s="39" t="str">
+      <c r="AH24" s="28" t="str">
         <f>IF(_acsReport_day_each!AF18="","",_acsReport_day_each!AF18)</f>
         <v/>
       </c>
-      <c r="AI24" s="39" t="str">
+      <c r="AI24" s="28" t="str">
         <f>IF(_acsReport_day_each!AG18="","",_acsReport_day_each!AG18)</f>
         <v/>
       </c>
-      <c r="AJ24" s="38" t="str">
+      <c r="AJ24" s="27" t="str">
         <f>IF(_acsReport_day_each!AH18="","",_acsReport_day_each!AH18)</f>
         <v/>
       </c>
-      <c r="AK24" s="39" t="str">
+      <c r="AK24" s="28" t="str">
         <f>IF(_acsReport_day_each!AI18="","",_acsReport_day_each!AI18)</f>
         <v/>
       </c>
-      <c r="AL24" s="39" t="str">
+      <c r="AL24" s="28" t="str">
         <f>IF(_acsReport_day_each!AJ18="","",_acsReport_day_each!AJ18)</f>
         <v/>
       </c>
-      <c r="AM24" s="49" t="str">
+      <c r="AM24" s="35" t="str">
         <f>IF(_acsReport_day_each!AK18="","",_acsReport_day_each!AK18)</f>
         <v/>
       </c>
-      <c r="AN24" s="39" t="str">
+      <c r="AN24" s="28" t="str">
         <f>IF(_acsReport_day_each!AL18="","",_acsReport_day_each!AL18)</f>
         <v/>
       </c>
-      <c r="AO24" s="39" t="str">
+      <c r="AO24" s="28" t="str">
         <f>IF(_acsReport_day_each!AM18="","",_acsReport_day_each!AM18)</f>
         <v/>
       </c>
-      <c r="AP24" s="38" t="str">
+      <c r="AP24" s="27" t="str">
         <f>IF(_acsReport_day_each!AN18="","",_acsReport_day_each!AN18)</f>
         <v/>
       </c>
-      <c r="AQ24" s="39" t="str">
+      <c r="AQ24" s="28" t="str">
         <f>IF(_acsReport_day_each!AO18="","",_acsReport_day_each!AO18)</f>
         <v/>
       </c>
-      <c r="AR24" s="39" t="str">
+      <c r="AR24" s="28" t="str">
         <f>IF(_acsReport_day_each!AP18="","",_acsReport_day_each!AP18)</f>
         <v/>
       </c>
-      <c r="AS24" s="49" t="str">
+      <c r="AS24" s="35" t="str">
         <f>IF(_acsReport_day_each!AQ18="","",_acsReport_day_each!AQ18)</f>
         <v/>
       </c>
-      <c r="AT24" s="39" t="str">
+      <c r="AT24" s="28" t="str">
         <f>IF(_acsReport_day_each!AR18="","",_acsReport_day_each!AR18)</f>
         <v/>
       </c>
-      <c r="AU24" s="39" t="str">
+      <c r="AU24" s="28" t="str">
         <f>IF(_acsReport_day_each!AS18="","",_acsReport_day_each!AS18)</f>
         <v/>
       </c>
-      <c r="AV24" s="38" t="str">
+      <c r="AV24" s="27" t="str">
         <f>IF(_acsReport_day_each!AT18="","",_acsReport_day_each!AT18)</f>
         <v/>
       </c>
-      <c r="AW24" s="39" t="str">
+      <c r="AW24" s="28" t="str">
         <f>IF(_acsReport_day_each!AU18="","",_acsReport_day_each!AU18)</f>
         <v/>
       </c>
-      <c r="AX24" s="39" t="str">
+      <c r="AX24" s="28" t="str">
         <f>IF(_acsReport_day_each!AV18="","",_acsReport_day_each!AV18)</f>
         <v/>
       </c>
-      <c r="AY24" s="49" t="str">
+      <c r="AY24" s="35" t="str">
         <f>IF(_acsReport_day_each!AW18="","",_acsReport_day_each!AW18)</f>
         <v/>
       </c>
-      <c r="AZ24" s="39" t="str">
+      <c r="AZ24" s="28" t="str">
         <f>IF(_acsReport_day_each!AX18="","",_acsReport_day_each!AX18)</f>
         <v/>
       </c>
-      <c r="BA24" s="39" t="str">
+      <c r="BA24" s="28" t="str">
         <f>IF(_acsReport_day_each!AY18="","",_acsReport_day_each!AY18)</f>
         <v/>
       </c>
-      <c r="BB24" s="49" t="str">
+      <c r="BB24" s="35" t="str">
         <f>IF(_acsReport_day_each!AZ18="","",_acsReport_day_each!AZ18)</f>
         <v/>
       </c>
-      <c r="BC24" s="39" t="str">
+      <c r="BC24" s="28" t="str">
         <f>IF(_acsReport_day_each!BA18="","",_acsReport_day_each!BA18)</f>
         <v/>
       </c>
-      <c r="BD24" s="39" t="str">
+      <c r="BD24" s="28" t="str">
         <f>IF(_acsReport_day_each!BB18="","",_acsReport_day_each!BB18)</f>
         <v/>
       </c>
-      <c r="BE24" s="64">
+      <c r="BE24" s="41">
         <f>_acsReport_day_each!BD18:BF18</f>
         <v>0</v>
       </c>
@@ -7231,227 +6616,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="2:64">
-      <c r="B25" s="30">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C25" s="33" t="str">
+    <row r="25" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B25" s="19">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C25" s="22" t="str">
         <f>IF(_acsReport_day_each!A19="","",_acsReport_day_each!A19)</f>
         <v/>
       </c>
-      <c r="D25" s="32" t="str">
+      <c r="D25" s="21" t="str">
         <f>IF(_acsReport_day_each!B19="","",_acsReport_day_each!B19)</f>
         <v/>
       </c>
-      <c r="E25" s="32" t="str">
+      <c r="E25" s="21" t="str">
         <f>IF(_acsReport_day_each!C19="","",_acsReport_day_each!C19)</f>
         <v/>
       </c>
-      <c r="F25" s="33" t="str">
+      <c r="F25" s="22" t="str">
         <f>IF(_acsReport_day_each!D19="","",_acsReport_day_each!D19)</f>
         <v/>
       </c>
-      <c r="G25" s="32" t="str">
+      <c r="G25" s="21" t="str">
         <f>IF(_acsReport_day_each!E19="","",_acsReport_day_each!E19)</f>
         <v/>
       </c>
-      <c r="H25" s="32" t="str">
+      <c r="H25" s="21" t="str">
         <f>IF(_acsReport_day_each!F19="","",_acsReport_day_each!F19)</f>
         <v/>
       </c>
-      <c r="I25" s="48" t="str">
+      <c r="I25" s="34" t="str">
         <f>IF(_acsReport_day_each!G19="","",_acsReport_day_each!G19)</f>
         <v/>
       </c>
-      <c r="J25" s="32" t="str">
+      <c r="J25" s="21" t="str">
         <f>IF(_acsReport_day_each!H19="","",_acsReport_day_each!H19)</f>
         <v/>
       </c>
-      <c r="K25" s="32" t="str">
+      <c r="K25" s="21" t="str">
         <f>IF(_acsReport_day_each!I19="","",_acsReport_day_each!I19)</f>
         <v/>
       </c>
-      <c r="L25" s="33" t="str">
+      <c r="L25" s="22" t="str">
         <f>IF(_acsReport_day_each!J19="","",_acsReport_day_each!J19)</f>
         <v/>
       </c>
-      <c r="M25" s="32" t="str">
+      <c r="M25" s="21" t="str">
         <f>IF(_acsReport_day_each!K19="","",_acsReport_day_each!K19)</f>
         <v/>
       </c>
-      <c r="N25" s="32" t="str">
+      <c r="N25" s="21" t="str">
         <f>IF(_acsReport_day_each!L19="","",_acsReport_day_each!L19)</f>
         <v/>
       </c>
-      <c r="O25" s="48" t="str">
+      <c r="O25" s="34" t="str">
         <f>IF(_acsReport_day_each!M19="","",_acsReport_day_each!M19)</f>
         <v/>
       </c>
-      <c r="P25" s="32" t="str">
+      <c r="P25" s="21" t="str">
         <f>IF(_acsReport_day_each!N19="","",_acsReport_day_each!N19)</f>
         <v/>
       </c>
-      <c r="Q25" s="32" t="str">
+      <c r="Q25" s="21" t="str">
         <f>IF(_acsReport_day_each!O19="","",_acsReport_day_each!O19)</f>
         <v/>
       </c>
-      <c r="R25" s="33" t="str">
+      <c r="R25" s="22" t="str">
         <f>IF(_acsReport_day_each!P19="","",_acsReport_day_each!P19)</f>
         <v/>
       </c>
-      <c r="S25" s="32" t="str">
+      <c r="S25" s="21" t="str">
         <f>IF(_acsReport_day_each!Q19="","",_acsReport_day_each!Q19)</f>
         <v/>
       </c>
-      <c r="T25" s="32" t="str">
+      <c r="T25" s="21" t="str">
         <f>IF(_acsReport_day_each!R19="","",_acsReport_day_each!R19)</f>
         <v/>
       </c>
-      <c r="U25" s="48" t="str">
+      <c r="U25" s="34" t="str">
         <f>IF(_acsReport_day_each!S19="","",_acsReport_day_each!S19)</f>
         <v/>
       </c>
-      <c r="V25" s="32" t="str">
+      <c r="V25" s="21" t="str">
         <f>IF(_acsReport_day_each!T19="","",_acsReport_day_each!T19)</f>
         <v/>
       </c>
-      <c r="W25" s="32" t="str">
+      <c r="W25" s="21" t="str">
         <f>IF(_acsReport_day_each!U19="","",_acsReport_day_each!U19)</f>
         <v/>
       </c>
-      <c r="X25" s="33" t="str">
+      <c r="X25" s="22" t="str">
         <f>IF(_acsReport_day_each!V19="","",_acsReport_day_each!V19)</f>
         <v/>
       </c>
-      <c r="Y25" s="32" t="str">
+      <c r="Y25" s="21" t="str">
         <f>IF(_acsReport_day_each!W19="","",_acsReport_day_each!W19)</f>
         <v/>
       </c>
-      <c r="Z25" s="32" t="str">
+      <c r="Z25" s="21" t="str">
         <f>IF(_acsReport_day_each!X19="","",_acsReport_day_each!X19)</f>
         <v/>
       </c>
-      <c r="AA25" s="48" t="str">
+      <c r="AA25" s="34" t="str">
         <f>IF(_acsReport_day_each!Y19="","",_acsReport_day_each!Y19)</f>
         <v/>
       </c>
-      <c r="AB25" s="32" t="str">
+      <c r="AB25" s="21" t="str">
         <f>IF(_acsReport_day_each!Z19="","",_acsReport_day_each!Z19)</f>
         <v/>
       </c>
-      <c r="AC25" s="32" t="str">
+      <c r="AC25" s="21" t="str">
         <f>IF(_acsReport_day_each!AA19="","",_acsReport_day_each!AA19)</f>
         <v/>
       </c>
-      <c r="AD25" s="33" t="str">
+      <c r="AD25" s="22" t="str">
         <f>IF(_acsReport_day_each!AB19="","",_acsReport_day_each!AB19)</f>
         <v/>
       </c>
-      <c r="AE25" s="32" t="str">
+      <c r="AE25" s="21" t="str">
         <f>IF(_acsReport_day_each!AC19="","",_acsReport_day_each!AC19)</f>
         <v/>
       </c>
-      <c r="AF25" s="32" t="str">
+      <c r="AF25" s="21" t="str">
         <f>IF(_acsReport_day_each!AD19="","",_acsReport_day_each!AD19)</f>
         <v/>
       </c>
-      <c r="AG25" s="48" t="str">
+      <c r="AG25" s="34" t="str">
         <f>IF(_acsReport_day_each!AE19="","",_acsReport_day_each!AE19)</f>
         <v/>
       </c>
-      <c r="AH25" s="32" t="str">
+      <c r="AH25" s="21" t="str">
         <f>IF(_acsReport_day_each!AF19="","",_acsReport_day_each!AF19)</f>
         <v/>
       </c>
-      <c r="AI25" s="32" t="str">
+      <c r="AI25" s="21" t="str">
         <f>IF(_acsReport_day_each!AG19="","",_acsReport_day_each!AG19)</f>
         <v/>
       </c>
-      <c r="AJ25" s="33" t="str">
+      <c r="AJ25" s="22" t="str">
         <f>IF(_acsReport_day_each!AH19="","",_acsReport_day_each!AH19)</f>
         <v/>
       </c>
-      <c r="AK25" s="32" t="str">
+      <c r="AK25" s="21" t="str">
         <f>IF(_acsReport_day_each!AI19="","",_acsReport_day_each!AI19)</f>
         <v/>
       </c>
-      <c r="AL25" s="32" t="str">
+      <c r="AL25" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ19="","",_acsReport_day_each!AJ19)</f>
         <v/>
       </c>
-      <c r="AM25" s="48" t="str">
+      <c r="AM25" s="34" t="str">
         <f>IF(_acsReport_day_each!AK19="","",_acsReport_day_each!AK19)</f>
         <v/>
       </c>
-      <c r="AN25" s="32" t="str">
+      <c r="AN25" s="21" t="str">
         <f>IF(_acsReport_day_each!AL19="","",_acsReport_day_each!AL19)</f>
         <v/>
       </c>
-      <c r="AO25" s="32" t="str">
+      <c r="AO25" s="21" t="str">
         <f>IF(_acsReport_day_each!AM19="","",_acsReport_day_each!AM19)</f>
         <v/>
       </c>
-      <c r="AP25" s="33" t="str">
+      <c r="AP25" s="22" t="str">
         <f>IF(_acsReport_day_each!AN19="","",_acsReport_day_each!AN19)</f>
         <v/>
       </c>
-      <c r="AQ25" s="32" t="str">
+      <c r="AQ25" s="21" t="str">
         <f>IF(_acsReport_day_each!AO19="","",_acsReport_day_each!AO19)</f>
         <v/>
       </c>
-      <c r="AR25" s="32" t="str">
+      <c r="AR25" s="21" t="str">
         <f>IF(_acsReport_day_each!AP19="","",_acsReport_day_each!AP19)</f>
         <v/>
       </c>
-      <c r="AS25" s="48" t="str">
+      <c r="AS25" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ19="","",_acsReport_day_each!AQ19)</f>
         <v/>
       </c>
-      <c r="AT25" s="32" t="str">
+      <c r="AT25" s="21" t="str">
         <f>IF(_acsReport_day_each!AR19="","",_acsReport_day_each!AR19)</f>
         <v/>
       </c>
-      <c r="AU25" s="32" t="str">
+      <c r="AU25" s="21" t="str">
         <f>IF(_acsReport_day_each!AS19="","",_acsReport_day_each!AS19)</f>
         <v/>
       </c>
-      <c r="AV25" s="33" t="str">
+      <c r="AV25" s="22" t="str">
         <f>IF(_acsReport_day_each!AT19="","",_acsReport_day_each!AT19)</f>
         <v/>
       </c>
-      <c r="AW25" s="32" t="str">
+      <c r="AW25" s="21" t="str">
         <f>IF(_acsReport_day_each!AU19="","",_acsReport_day_each!AU19)</f>
         <v/>
       </c>
-      <c r="AX25" s="32" t="str">
+      <c r="AX25" s="21" t="str">
         <f>IF(_acsReport_day_each!AV19="","",_acsReport_day_each!AV19)</f>
         <v/>
       </c>
-      <c r="AY25" s="48" t="str">
+      <c r="AY25" s="34" t="str">
         <f>IF(_acsReport_day_each!AW19="","",_acsReport_day_each!AW19)</f>
         <v/>
       </c>
-      <c r="AZ25" s="32" t="str">
+      <c r="AZ25" s="21" t="str">
         <f>IF(_acsReport_day_each!AX19="","",_acsReport_day_each!AX19)</f>
         <v/>
       </c>
-      <c r="BA25" s="32" t="str">
+      <c r="BA25" s="21" t="str">
         <f>IF(_acsReport_day_each!AY19="","",_acsReport_day_each!AY19)</f>
         <v/>
       </c>
-      <c r="BB25" s="48" t="str">
+      <c r="BB25" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ19="","",_acsReport_day_each!AZ19)</f>
         <v/>
       </c>
-      <c r="BC25" s="32" t="str">
+      <c r="BC25" s="21" t="str">
         <f>IF(_acsReport_day_each!BA19="","",_acsReport_day_each!BA19)</f>
         <v/>
       </c>
-      <c r="BD25" s="32" t="str">
+      <c r="BD25" s="21" t="str">
         <f>IF(_acsReport_day_each!BB19="","",_acsReport_day_each!BB19)</f>
         <v/>
       </c>
-      <c r="BE25" s="64">
+      <c r="BE25" s="41">
         <f>_acsReport_day_each!BD19:BF19</f>
         <v>0</v>
       </c>
@@ -7472,227 +6857,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="2:64">
-      <c r="B26" s="30">
+    <row r="26" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B26" s="19">
         <v>0.75</v>
       </c>
-      <c r="C26" s="33" t="str">
+      <c r="C26" s="22" t="str">
         <f>IF(_acsReport_day_each!A20="","",_acsReport_day_each!A20)</f>
         <v/>
       </c>
-      <c r="D26" s="32" t="str">
+      <c r="D26" s="21" t="str">
         <f>IF(_acsReport_day_each!B20="","",_acsReport_day_each!B20)</f>
         <v/>
       </c>
-      <c r="E26" s="32" t="str">
+      <c r="E26" s="21" t="str">
         <f>IF(_acsReport_day_each!C20="","",_acsReport_day_each!C20)</f>
         <v/>
       </c>
-      <c r="F26" s="33" t="str">
+      <c r="F26" s="22" t="str">
         <f>IF(_acsReport_day_each!D20="","",_acsReport_day_each!D20)</f>
         <v/>
       </c>
-      <c r="G26" s="32" t="str">
+      <c r="G26" s="21" t="str">
         <f>IF(_acsReport_day_each!E20="","",_acsReport_day_each!E20)</f>
         <v/>
       </c>
-      <c r="H26" s="32" t="str">
+      <c r="H26" s="21" t="str">
         <f>IF(_acsReport_day_each!F20="","",_acsReport_day_each!F20)</f>
         <v/>
       </c>
-      <c r="I26" s="48" t="str">
+      <c r="I26" s="34" t="str">
         <f>IF(_acsReport_day_each!G20="","",_acsReport_day_each!G20)</f>
         <v/>
       </c>
-      <c r="J26" s="32" t="str">
+      <c r="J26" s="21" t="str">
         <f>IF(_acsReport_day_each!H20="","",_acsReport_day_each!H20)</f>
         <v/>
       </c>
-      <c r="K26" s="32" t="str">
+      <c r="K26" s="21" t="str">
         <f>IF(_acsReport_day_each!I20="","",_acsReport_day_each!I20)</f>
         <v/>
       </c>
-      <c r="L26" s="33" t="str">
+      <c r="L26" s="22" t="str">
         <f>IF(_acsReport_day_each!J20="","",_acsReport_day_each!J20)</f>
         <v/>
       </c>
-      <c r="M26" s="32" t="str">
+      <c r="M26" s="21" t="str">
         <f>IF(_acsReport_day_each!K20="","",_acsReport_day_each!K20)</f>
         <v/>
       </c>
-      <c r="N26" s="32" t="str">
+      <c r="N26" s="21" t="str">
         <f>IF(_acsReport_day_each!L20="","",_acsReport_day_each!L20)</f>
         <v/>
       </c>
-      <c r="O26" s="48" t="str">
+      <c r="O26" s="34" t="str">
         <f>IF(_acsReport_day_each!M20="","",_acsReport_day_each!M20)</f>
         <v/>
       </c>
-      <c r="P26" s="32" t="str">
+      <c r="P26" s="21" t="str">
         <f>IF(_acsReport_day_each!N20="","",_acsReport_day_each!N20)</f>
         <v/>
       </c>
-      <c r="Q26" s="32" t="str">
+      <c r="Q26" s="21" t="str">
         <f>IF(_acsReport_day_each!O20="","",_acsReport_day_each!O20)</f>
         <v/>
       </c>
-      <c r="R26" s="33" t="str">
+      <c r="R26" s="22" t="str">
         <f>IF(_acsReport_day_each!P20="","",_acsReport_day_each!P20)</f>
         <v/>
       </c>
-      <c r="S26" s="32" t="str">
+      <c r="S26" s="21" t="str">
         <f>IF(_acsReport_day_each!Q20="","",_acsReport_day_each!Q20)</f>
         <v/>
       </c>
-      <c r="T26" s="32" t="str">
+      <c r="T26" s="21" t="str">
         <f>IF(_acsReport_day_each!R20="","",_acsReport_day_each!R20)</f>
         <v/>
       </c>
-      <c r="U26" s="48" t="str">
+      <c r="U26" s="34" t="str">
         <f>IF(_acsReport_day_each!S20="","",_acsReport_day_each!S20)</f>
         <v/>
       </c>
-      <c r="V26" s="32" t="str">
+      <c r="V26" s="21" t="str">
         <f>IF(_acsReport_day_each!T20="","",_acsReport_day_each!T20)</f>
         <v/>
       </c>
-      <c r="W26" s="32" t="str">
+      <c r="W26" s="21" t="str">
         <f>IF(_acsReport_day_each!U20="","",_acsReport_day_each!U20)</f>
         <v/>
       </c>
-      <c r="X26" s="33" t="str">
+      <c r="X26" s="22" t="str">
         <f>IF(_acsReport_day_each!V20="","",_acsReport_day_each!V20)</f>
         <v/>
       </c>
-      <c r="Y26" s="32" t="str">
+      <c r="Y26" s="21" t="str">
         <f>IF(_acsReport_day_each!W20="","",_acsReport_day_each!W20)</f>
         <v/>
       </c>
-      <c r="Z26" s="32" t="str">
+      <c r="Z26" s="21" t="str">
         <f>IF(_acsReport_day_each!X20="","",_acsReport_day_each!X20)</f>
         <v/>
       </c>
-      <c r="AA26" s="48" t="str">
+      <c r="AA26" s="34" t="str">
         <f>IF(_acsReport_day_each!Y20="","",_acsReport_day_each!Y20)</f>
         <v/>
       </c>
-      <c r="AB26" s="32" t="str">
+      <c r="AB26" s="21" t="str">
         <f>IF(_acsReport_day_each!Z20="","",_acsReport_day_each!Z20)</f>
         <v/>
       </c>
-      <c r="AC26" s="32" t="str">
+      <c r="AC26" s="21" t="str">
         <f>IF(_acsReport_day_each!AA20="","",_acsReport_day_each!AA20)</f>
         <v/>
       </c>
-      <c r="AD26" s="33" t="str">
+      <c r="AD26" s="22" t="str">
         <f>IF(_acsReport_day_each!AB20="","",_acsReport_day_each!AB20)</f>
         <v/>
       </c>
-      <c r="AE26" s="32" t="str">
+      <c r="AE26" s="21" t="str">
         <f>IF(_acsReport_day_each!AC20="","",_acsReport_day_each!AC20)</f>
         <v/>
       </c>
-      <c r="AF26" s="32" t="str">
+      <c r="AF26" s="21" t="str">
         <f>IF(_acsReport_day_each!AD20="","",_acsReport_day_each!AD20)</f>
         <v/>
       </c>
-      <c r="AG26" s="48" t="str">
+      <c r="AG26" s="34" t="str">
         <f>IF(_acsReport_day_each!AE20="","",_acsReport_day_each!AE20)</f>
         <v/>
       </c>
-      <c r="AH26" s="32" t="str">
+      <c r="AH26" s="21" t="str">
         <f>IF(_acsReport_day_each!AF20="","",_acsReport_day_each!AF20)</f>
         <v/>
       </c>
-      <c r="AI26" s="32" t="str">
+      <c r="AI26" s="21" t="str">
         <f>IF(_acsReport_day_each!AG20="","",_acsReport_day_each!AG20)</f>
         <v/>
       </c>
-      <c r="AJ26" s="33" t="str">
+      <c r="AJ26" s="22" t="str">
         <f>IF(_acsReport_day_each!AH20="","",_acsReport_day_each!AH20)</f>
         <v/>
       </c>
-      <c r="AK26" s="32" t="str">
+      <c r="AK26" s="21" t="str">
         <f>IF(_acsReport_day_each!AI20="","",_acsReport_day_each!AI20)</f>
         <v/>
       </c>
-      <c r="AL26" s="32" t="str">
+      <c r="AL26" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ20="","",_acsReport_day_each!AJ20)</f>
         <v/>
       </c>
-      <c r="AM26" s="48" t="str">
+      <c r="AM26" s="34" t="str">
         <f>IF(_acsReport_day_each!AK20="","",_acsReport_day_each!AK20)</f>
         <v/>
       </c>
-      <c r="AN26" s="32" t="str">
+      <c r="AN26" s="21" t="str">
         <f>IF(_acsReport_day_each!AL20="","",_acsReport_day_each!AL20)</f>
         <v/>
       </c>
-      <c r="AO26" s="32" t="str">
+      <c r="AO26" s="21" t="str">
         <f>IF(_acsReport_day_each!AM20="","",_acsReport_day_each!AM20)</f>
         <v/>
       </c>
-      <c r="AP26" s="33" t="str">
+      <c r="AP26" s="22" t="str">
         <f>IF(_acsReport_day_each!AN20="","",_acsReport_day_each!AN20)</f>
         <v/>
       </c>
-      <c r="AQ26" s="32" t="str">
+      <c r="AQ26" s="21" t="str">
         <f>IF(_acsReport_day_each!AO20="","",_acsReport_day_each!AO20)</f>
         <v/>
       </c>
-      <c r="AR26" s="32" t="str">
+      <c r="AR26" s="21" t="str">
         <f>IF(_acsReport_day_each!AP20="","",_acsReport_day_each!AP20)</f>
         <v/>
       </c>
-      <c r="AS26" s="48" t="str">
+      <c r="AS26" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ20="","",_acsReport_day_each!AQ20)</f>
         <v/>
       </c>
-      <c r="AT26" s="32" t="str">
+      <c r="AT26" s="21" t="str">
         <f>IF(_acsReport_day_each!AR20="","",_acsReport_day_each!AR20)</f>
         <v/>
       </c>
-      <c r="AU26" s="32" t="str">
+      <c r="AU26" s="21" t="str">
         <f>IF(_acsReport_day_each!AS20="","",_acsReport_day_each!AS20)</f>
         <v/>
       </c>
-      <c r="AV26" s="33" t="str">
+      <c r="AV26" s="22" t="str">
         <f>IF(_acsReport_day_each!AT20="","",_acsReport_day_each!AT20)</f>
         <v/>
       </c>
-      <c r="AW26" s="32" t="str">
+      <c r="AW26" s="21" t="str">
         <f>IF(_acsReport_day_each!AU20="","",_acsReport_day_each!AU20)</f>
         <v/>
       </c>
-      <c r="AX26" s="32" t="str">
+      <c r="AX26" s="21" t="str">
         <f>IF(_acsReport_day_each!AV20="","",_acsReport_day_each!AV20)</f>
         <v/>
       </c>
-      <c r="AY26" s="48" t="str">
+      <c r="AY26" s="34" t="str">
         <f>IF(_acsReport_day_each!AW20="","",_acsReport_day_each!AW20)</f>
         <v/>
       </c>
-      <c r="AZ26" s="32" t="str">
+      <c r="AZ26" s="21" t="str">
         <f>IF(_acsReport_day_each!AX20="","",_acsReport_day_each!AX20)</f>
         <v/>
       </c>
-      <c r="BA26" s="32" t="str">
+      <c r="BA26" s="21" t="str">
         <f>IF(_acsReport_day_each!AY20="","",_acsReport_day_each!AY20)</f>
         <v/>
       </c>
-      <c r="BB26" s="48" t="str">
+      <c r="BB26" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ20="","",_acsReport_day_each!AZ20)</f>
         <v/>
       </c>
-      <c r="BC26" s="32" t="str">
+      <c r="BC26" s="21" t="str">
         <f>IF(_acsReport_day_each!BA20="","",_acsReport_day_each!BA20)</f>
         <v/>
       </c>
-      <c r="BD26" s="32" t="str">
+      <c r="BD26" s="21" t="str">
         <f>IF(_acsReport_day_each!BB20="","",_acsReport_day_each!BB20)</f>
         <v/>
       </c>
-      <c r="BE26" s="64">
+      <c r="BE26" s="41">
         <f>_acsReport_day_each!BD20:BF20</f>
         <v>0</v>
       </c>
@@ -7713,227 +7098,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="2:64">
-      <c r="B27" s="30">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C27" s="33" t="str">
+    <row r="27" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B27" s="19">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C27" s="22" t="str">
         <f>IF(_acsReport_day_each!A21="","",_acsReport_day_each!A21)</f>
         <v/>
       </c>
-      <c r="D27" s="32" t="str">
+      <c r="D27" s="21" t="str">
         <f>IF(_acsReport_day_each!B21="","",_acsReport_day_each!B21)</f>
         <v/>
       </c>
-      <c r="E27" s="32" t="str">
+      <c r="E27" s="21" t="str">
         <f>IF(_acsReport_day_each!C21="","",_acsReport_day_each!C21)</f>
         <v/>
       </c>
-      <c r="F27" s="33" t="str">
+      <c r="F27" s="22" t="str">
         <f>IF(_acsReport_day_each!D21="","",_acsReport_day_each!D21)</f>
         <v/>
       </c>
-      <c r="G27" s="32" t="str">
+      <c r="G27" s="21" t="str">
         <f>IF(_acsReport_day_each!E21="","",_acsReport_day_each!E21)</f>
         <v/>
       </c>
-      <c r="H27" s="32" t="str">
+      <c r="H27" s="21" t="str">
         <f>IF(_acsReport_day_each!F21="","",_acsReport_day_each!F21)</f>
         <v/>
       </c>
-      <c r="I27" s="48" t="str">
+      <c r="I27" s="34" t="str">
         <f>IF(_acsReport_day_each!G21="","",_acsReport_day_each!G21)</f>
         <v/>
       </c>
-      <c r="J27" s="32" t="str">
+      <c r="J27" s="21" t="str">
         <f>IF(_acsReport_day_each!H21="","",_acsReport_day_each!H21)</f>
         <v/>
       </c>
-      <c r="K27" s="32" t="str">
+      <c r="K27" s="21" t="str">
         <f>IF(_acsReport_day_each!I21="","",_acsReport_day_each!I21)</f>
         <v/>
       </c>
-      <c r="L27" s="33" t="str">
+      <c r="L27" s="22" t="str">
         <f>IF(_acsReport_day_each!J21="","",_acsReport_day_each!J21)</f>
         <v/>
       </c>
-      <c r="M27" s="32" t="str">
+      <c r="M27" s="21" t="str">
         <f>IF(_acsReport_day_each!K21="","",_acsReport_day_each!K21)</f>
         <v/>
       </c>
-      <c r="N27" s="32" t="str">
+      <c r="N27" s="21" t="str">
         <f>IF(_acsReport_day_each!L21="","",_acsReport_day_each!L21)</f>
         <v/>
       </c>
-      <c r="O27" s="48" t="str">
+      <c r="O27" s="34" t="str">
         <f>IF(_acsReport_day_each!M21="","",_acsReport_day_each!M21)</f>
         <v/>
       </c>
-      <c r="P27" s="32" t="str">
+      <c r="P27" s="21" t="str">
         <f>IF(_acsReport_day_each!N21="","",_acsReport_day_each!N21)</f>
         <v/>
       </c>
-      <c r="Q27" s="32" t="str">
+      <c r="Q27" s="21" t="str">
         <f>IF(_acsReport_day_each!O21="","",_acsReport_day_each!O21)</f>
         <v/>
       </c>
-      <c r="R27" s="33" t="str">
+      <c r="R27" s="22" t="str">
         <f>IF(_acsReport_day_each!P21="","",_acsReport_day_each!P21)</f>
         <v/>
       </c>
-      <c r="S27" s="32" t="str">
+      <c r="S27" s="21" t="str">
         <f>IF(_acsReport_day_each!Q21="","",_acsReport_day_each!Q21)</f>
         <v/>
       </c>
-      <c r="T27" s="32" t="str">
+      <c r="T27" s="21" t="str">
         <f>IF(_acsReport_day_each!R21="","",_acsReport_day_each!R21)</f>
         <v/>
       </c>
-      <c r="U27" s="48" t="str">
+      <c r="U27" s="34" t="str">
         <f>IF(_acsReport_day_each!S21="","",_acsReport_day_each!S21)</f>
         <v/>
       </c>
-      <c r="V27" s="32" t="str">
+      <c r="V27" s="21" t="str">
         <f>IF(_acsReport_day_each!T21="","",_acsReport_day_each!T21)</f>
         <v/>
       </c>
-      <c r="W27" s="32" t="str">
+      <c r="W27" s="21" t="str">
         <f>IF(_acsReport_day_each!U21="","",_acsReport_day_each!U21)</f>
         <v/>
       </c>
-      <c r="X27" s="33" t="str">
+      <c r="X27" s="22" t="str">
         <f>IF(_acsReport_day_each!V21="","",_acsReport_day_each!V21)</f>
         <v/>
       </c>
-      <c r="Y27" s="32" t="str">
+      <c r="Y27" s="21" t="str">
         <f>IF(_acsReport_day_each!W21="","",_acsReport_day_each!W21)</f>
         <v/>
       </c>
-      <c r="Z27" s="32" t="str">
+      <c r="Z27" s="21" t="str">
         <f>IF(_acsReport_day_each!X21="","",_acsReport_day_each!X21)</f>
         <v/>
       </c>
-      <c r="AA27" s="48" t="str">
+      <c r="AA27" s="34" t="str">
         <f>IF(_acsReport_day_each!Y21="","",_acsReport_day_each!Y21)</f>
         <v/>
       </c>
-      <c r="AB27" s="32" t="str">
+      <c r="AB27" s="21" t="str">
         <f>IF(_acsReport_day_each!Z21="","",_acsReport_day_each!Z21)</f>
         <v/>
       </c>
-      <c r="AC27" s="32" t="str">
+      <c r="AC27" s="21" t="str">
         <f>IF(_acsReport_day_each!AA21="","",_acsReport_day_each!AA21)</f>
         <v/>
       </c>
-      <c r="AD27" s="33" t="str">
+      <c r="AD27" s="22" t="str">
         <f>IF(_acsReport_day_each!AB21="","",_acsReport_day_each!AB21)</f>
         <v/>
       </c>
-      <c r="AE27" s="32" t="str">
+      <c r="AE27" s="21" t="str">
         <f>IF(_acsReport_day_each!AC21="","",_acsReport_day_each!AC21)</f>
         <v/>
       </c>
-      <c r="AF27" s="32" t="str">
+      <c r="AF27" s="21" t="str">
         <f>IF(_acsReport_day_each!AD21="","",_acsReport_day_each!AD21)</f>
         <v/>
       </c>
-      <c r="AG27" s="48" t="str">
+      <c r="AG27" s="34" t="str">
         <f>IF(_acsReport_day_each!AE21="","",_acsReport_day_each!AE21)</f>
         <v/>
       </c>
-      <c r="AH27" s="32" t="str">
+      <c r="AH27" s="21" t="str">
         <f>IF(_acsReport_day_each!AF21="","",_acsReport_day_each!AF21)</f>
         <v/>
       </c>
-      <c r="AI27" s="32" t="str">
+      <c r="AI27" s="21" t="str">
         <f>IF(_acsReport_day_each!AG21="","",_acsReport_day_each!AG21)</f>
         <v/>
       </c>
-      <c r="AJ27" s="33" t="str">
+      <c r="AJ27" s="22" t="str">
         <f>IF(_acsReport_day_each!AH21="","",_acsReport_day_each!AH21)</f>
         <v/>
       </c>
-      <c r="AK27" s="32" t="str">
+      <c r="AK27" s="21" t="str">
         <f>IF(_acsReport_day_each!AI21="","",_acsReport_day_each!AI21)</f>
         <v/>
       </c>
-      <c r="AL27" s="32" t="str">
+      <c r="AL27" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ21="","",_acsReport_day_each!AJ21)</f>
         <v/>
       </c>
-      <c r="AM27" s="48" t="str">
+      <c r="AM27" s="34" t="str">
         <f>IF(_acsReport_day_each!AK21="","",_acsReport_day_each!AK21)</f>
         <v/>
       </c>
-      <c r="AN27" s="32" t="str">
+      <c r="AN27" s="21" t="str">
         <f>IF(_acsReport_day_each!AL21="","",_acsReport_day_each!AL21)</f>
         <v/>
       </c>
-      <c r="AO27" s="32" t="str">
+      <c r="AO27" s="21" t="str">
         <f>IF(_acsReport_day_each!AM21="","",_acsReport_day_each!AM21)</f>
         <v/>
       </c>
-      <c r="AP27" s="33" t="str">
+      <c r="AP27" s="22" t="str">
         <f>IF(_acsReport_day_each!AN21="","",_acsReport_day_each!AN21)</f>
         <v/>
       </c>
-      <c r="AQ27" s="32" t="str">
+      <c r="AQ27" s="21" t="str">
         <f>IF(_acsReport_day_each!AO21="","",_acsReport_day_each!AO21)</f>
         <v/>
       </c>
-      <c r="AR27" s="32" t="str">
+      <c r="AR27" s="21" t="str">
         <f>IF(_acsReport_day_each!AP21="","",_acsReport_day_each!AP21)</f>
         <v/>
       </c>
-      <c r="AS27" s="48" t="str">
+      <c r="AS27" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ21="","",_acsReport_day_each!AQ21)</f>
         <v/>
       </c>
-      <c r="AT27" s="32" t="str">
+      <c r="AT27" s="21" t="str">
         <f>IF(_acsReport_day_each!AR21="","",_acsReport_day_each!AR21)</f>
         <v/>
       </c>
-      <c r="AU27" s="32" t="str">
+      <c r="AU27" s="21" t="str">
         <f>IF(_acsReport_day_each!AS21="","",_acsReport_day_each!AS21)</f>
         <v/>
       </c>
-      <c r="AV27" s="33" t="str">
+      <c r="AV27" s="22" t="str">
         <f>IF(_acsReport_day_each!AT21="","",_acsReport_day_each!AT21)</f>
         <v/>
       </c>
-      <c r="AW27" s="32" t="str">
+      <c r="AW27" s="21" t="str">
         <f>IF(_acsReport_day_each!AU21="","",_acsReport_day_each!AU21)</f>
         <v/>
       </c>
-      <c r="AX27" s="32" t="str">
+      <c r="AX27" s="21" t="str">
         <f>IF(_acsReport_day_each!AV21="","",_acsReport_day_each!AV21)</f>
         <v/>
       </c>
-      <c r="AY27" s="48" t="str">
+      <c r="AY27" s="34" t="str">
         <f>IF(_acsReport_day_each!AW21="","",_acsReport_day_each!AW21)</f>
         <v/>
       </c>
-      <c r="AZ27" s="32" t="str">
+      <c r="AZ27" s="21" t="str">
         <f>IF(_acsReport_day_each!AX21="","",_acsReport_day_each!AX21)</f>
         <v/>
       </c>
-      <c r="BA27" s="32" t="str">
+      <c r="BA27" s="21" t="str">
         <f>IF(_acsReport_day_each!AY21="","",_acsReport_day_each!AY21)</f>
         <v/>
       </c>
-      <c r="BB27" s="48" t="str">
+      <c r="BB27" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ21="","",_acsReport_day_each!AZ21)</f>
         <v/>
       </c>
-      <c r="BC27" s="32" t="str">
+      <c r="BC27" s="21" t="str">
         <f>IF(_acsReport_day_each!BA21="","",_acsReport_day_each!BA21)</f>
         <v/>
       </c>
-      <c r="BD27" s="32" t="str">
+      <c r="BD27" s="21" t="str">
         <f>IF(_acsReport_day_each!BB21="","",_acsReport_day_each!BB21)</f>
         <v/>
       </c>
-      <c r="BE27" s="64">
+      <c r="BE27" s="41">
         <f>_acsReport_day_each!BD21:BF21</f>
         <v>0</v>
       </c>
@@ -7954,227 +7339,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="2:64">
-      <c r="B28" s="30">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C28" s="33" t="str">
+    <row r="28" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B28" s="19">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C28" s="22" t="str">
         <f>IF(_acsReport_day_each!A22="","",_acsReport_day_each!A22)</f>
         <v/>
       </c>
-      <c r="D28" s="32" t="str">
+      <c r="D28" s="21" t="str">
         <f>IF(_acsReport_day_each!B22="","",_acsReport_day_each!B22)</f>
         <v/>
       </c>
-      <c r="E28" s="32" t="str">
+      <c r="E28" s="21" t="str">
         <f>IF(_acsReport_day_each!C22="","",_acsReport_day_each!C22)</f>
         <v/>
       </c>
-      <c r="F28" s="33" t="str">
+      <c r="F28" s="22" t="str">
         <f>IF(_acsReport_day_each!D22="","",_acsReport_day_each!D22)</f>
         <v/>
       </c>
-      <c r="G28" s="32" t="str">
+      <c r="G28" s="21" t="str">
         <f>IF(_acsReport_day_each!E22="","",_acsReport_day_each!E22)</f>
         <v/>
       </c>
-      <c r="H28" s="32" t="str">
+      <c r="H28" s="21" t="str">
         <f>IF(_acsReport_day_each!F22="","",_acsReport_day_each!F22)</f>
         <v/>
       </c>
-      <c r="I28" s="48" t="str">
+      <c r="I28" s="34" t="str">
         <f>IF(_acsReport_day_each!G22="","",_acsReport_day_each!G22)</f>
         <v/>
       </c>
-      <c r="J28" s="32" t="str">
+      <c r="J28" s="21" t="str">
         <f>IF(_acsReport_day_each!H22="","",_acsReport_day_each!H22)</f>
         <v/>
       </c>
-      <c r="K28" s="32" t="str">
+      <c r="K28" s="21" t="str">
         <f>IF(_acsReport_day_each!I22="","",_acsReport_day_each!I22)</f>
         <v/>
       </c>
-      <c r="L28" s="33" t="str">
+      <c r="L28" s="22" t="str">
         <f>IF(_acsReport_day_each!J22="","",_acsReport_day_each!J22)</f>
         <v/>
       </c>
-      <c r="M28" s="32" t="str">
+      <c r="M28" s="21" t="str">
         <f>IF(_acsReport_day_each!K22="","",_acsReport_day_each!K22)</f>
         <v/>
       </c>
-      <c r="N28" s="32" t="str">
+      <c r="N28" s="21" t="str">
         <f>IF(_acsReport_day_each!L22="","",_acsReport_day_each!L22)</f>
         <v/>
       </c>
-      <c r="O28" s="48" t="str">
+      <c r="O28" s="34" t="str">
         <f>IF(_acsReport_day_each!M22="","",_acsReport_day_each!M22)</f>
         <v/>
       </c>
-      <c r="P28" s="32" t="str">
+      <c r="P28" s="21" t="str">
         <f>IF(_acsReport_day_each!N22="","",_acsReport_day_each!N22)</f>
         <v/>
       </c>
-      <c r="Q28" s="32" t="str">
+      <c r="Q28" s="21" t="str">
         <f>IF(_acsReport_day_each!O22="","",_acsReport_day_each!O22)</f>
         <v/>
       </c>
-      <c r="R28" s="33" t="str">
+      <c r="R28" s="22" t="str">
         <f>IF(_acsReport_day_each!P22="","",_acsReport_day_each!P22)</f>
         <v/>
       </c>
-      <c r="S28" s="32" t="str">
+      <c r="S28" s="21" t="str">
         <f>IF(_acsReport_day_each!Q22="","",_acsReport_day_each!Q22)</f>
         <v/>
       </c>
-      <c r="T28" s="32" t="str">
+      <c r="T28" s="21" t="str">
         <f>IF(_acsReport_day_each!R22="","",_acsReport_day_each!R22)</f>
         <v/>
       </c>
-      <c r="U28" s="48" t="str">
+      <c r="U28" s="34" t="str">
         <f>IF(_acsReport_day_each!S22="","",_acsReport_day_each!S22)</f>
         <v/>
       </c>
-      <c r="V28" s="32" t="str">
+      <c r="V28" s="21" t="str">
         <f>IF(_acsReport_day_each!T22="","",_acsReport_day_each!T22)</f>
         <v/>
       </c>
-      <c r="W28" s="32" t="str">
+      <c r="W28" s="21" t="str">
         <f>IF(_acsReport_day_each!U22="","",_acsReport_day_each!U22)</f>
         <v/>
       </c>
-      <c r="X28" s="33" t="str">
+      <c r="X28" s="22" t="str">
         <f>IF(_acsReport_day_each!V22="","",_acsReport_day_each!V22)</f>
         <v/>
       </c>
-      <c r="Y28" s="32" t="str">
+      <c r="Y28" s="21" t="str">
         <f>IF(_acsReport_day_each!W22="","",_acsReport_day_each!W22)</f>
         <v/>
       </c>
-      <c r="Z28" s="32" t="str">
+      <c r="Z28" s="21" t="str">
         <f>IF(_acsReport_day_each!X22="","",_acsReport_day_each!X22)</f>
         <v/>
       </c>
-      <c r="AA28" s="48" t="str">
+      <c r="AA28" s="34" t="str">
         <f>IF(_acsReport_day_each!Y22="","",_acsReport_day_each!Y22)</f>
         <v/>
       </c>
-      <c r="AB28" s="32" t="str">
+      <c r="AB28" s="21" t="str">
         <f>IF(_acsReport_day_each!Z22="","",_acsReport_day_each!Z22)</f>
         <v/>
       </c>
-      <c r="AC28" s="32" t="str">
+      <c r="AC28" s="21" t="str">
         <f>IF(_acsReport_day_each!AA22="","",_acsReport_day_each!AA22)</f>
         <v/>
       </c>
-      <c r="AD28" s="33" t="str">
+      <c r="AD28" s="22" t="str">
         <f>IF(_acsReport_day_each!AB22="","",_acsReport_day_each!AB22)</f>
         <v/>
       </c>
-      <c r="AE28" s="32" t="str">
+      <c r="AE28" s="21" t="str">
         <f>IF(_acsReport_day_each!AC22="","",_acsReport_day_each!AC22)</f>
         <v/>
       </c>
-      <c r="AF28" s="32" t="str">
+      <c r="AF28" s="21" t="str">
         <f>IF(_acsReport_day_each!AD22="","",_acsReport_day_each!AD22)</f>
         <v/>
       </c>
-      <c r="AG28" s="48" t="str">
+      <c r="AG28" s="34" t="str">
         <f>IF(_acsReport_day_each!AE22="","",_acsReport_day_each!AE22)</f>
         <v/>
       </c>
-      <c r="AH28" s="32" t="str">
+      <c r="AH28" s="21" t="str">
         <f>IF(_acsReport_day_each!AF22="","",_acsReport_day_each!AF22)</f>
         <v/>
       </c>
-      <c r="AI28" s="32" t="str">
+      <c r="AI28" s="21" t="str">
         <f>IF(_acsReport_day_each!AG22="","",_acsReport_day_each!AG22)</f>
         <v/>
       </c>
-      <c r="AJ28" s="33" t="str">
+      <c r="AJ28" s="22" t="str">
         <f>IF(_acsReport_day_each!AH22="","",_acsReport_day_each!AH22)</f>
         <v/>
       </c>
-      <c r="AK28" s="32" t="str">
+      <c r="AK28" s="21" t="str">
         <f>IF(_acsReport_day_each!AI22="","",_acsReport_day_each!AI22)</f>
         <v/>
       </c>
-      <c r="AL28" s="32" t="str">
+      <c r="AL28" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ22="","",_acsReport_day_each!AJ22)</f>
         <v/>
       </c>
-      <c r="AM28" s="48" t="str">
+      <c r="AM28" s="34" t="str">
         <f>IF(_acsReport_day_each!AK22="","",_acsReport_day_each!AK22)</f>
         <v/>
       </c>
-      <c r="AN28" s="32" t="str">
+      <c r="AN28" s="21" t="str">
         <f>IF(_acsReport_day_each!AL22="","",_acsReport_day_each!AL22)</f>
         <v/>
       </c>
-      <c r="AO28" s="32" t="str">
+      <c r="AO28" s="21" t="str">
         <f>IF(_acsReport_day_each!AM22="","",_acsReport_day_each!AM22)</f>
         <v/>
       </c>
-      <c r="AP28" s="33" t="str">
+      <c r="AP28" s="22" t="str">
         <f>IF(_acsReport_day_each!AN22="","",_acsReport_day_each!AN22)</f>
         <v/>
       </c>
-      <c r="AQ28" s="32" t="str">
+      <c r="AQ28" s="21" t="str">
         <f>IF(_acsReport_day_each!AO22="","",_acsReport_day_each!AO22)</f>
         <v/>
       </c>
-      <c r="AR28" s="32" t="str">
+      <c r="AR28" s="21" t="str">
         <f>IF(_acsReport_day_each!AP22="","",_acsReport_day_each!AP22)</f>
         <v/>
       </c>
-      <c r="AS28" s="48" t="str">
+      <c r="AS28" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ22="","",_acsReport_day_each!AQ22)</f>
         <v/>
       </c>
-      <c r="AT28" s="32" t="str">
+      <c r="AT28" s="21" t="str">
         <f>IF(_acsReport_day_each!AR22="","",_acsReport_day_each!AR22)</f>
         <v/>
       </c>
-      <c r="AU28" s="32" t="str">
+      <c r="AU28" s="21" t="str">
         <f>IF(_acsReport_day_each!AS22="","",_acsReport_day_each!AS22)</f>
         <v/>
       </c>
-      <c r="AV28" s="33" t="str">
+      <c r="AV28" s="22" t="str">
         <f>IF(_acsReport_day_each!AT22="","",_acsReport_day_each!AT22)</f>
         <v/>
       </c>
-      <c r="AW28" s="32" t="str">
+      <c r="AW28" s="21" t="str">
         <f>IF(_acsReport_day_each!AU22="","",_acsReport_day_each!AU22)</f>
         <v/>
       </c>
-      <c r="AX28" s="32" t="str">
+      <c r="AX28" s="21" t="str">
         <f>IF(_acsReport_day_each!AV22="","",_acsReport_day_each!AV22)</f>
         <v/>
       </c>
-      <c r="AY28" s="48" t="str">
+      <c r="AY28" s="34" t="str">
         <f>IF(_acsReport_day_each!AW22="","",_acsReport_day_each!AW22)</f>
         <v/>
       </c>
-      <c r="AZ28" s="32" t="str">
+      <c r="AZ28" s="21" t="str">
         <f>IF(_acsReport_day_each!AX22="","",_acsReport_day_each!AX22)</f>
         <v/>
       </c>
-      <c r="BA28" s="32" t="str">
+      <c r="BA28" s="21" t="str">
         <f>IF(_acsReport_day_each!AY22="","",_acsReport_day_each!AY22)</f>
         <v/>
       </c>
-      <c r="BB28" s="48" t="str">
+      <c r="BB28" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ22="","",_acsReport_day_each!AZ22)</f>
         <v/>
       </c>
-      <c r="BC28" s="32" t="str">
+      <c r="BC28" s="21" t="str">
         <f>IF(_acsReport_day_each!BA22="","",_acsReport_day_each!BA22)</f>
         <v/>
       </c>
-      <c r="BD28" s="32" t="str">
+      <c r="BD28" s="21" t="str">
         <f>IF(_acsReport_day_each!BB22="","",_acsReport_day_each!BB22)</f>
         <v/>
       </c>
-      <c r="BE28" s="64">
+      <c r="BE28" s="41">
         <f>_acsReport_day_each!BD22:BF22</f>
         <v>0</v>
       </c>
@@ -8195,227 +7580,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="2:64">
-      <c r="B29" s="30">
+    <row r="29" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B29" s="19">
         <v>0.875</v>
       </c>
-      <c r="C29" s="33" t="str">
+      <c r="C29" s="22" t="str">
         <f>IF(_acsReport_day_each!A23="","",_acsReport_day_each!A23)</f>
         <v/>
       </c>
-      <c r="D29" s="32" t="str">
+      <c r="D29" s="21" t="str">
         <f>IF(_acsReport_day_each!B23="","",_acsReport_day_each!B23)</f>
         <v/>
       </c>
-      <c r="E29" s="32" t="str">
+      <c r="E29" s="21" t="str">
         <f>IF(_acsReport_day_each!C23="","",_acsReport_day_each!C23)</f>
         <v/>
       </c>
-      <c r="F29" s="33" t="str">
+      <c r="F29" s="22" t="str">
         <f>IF(_acsReport_day_each!D23="","",_acsReport_day_each!D23)</f>
         <v/>
       </c>
-      <c r="G29" s="32" t="str">
+      <c r="G29" s="21" t="str">
         <f>IF(_acsReport_day_each!E23="","",_acsReport_day_each!E23)</f>
         <v/>
       </c>
-      <c r="H29" s="32" t="str">
+      <c r="H29" s="21" t="str">
         <f>IF(_acsReport_day_each!F23="","",_acsReport_day_each!F23)</f>
         <v/>
       </c>
-      <c r="I29" s="48" t="str">
+      <c r="I29" s="34" t="str">
         <f>IF(_acsReport_day_each!G23="","",_acsReport_day_each!G23)</f>
         <v/>
       </c>
-      <c r="J29" s="32" t="str">
+      <c r="J29" s="21" t="str">
         <f>IF(_acsReport_day_each!H23="","",_acsReport_day_each!H23)</f>
         <v/>
       </c>
-      <c r="K29" s="32" t="str">
+      <c r="K29" s="21" t="str">
         <f>IF(_acsReport_day_each!I23="","",_acsReport_day_each!I23)</f>
         <v/>
       </c>
-      <c r="L29" s="33" t="str">
+      <c r="L29" s="22" t="str">
         <f>IF(_acsReport_day_each!J23="","",_acsReport_day_each!J23)</f>
         <v/>
       </c>
-      <c r="M29" s="32" t="str">
+      <c r="M29" s="21" t="str">
         <f>IF(_acsReport_day_each!K23="","",_acsReport_day_each!K23)</f>
         <v/>
       </c>
-      <c r="N29" s="32" t="str">
+      <c r="N29" s="21" t="str">
         <f>IF(_acsReport_day_each!L23="","",_acsReport_day_each!L23)</f>
         <v/>
       </c>
-      <c r="O29" s="48" t="str">
+      <c r="O29" s="34" t="str">
         <f>IF(_acsReport_day_each!M23="","",_acsReport_day_each!M23)</f>
         <v/>
       </c>
-      <c r="P29" s="32" t="str">
+      <c r="P29" s="21" t="str">
         <f>IF(_acsReport_day_each!N23="","",_acsReport_day_each!N23)</f>
         <v/>
       </c>
-      <c r="Q29" s="32" t="str">
+      <c r="Q29" s="21" t="str">
         <f>IF(_acsReport_day_each!O23="","",_acsReport_day_each!O23)</f>
         <v/>
       </c>
-      <c r="R29" s="33" t="str">
+      <c r="R29" s="22" t="str">
         <f>IF(_acsReport_day_each!P23="","",_acsReport_day_each!P23)</f>
         <v/>
       </c>
-      <c r="S29" s="32" t="str">
+      <c r="S29" s="21" t="str">
         <f>IF(_acsReport_day_each!Q23="","",_acsReport_day_each!Q23)</f>
         <v/>
       </c>
-      <c r="T29" s="32" t="str">
+      <c r="T29" s="21" t="str">
         <f>IF(_acsReport_day_each!R23="","",_acsReport_day_each!R23)</f>
         <v/>
       </c>
-      <c r="U29" s="48" t="str">
+      <c r="U29" s="34" t="str">
         <f>IF(_acsReport_day_each!S23="","",_acsReport_day_each!S23)</f>
         <v/>
       </c>
-      <c r="V29" s="32" t="str">
+      <c r="V29" s="21" t="str">
         <f>IF(_acsReport_day_each!T23="","",_acsReport_day_each!T23)</f>
         <v/>
       </c>
-      <c r="W29" s="32" t="str">
+      <c r="W29" s="21" t="str">
         <f>IF(_acsReport_day_each!U23="","",_acsReport_day_each!U23)</f>
         <v/>
       </c>
-      <c r="X29" s="33" t="str">
+      <c r="X29" s="22" t="str">
         <f>IF(_acsReport_day_each!V23="","",_acsReport_day_each!V23)</f>
         <v/>
       </c>
-      <c r="Y29" s="32" t="str">
+      <c r="Y29" s="21" t="str">
         <f>IF(_acsReport_day_each!W23="","",_acsReport_day_each!W23)</f>
         <v/>
       </c>
-      <c r="Z29" s="32" t="str">
+      <c r="Z29" s="21" t="str">
         <f>IF(_acsReport_day_each!X23="","",_acsReport_day_each!X23)</f>
         <v/>
       </c>
-      <c r="AA29" s="48" t="str">
+      <c r="AA29" s="34" t="str">
         <f>IF(_acsReport_day_each!Y23="","",_acsReport_day_each!Y23)</f>
         <v/>
       </c>
-      <c r="AB29" s="32" t="str">
+      <c r="AB29" s="21" t="str">
         <f>IF(_acsReport_day_each!Z23="","",_acsReport_day_each!Z23)</f>
         <v/>
       </c>
-      <c r="AC29" s="32" t="str">
+      <c r="AC29" s="21" t="str">
         <f>IF(_acsReport_day_each!AA23="","",_acsReport_day_each!AA23)</f>
         <v/>
       </c>
-      <c r="AD29" s="33" t="str">
+      <c r="AD29" s="22" t="str">
         <f>IF(_acsReport_day_each!AB23="","",_acsReport_day_each!AB23)</f>
         <v/>
       </c>
-      <c r="AE29" s="32" t="str">
+      <c r="AE29" s="21" t="str">
         <f>IF(_acsReport_day_each!AC23="","",_acsReport_day_each!AC23)</f>
         <v/>
       </c>
-      <c r="AF29" s="32" t="str">
+      <c r="AF29" s="21" t="str">
         <f>IF(_acsReport_day_each!AD23="","",_acsReport_day_each!AD23)</f>
         <v/>
       </c>
-      <c r="AG29" s="48" t="str">
+      <c r="AG29" s="34" t="str">
         <f>IF(_acsReport_day_each!AE23="","",_acsReport_day_each!AE23)</f>
         <v/>
       </c>
-      <c r="AH29" s="32" t="str">
+      <c r="AH29" s="21" t="str">
         <f>IF(_acsReport_day_each!AF23="","",_acsReport_day_each!AF23)</f>
         <v/>
       </c>
-      <c r="AI29" s="32" t="str">
+      <c r="AI29" s="21" t="str">
         <f>IF(_acsReport_day_each!AG23="","",_acsReport_day_each!AG23)</f>
         <v/>
       </c>
-      <c r="AJ29" s="33" t="str">
+      <c r="AJ29" s="22" t="str">
         <f>IF(_acsReport_day_each!AH23="","",_acsReport_day_each!AH23)</f>
         <v/>
       </c>
-      <c r="AK29" s="32" t="str">
+      <c r="AK29" s="21" t="str">
         <f>IF(_acsReport_day_each!AI23="","",_acsReport_day_each!AI23)</f>
         <v/>
       </c>
-      <c r="AL29" s="32" t="str">
+      <c r="AL29" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ23="","",_acsReport_day_each!AJ23)</f>
         <v/>
       </c>
-      <c r="AM29" s="48" t="str">
+      <c r="AM29" s="34" t="str">
         <f>IF(_acsReport_day_each!AK23="","",_acsReport_day_each!AK23)</f>
         <v/>
       </c>
-      <c r="AN29" s="32" t="str">
+      <c r="AN29" s="21" t="str">
         <f>IF(_acsReport_day_each!AL23="","",_acsReport_day_each!AL23)</f>
         <v/>
       </c>
-      <c r="AO29" s="32" t="str">
+      <c r="AO29" s="21" t="str">
         <f>IF(_acsReport_day_each!AM23="","",_acsReport_day_each!AM23)</f>
         <v/>
       </c>
-      <c r="AP29" s="33" t="str">
+      <c r="AP29" s="22" t="str">
         <f>IF(_acsReport_day_each!AN23="","",_acsReport_day_each!AN23)</f>
         <v/>
       </c>
-      <c r="AQ29" s="32" t="str">
+      <c r="AQ29" s="21" t="str">
         <f>IF(_acsReport_day_each!AO23="","",_acsReport_day_each!AO23)</f>
         <v/>
       </c>
-      <c r="AR29" s="32" t="str">
+      <c r="AR29" s="21" t="str">
         <f>IF(_acsReport_day_each!AP23="","",_acsReport_day_each!AP23)</f>
         <v/>
       </c>
-      <c r="AS29" s="48" t="str">
+      <c r="AS29" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ23="","",_acsReport_day_each!AQ23)</f>
         <v/>
       </c>
-      <c r="AT29" s="32" t="str">
+      <c r="AT29" s="21" t="str">
         <f>IF(_acsReport_day_each!AR23="","",_acsReport_day_each!AR23)</f>
         <v/>
       </c>
-      <c r="AU29" s="32" t="str">
+      <c r="AU29" s="21" t="str">
         <f>IF(_acsReport_day_each!AS23="","",_acsReport_day_each!AS23)</f>
         <v/>
       </c>
-      <c r="AV29" s="33" t="str">
+      <c r="AV29" s="22" t="str">
         <f>IF(_acsReport_day_each!AT23="","",_acsReport_day_each!AT23)</f>
         <v/>
       </c>
-      <c r="AW29" s="32" t="str">
+      <c r="AW29" s="21" t="str">
         <f>IF(_acsReport_day_each!AU23="","",_acsReport_day_each!AU23)</f>
         <v/>
       </c>
-      <c r="AX29" s="32" t="str">
+      <c r="AX29" s="21" t="str">
         <f>IF(_acsReport_day_each!AV23="","",_acsReport_day_each!AV23)</f>
         <v/>
       </c>
-      <c r="AY29" s="48" t="str">
+      <c r="AY29" s="34" t="str">
         <f>IF(_acsReport_day_each!AW23="","",_acsReport_day_each!AW23)</f>
         <v/>
       </c>
-      <c r="AZ29" s="32" t="str">
+      <c r="AZ29" s="21" t="str">
         <f>IF(_acsReport_day_each!AX23="","",_acsReport_day_each!AX23)</f>
         <v/>
       </c>
-      <c r="BA29" s="32" t="str">
+      <c r="BA29" s="21" t="str">
         <f>IF(_acsReport_day_each!AY23="","",_acsReport_day_each!AY23)</f>
         <v/>
       </c>
-      <c r="BB29" s="48" t="str">
+      <c r="BB29" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ23="","",_acsReport_day_each!AZ23)</f>
         <v/>
       </c>
-      <c r="BC29" s="32" t="str">
+      <c r="BC29" s="21" t="str">
         <f>IF(_acsReport_day_each!BA23="","",_acsReport_day_each!BA23)</f>
         <v/>
       </c>
-      <c r="BD29" s="32" t="str">
+      <c r="BD29" s="21" t="str">
         <f>IF(_acsReport_day_each!BB23="","",_acsReport_day_each!BB23)</f>
         <v/>
       </c>
-      <c r="BE29" s="64">
+      <c r="BE29" s="41">
         <f>_acsReport_day_each!BD23:BF23</f>
         <v>0</v>
       </c>
@@ -8436,227 +7821,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="2:64">
-      <c r="B30" s="30">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C30" s="33" t="str">
+    <row r="30" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B30" s="19">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C30" s="22" t="str">
         <f>IF(_acsReport_day_each!A24="","",_acsReport_day_each!A24)</f>
         <v/>
       </c>
-      <c r="D30" s="32" t="str">
+      <c r="D30" s="21" t="str">
         <f>IF(_acsReport_day_each!B24="","",_acsReport_day_each!B24)</f>
         <v/>
       </c>
-      <c r="E30" s="32" t="str">
+      <c r="E30" s="21" t="str">
         <f>IF(_acsReport_day_each!C24="","",_acsReport_day_each!C24)</f>
         <v/>
       </c>
-      <c r="F30" s="33" t="str">
+      <c r="F30" s="22" t="str">
         <f>IF(_acsReport_day_each!D24="","",_acsReport_day_each!D24)</f>
         <v/>
       </c>
-      <c r="G30" s="32" t="str">
+      <c r="G30" s="21" t="str">
         <f>IF(_acsReport_day_each!E24="","",_acsReport_day_each!E24)</f>
         <v/>
       </c>
-      <c r="H30" s="32" t="str">
+      <c r="H30" s="21" t="str">
         <f>IF(_acsReport_day_each!F24="","",_acsReport_day_each!F24)</f>
         <v/>
       </c>
-      <c r="I30" s="48" t="str">
+      <c r="I30" s="34" t="str">
         <f>IF(_acsReport_day_each!G24="","",_acsReport_day_each!G24)</f>
         <v/>
       </c>
-      <c r="J30" s="32" t="str">
+      <c r="J30" s="21" t="str">
         <f>IF(_acsReport_day_each!H24="","",_acsReport_day_each!H24)</f>
         <v/>
       </c>
-      <c r="K30" s="32" t="str">
+      <c r="K30" s="21" t="str">
         <f>IF(_acsReport_day_each!I24="","",_acsReport_day_each!I24)</f>
         <v/>
       </c>
-      <c r="L30" s="33" t="str">
+      <c r="L30" s="22" t="str">
         <f>IF(_acsReport_day_each!J24="","",_acsReport_day_each!J24)</f>
         <v/>
       </c>
-      <c r="M30" s="32" t="str">
+      <c r="M30" s="21" t="str">
         <f>IF(_acsReport_day_each!K24="","",_acsReport_day_each!K24)</f>
         <v/>
       </c>
-      <c r="N30" s="32" t="str">
+      <c r="N30" s="21" t="str">
         <f>IF(_acsReport_day_each!L24="","",_acsReport_day_each!L24)</f>
         <v/>
       </c>
-      <c r="O30" s="48" t="str">
+      <c r="O30" s="34" t="str">
         <f>IF(_acsReport_day_each!M24="","",_acsReport_day_each!M24)</f>
         <v/>
       </c>
-      <c r="P30" s="32" t="str">
+      <c r="P30" s="21" t="str">
         <f>IF(_acsReport_day_each!N24="","",_acsReport_day_each!N24)</f>
         <v/>
       </c>
-      <c r="Q30" s="32" t="str">
+      <c r="Q30" s="21" t="str">
         <f>IF(_acsReport_day_each!O24="","",_acsReport_day_each!O24)</f>
         <v/>
       </c>
-      <c r="R30" s="33" t="str">
+      <c r="R30" s="22" t="str">
         <f>IF(_acsReport_day_each!P24="","",_acsReport_day_each!P24)</f>
         <v/>
       </c>
-      <c r="S30" s="32" t="str">
+      <c r="S30" s="21" t="str">
         <f>IF(_acsReport_day_each!Q24="","",_acsReport_day_each!Q24)</f>
         <v/>
       </c>
-      <c r="T30" s="32" t="str">
+      <c r="T30" s="21" t="str">
         <f>IF(_acsReport_day_each!R24="","",_acsReport_day_each!R24)</f>
         <v/>
       </c>
-      <c r="U30" s="48" t="str">
+      <c r="U30" s="34" t="str">
         <f>IF(_acsReport_day_each!S24="","",_acsReport_day_each!S24)</f>
         <v/>
       </c>
-      <c r="V30" s="32" t="str">
+      <c r="V30" s="21" t="str">
         <f>IF(_acsReport_day_each!T24="","",_acsReport_day_each!T24)</f>
         <v/>
       </c>
-      <c r="W30" s="32" t="str">
+      <c r="W30" s="21" t="str">
         <f>IF(_acsReport_day_each!U24="","",_acsReport_day_each!U24)</f>
         <v/>
       </c>
-      <c r="X30" s="33" t="str">
+      <c r="X30" s="22" t="str">
         <f>IF(_acsReport_day_each!V24="","",_acsReport_day_each!V24)</f>
         <v/>
       </c>
-      <c r="Y30" s="32" t="str">
+      <c r="Y30" s="21" t="str">
         <f>IF(_acsReport_day_each!W24="","",_acsReport_day_each!W24)</f>
         <v/>
       </c>
-      <c r="Z30" s="32" t="str">
+      <c r="Z30" s="21" t="str">
         <f>IF(_acsReport_day_each!X24="","",_acsReport_day_each!X24)</f>
         <v/>
       </c>
-      <c r="AA30" s="48" t="str">
+      <c r="AA30" s="34" t="str">
         <f>IF(_acsReport_day_each!Y24="","",_acsReport_day_each!Y24)</f>
         <v/>
       </c>
-      <c r="AB30" s="32" t="str">
+      <c r="AB30" s="21" t="str">
         <f>IF(_acsReport_day_each!Z24="","",_acsReport_day_each!Z24)</f>
         <v/>
       </c>
-      <c r="AC30" s="32" t="str">
+      <c r="AC30" s="21" t="str">
         <f>IF(_acsReport_day_each!AA24="","",_acsReport_day_each!AA24)</f>
         <v/>
       </c>
-      <c r="AD30" s="33" t="str">
+      <c r="AD30" s="22" t="str">
         <f>IF(_acsReport_day_each!AB24="","",_acsReport_day_each!AB24)</f>
         <v/>
       </c>
-      <c r="AE30" s="32" t="str">
+      <c r="AE30" s="21" t="str">
         <f>IF(_acsReport_day_each!AC24="","",_acsReport_day_each!AC24)</f>
         <v/>
       </c>
-      <c r="AF30" s="32" t="str">
+      <c r="AF30" s="21" t="str">
         <f>IF(_acsReport_day_each!AD24="","",_acsReport_day_each!AD24)</f>
         <v/>
       </c>
-      <c r="AG30" s="48" t="str">
+      <c r="AG30" s="34" t="str">
         <f>IF(_acsReport_day_each!AE24="","",_acsReport_day_each!AE24)</f>
         <v/>
       </c>
-      <c r="AH30" s="32" t="str">
+      <c r="AH30" s="21" t="str">
         <f>IF(_acsReport_day_each!AF24="","",_acsReport_day_each!AF24)</f>
         <v/>
       </c>
-      <c r="AI30" s="32" t="str">
+      <c r="AI30" s="21" t="str">
         <f>IF(_acsReport_day_each!AG24="","",_acsReport_day_each!AG24)</f>
         <v/>
       </c>
-      <c r="AJ30" s="33" t="str">
+      <c r="AJ30" s="22" t="str">
         <f>IF(_acsReport_day_each!AH24="","",_acsReport_day_each!AH24)</f>
         <v/>
       </c>
-      <c r="AK30" s="32" t="str">
+      <c r="AK30" s="21" t="str">
         <f>IF(_acsReport_day_each!AI24="","",_acsReport_day_each!AI24)</f>
         <v/>
       </c>
-      <c r="AL30" s="32" t="str">
+      <c r="AL30" s="21" t="str">
         <f>IF(_acsReport_day_each!AJ24="","",_acsReport_day_each!AJ24)</f>
         <v/>
       </c>
-      <c r="AM30" s="48" t="str">
+      <c r="AM30" s="34" t="str">
         <f>IF(_acsReport_day_each!AK24="","",_acsReport_day_each!AK24)</f>
         <v/>
       </c>
-      <c r="AN30" s="32" t="str">
+      <c r="AN30" s="21" t="str">
         <f>IF(_acsReport_day_each!AL24="","",_acsReport_day_each!AL24)</f>
         <v/>
       </c>
-      <c r="AO30" s="32" t="str">
+      <c r="AO30" s="21" t="str">
         <f>IF(_acsReport_day_each!AM24="","",_acsReport_day_each!AM24)</f>
         <v/>
       </c>
-      <c r="AP30" s="33" t="str">
+      <c r="AP30" s="22" t="str">
         <f>IF(_acsReport_day_each!AN24="","",_acsReport_day_each!AN24)</f>
         <v/>
       </c>
-      <c r="AQ30" s="32" t="str">
+      <c r="AQ30" s="21" t="str">
         <f>IF(_acsReport_day_each!AO24="","",_acsReport_day_each!AO24)</f>
         <v/>
       </c>
-      <c r="AR30" s="32" t="str">
+      <c r="AR30" s="21" t="str">
         <f>IF(_acsReport_day_each!AP24="","",_acsReport_day_each!AP24)</f>
         <v/>
       </c>
-      <c r="AS30" s="48" t="str">
+      <c r="AS30" s="34" t="str">
         <f>IF(_acsReport_day_each!AQ24="","",_acsReport_day_each!AQ24)</f>
         <v/>
       </c>
-      <c r="AT30" s="32" t="str">
+      <c r="AT30" s="21" t="str">
         <f>IF(_acsReport_day_each!AR24="","",_acsReport_day_each!AR24)</f>
         <v/>
       </c>
-      <c r="AU30" s="32" t="str">
+      <c r="AU30" s="21" t="str">
         <f>IF(_acsReport_day_each!AS24="","",_acsReport_day_each!AS24)</f>
         <v/>
       </c>
-      <c r="AV30" s="33" t="str">
+      <c r="AV30" s="22" t="str">
         <f>IF(_acsReport_day_each!AT24="","",_acsReport_day_each!AT24)</f>
         <v/>
       </c>
-      <c r="AW30" s="32" t="str">
+      <c r="AW30" s="21" t="str">
         <f>IF(_acsReport_day_each!AU24="","",_acsReport_day_each!AU24)</f>
         <v/>
       </c>
-      <c r="AX30" s="32" t="str">
+      <c r="AX30" s="21" t="str">
         <f>IF(_acsReport_day_each!AV24="","",_acsReport_day_each!AV24)</f>
         <v/>
       </c>
-      <c r="AY30" s="48" t="str">
+      <c r="AY30" s="34" t="str">
         <f>IF(_acsReport_day_each!AW24="","",_acsReport_day_each!AW24)</f>
         <v/>
       </c>
-      <c r="AZ30" s="32" t="str">
+      <c r="AZ30" s="21" t="str">
         <f>IF(_acsReport_day_each!AX24="","",_acsReport_day_each!AX24)</f>
         <v/>
       </c>
-      <c r="BA30" s="32" t="str">
+      <c r="BA30" s="21" t="str">
         <f>IF(_acsReport_day_each!AY24="","",_acsReport_day_each!AY24)</f>
         <v/>
       </c>
-      <c r="BB30" s="48" t="str">
+      <c r="BB30" s="34" t="str">
         <f>IF(_acsReport_day_each!AZ24="","",_acsReport_day_each!AZ24)</f>
         <v/>
       </c>
-      <c r="BC30" s="32" t="str">
+      <c r="BC30" s="21" t="str">
         <f>IF(_acsReport_day_each!BA24="","",_acsReport_day_each!BA24)</f>
         <v/>
       </c>
-      <c r="BD30" s="32" t="str">
+      <c r="BD30" s="21" t="str">
         <f>IF(_acsReport_day_each!BB24="","",_acsReport_day_each!BB24)</f>
         <v/>
       </c>
-      <c r="BE30" s="64">
+      <c r="BE30" s="41">
         <f>_acsReport_day_each!BD24:BF24</f>
         <v>0</v>
       </c>
@@ -8677,227 +8062,227 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15.75" spans="2:64">
-      <c r="B31" s="34">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C31" s="35" t="str">
+    <row r="31" spans="2:64" ht="15" x14ac:dyDescent="0.15">
+      <c r="B31" s="23">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C31" s="24" t="str">
         <f>IF(_acsReport_day_each!A25="","",_acsReport_day_each!A25)</f>
         <v/>
       </c>
-      <c r="D31" s="36" t="str">
+      <c r="D31" s="25" t="str">
         <f>IF(_acsReport_day_each!B25="","",_acsReport_day_each!B25)</f>
         <v/>
       </c>
-      <c r="E31" s="36" t="str">
+      <c r="E31" s="25" t="str">
         <f>IF(_acsReport_day_each!C25="","",_acsReport_day_each!C25)</f>
         <v/>
       </c>
-      <c r="F31" s="35" t="str">
+      <c r="F31" s="24" t="str">
         <f>IF(_acsReport_day_each!D25="","",_acsReport_day_each!D25)</f>
         <v/>
       </c>
-      <c r="G31" s="36" t="str">
+      <c r="G31" s="25" t="str">
         <f>IF(_acsReport_day_each!E25="","",_acsReport_day_each!E25)</f>
         <v/>
       </c>
-      <c r="H31" s="36" t="str">
+      <c r="H31" s="25" t="str">
         <f>IF(_acsReport_day_each!F25="","",_acsReport_day_each!F25)</f>
         <v/>
       </c>
-      <c r="I31" s="50" t="str">
+      <c r="I31" s="36" t="str">
         <f>IF(_acsReport_day_each!G25="","",_acsReport_day_each!G25)</f>
         <v/>
       </c>
-      <c r="J31" s="36" t="str">
+      <c r="J31" s="25" t="str">
         <f>IF(_acsReport_day_each!H25="","",_acsReport_day_each!H25)</f>
         <v/>
       </c>
-      <c r="K31" s="36" t="str">
+      <c r="K31" s="25" t="str">
         <f>IF(_acsReport_day_each!I25="","",_acsReport_day_each!I25)</f>
         <v/>
       </c>
-      <c r="L31" s="35" t="str">
+      <c r="L31" s="24" t="str">
         <f>IF(_acsReport_day_each!J25="","",_acsReport_day_each!J25)</f>
         <v/>
       </c>
-      <c r="M31" s="36" t="str">
+      <c r="M31" s="25" t="str">
         <f>IF(_acsReport_day_each!K25="","",_acsReport_day_each!K25)</f>
         <v/>
       </c>
-      <c r="N31" s="36" t="str">
+      <c r="N31" s="25" t="str">
         <f>IF(_acsReport_day_each!L25="","",_acsReport_day_each!L25)</f>
         <v/>
       </c>
-      <c r="O31" s="50" t="str">
+      <c r="O31" s="36" t="str">
         <f>IF(_acsReport_day_each!M25="","",_acsReport_day_each!M25)</f>
         <v/>
       </c>
-      <c r="P31" s="36" t="str">
+      <c r="P31" s="25" t="str">
         <f>IF(_acsReport_day_each!N25="","",_acsReport_day_each!N25)</f>
         <v/>
       </c>
-      <c r="Q31" s="36" t="str">
+      <c r="Q31" s="25" t="str">
         <f>IF(_acsReport_day_each!O25="","",_acsReport_day_each!O25)</f>
         <v/>
       </c>
-      <c r="R31" s="35" t="str">
+      <c r="R31" s="24" t="str">
         <f>IF(_acsReport_day_each!P25="","",_acsReport_day_each!P25)</f>
         <v/>
       </c>
-      <c r="S31" s="36" t="str">
+      <c r="S31" s="25" t="str">
         <f>IF(_acsReport_day_each!Q25="","",_acsReport_day_each!Q25)</f>
         <v/>
       </c>
-      <c r="T31" s="36" t="str">
+      <c r="T31" s="25" t="str">
         <f>IF(_acsReport_day_each!R25="","",_acsReport_day_each!R25)</f>
         <v/>
       </c>
-      <c r="U31" s="50" t="str">
+      <c r="U31" s="36" t="str">
         <f>IF(_acsReport_day_each!S25="","",_acsReport_day_each!S25)</f>
         <v/>
       </c>
-      <c r="V31" s="36" t="str">
+      <c r="V31" s="25" t="str">
         <f>IF(_acsReport_day_each!T25="","",_acsReport_day_each!T25)</f>
         <v/>
       </c>
-      <c r="W31" s="36" t="str">
+      <c r="W31" s="25" t="str">
         <f>IF(_acsReport_day_each!U25="","",_acsReport_day_each!U25)</f>
         <v/>
       </c>
-      <c r="X31" s="35" t="str">
+      <c r="X31" s="24" t="str">
         <f>IF(_acsReport_day_each!V25="","",_acsReport_day_each!V25)</f>
         <v/>
       </c>
-      <c r="Y31" s="36" t="str">
+      <c r="Y31" s="25" t="str">
         <f>IF(_acsReport_day_each!W25="","",_acsReport_day_each!W25)</f>
         <v/>
       </c>
-      <c r="Z31" s="36" t="str">
+      <c r="Z31" s="25" t="str">
         <f>IF(_acsReport_day_each!X25="","",_acsReport_day_each!X25)</f>
         <v/>
       </c>
-      <c r="AA31" s="50" t="str">
+      <c r="AA31" s="36" t="str">
         <f>IF(_acsReport_day_each!Y25="","",_acsReport_day_each!Y25)</f>
         <v/>
       </c>
-      <c r="AB31" s="36" t="str">
+      <c r="AB31" s="25" t="str">
         <f>IF(_acsReport_day_each!Z25="","",_acsReport_day_each!Z25)</f>
         <v/>
       </c>
-      <c r="AC31" s="36" t="str">
+      <c r="AC31" s="25" t="str">
         <f>IF(_acsReport_day_each!AA25="","",_acsReport_day_each!AA25)</f>
         <v/>
       </c>
-      <c r="AD31" s="35" t="str">
+      <c r="AD31" s="24" t="str">
         <f>IF(_acsReport_day_each!AB25="","",_acsReport_day_each!AB25)</f>
         <v/>
       </c>
-      <c r="AE31" s="36" t="str">
+      <c r="AE31" s="25" t="str">
         <f>IF(_acsReport_day_each!AC25="","",_acsReport_day_each!AC25)</f>
         <v/>
       </c>
-      <c r="AF31" s="36" t="str">
+      <c r="AF31" s="25" t="str">
         <f>IF(_acsReport_day_each!AD25="","",_acsReport_day_each!AD25)</f>
         <v/>
       </c>
-      <c r="AG31" s="50" t="str">
+      <c r="AG31" s="36" t="str">
         <f>IF(_acsReport_day_each!AE25="","",_acsReport_day_each!AE25)</f>
         <v/>
       </c>
-      <c r="AH31" s="36" t="str">
+      <c r="AH31" s="25" t="str">
         <f>IF(_acsReport_day_each!AF25="","",_acsReport_day_each!AF25)</f>
         <v/>
       </c>
-      <c r="AI31" s="36" t="str">
+      <c r="AI31" s="25" t="str">
         <f>IF(_acsReport_day_each!AG25="","",_acsReport_day_each!AG25)</f>
         <v/>
       </c>
-      <c r="AJ31" s="35" t="str">
+      <c r="AJ31" s="24" t="str">
         <f>IF(_acsReport_day_each!AH25="","",_acsReport_day_each!AH25)</f>
         <v/>
       </c>
-      <c r="AK31" s="36" t="str">
+      <c r="AK31" s="25" t="str">
         <f>IF(_acsReport_day_each!AI25="","",_acsReport_day_each!AI25)</f>
         <v/>
       </c>
-      <c r="AL31" s="36" t="str">
+      <c r="AL31" s="25" t="str">
         <f>IF(_acsReport_day_each!AJ25="","",_acsReport_day_each!AJ25)</f>
         <v/>
       </c>
-      <c r="AM31" s="50" t="str">
+      <c r="AM31" s="36" t="str">
         <f>IF(_acsReport_day_each!AK25="","",_acsReport_day_each!AK25)</f>
         <v/>
       </c>
-      <c r="AN31" s="36" t="str">
+      <c r="AN31" s="25" t="str">
         <f>IF(_acsReport_day_each!AL25="","",_acsReport_day_each!AL25)</f>
         <v/>
       </c>
-      <c r="AO31" s="36" t="str">
+      <c r="AO31" s="25" t="str">
         <f>IF(_acsReport_day_each!AM25="","",_acsReport_day_each!AM25)</f>
         <v/>
       </c>
-      <c r="AP31" s="35" t="str">
+      <c r="AP31" s="24" t="str">
         <f>IF(_acsReport_day_each!AN25="","",_acsReport_day_each!AN25)</f>
         <v/>
       </c>
-      <c r="AQ31" s="36" t="str">
+      <c r="AQ31" s="25" t="str">
         <f>IF(_acsReport_day_each!AO25="","",_acsReport_day_each!AO25)</f>
         <v/>
       </c>
-      <c r="AR31" s="36" t="str">
+      <c r="AR31" s="25" t="str">
         <f>IF(_acsReport_day_each!AP25="","",_acsReport_day_each!AP25)</f>
         <v/>
       </c>
-      <c r="AS31" s="50" t="str">
+      <c r="AS31" s="36" t="str">
         <f>IF(_acsReport_day_each!AQ25="","",_acsReport_day_each!AQ25)</f>
         <v/>
       </c>
-      <c r="AT31" s="36" t="str">
+      <c r="AT31" s="25" t="str">
         <f>IF(_acsReport_day_each!AR25="","",_acsReport_day_each!AR25)</f>
         <v/>
       </c>
-      <c r="AU31" s="36" t="str">
+      <c r="AU31" s="25" t="str">
         <f>IF(_acsReport_day_each!AS25="","",_acsReport_day_each!AS25)</f>
         <v/>
       </c>
-      <c r="AV31" s="35" t="str">
+      <c r="AV31" s="24" t="str">
         <f>IF(_acsReport_day_each!AT25="","",_acsReport_day_each!AT25)</f>
         <v/>
       </c>
-      <c r="AW31" s="36" t="str">
+      <c r="AW31" s="25" t="str">
         <f>IF(_acsReport_day_each!AU25="","",_acsReport_day_each!AU25)</f>
         <v/>
       </c>
-      <c r="AX31" s="36" t="str">
+      <c r="AX31" s="25" t="str">
         <f>IF(_acsReport_day_each!AV25="","",_acsReport_day_each!AV25)</f>
         <v/>
       </c>
-      <c r="AY31" s="50" t="str">
+      <c r="AY31" s="36" t="str">
         <f>IF(_acsReport_day_each!AW25="","",_acsReport_day_each!AW25)</f>
         <v/>
       </c>
-      <c r="AZ31" s="36" t="str">
+      <c r="AZ31" s="25" t="str">
         <f>IF(_acsReport_day_each!AX25="","",_acsReport_day_each!AX25)</f>
         <v/>
       </c>
-      <c r="BA31" s="36" t="str">
+      <c r="BA31" s="25" t="str">
         <f>IF(_acsReport_day_each!AY25="","",_acsReport_day_each!AY25)</f>
         <v/>
       </c>
-      <c r="BB31" s="50" t="str">
+      <c r="BB31" s="36" t="str">
         <f>IF(_acsReport_day_each!AZ25="","",_acsReport_day_each!AZ25)</f>
         <v/>
       </c>
-      <c r="BC31" s="36" t="str">
+      <c r="BC31" s="25" t="str">
         <f>IF(_acsReport_day_each!BA25="","",_acsReport_day_each!BA25)</f>
         <v/>
       </c>
-      <c r="BD31" s="36" t="str">
+      <c r="BD31" s="25" t="str">
         <f>IF(_acsReport_day_each!BB25="","",_acsReport_day_each!BB25)</f>
         <v/>
       </c>
-      <c r="BE31" s="64">
+      <c r="BE31" s="41">
         <f>_acsReport_day_each!BD25:BF25</f>
         <v>0</v>
       </c>
@@ -8918,572 +8303,552 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="2:57">
-      <c r="B32" s="40" t="s">
+    <row r="32" spans="2:64" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B32" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="30">
         <f>SUM(BJ8:BJ31)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="30">
         <f>SUM(BK8:BK31)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="30">
         <f>SUM(BL8:BL31)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="51"/>
-      <c r="AF32" s="51"/>
-      <c r="AG32" s="51"/>
-      <c r="AH32" s="51"/>
-      <c r="AI32" s="51"/>
-      <c r="AJ32" s="51"/>
-      <c r="AK32" s="51"/>
-      <c r="AL32" s="51"/>
-      <c r="AM32" s="51"/>
-      <c r="AN32" s="51"/>
-      <c r="AO32" s="51"/>
-      <c r="AP32" s="51"/>
-      <c r="AQ32" s="51"/>
-      <c r="AR32" s="51"/>
-      <c r="AS32" s="51"/>
-      <c r="AT32" s="51"/>
-      <c r="AU32" s="51"/>
-      <c r="AV32" s="51"/>
-      <c r="AW32" s="51"/>
-      <c r="AX32" s="51"/>
-      <c r="AY32" s="51"/>
-      <c r="AZ32" s="51"/>
-      <c r="BA32" s="51"/>
-      <c r="BB32" s="51"/>
-      <c r="BC32" s="51"/>
-      <c r="BD32" s="51"/>
-      <c r="BE32" s="51"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
+      <c r="AO32" s="37"/>
+      <c r="AP32" s="37"/>
+      <c r="AQ32" s="37"/>
+      <c r="AR32" s="37"/>
+      <c r="AS32" s="37"/>
+      <c r="AT32" s="37"/>
+      <c r="AU32" s="37"/>
+      <c r="AV32" s="37"/>
+      <c r="AW32" s="37"/>
+      <c r="AX32" s="37"/>
+      <c r="AY32" s="37"/>
+      <c r="AZ32" s="37"/>
+      <c r="BA32" s="37"/>
+      <c r="BB32" s="37"/>
+      <c r="BC32" s="37"/>
+      <c r="BD32" s="37"/>
+      <c r="BE32" s="37"/>
     </row>
-    <row r="33" ht="22.5" spans="2:57">
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="51"/>
-      <c r="AF33" s="51"/>
-      <c r="AG33" s="51"/>
-      <c r="AH33" s="51"/>
-      <c r="AI33" s="51"/>
-      <c r="AJ33" s="51"/>
-      <c r="AK33" s="51"/>
-      <c r="AL33" s="51"/>
-      <c r="AM33" s="51"/>
-      <c r="AN33" s="51"/>
-      <c r="AO33" s="51"/>
-      <c r="AP33" s="51"/>
-      <c r="AQ33" s="51"/>
-      <c r="AR33" s="51"/>
-      <c r="AS33" s="51"/>
-      <c r="AT33" s="51"/>
-      <c r="AU33" s="51"/>
-      <c r="AV33" s="51"/>
-      <c r="AW33" s="51"/>
-      <c r="AX33" s="51"/>
-      <c r="AY33" s="51"/>
-      <c r="AZ33" s="51"/>
-      <c r="BA33" s="51"/>
-      <c r="BB33" s="51"/>
-      <c r="BC33" s="51"/>
-      <c r="BD33" s="51"/>
-      <c r="BE33" s="8"/>
+    <row r="33" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="37"/>
+      <c r="AO33" s="37"/>
+      <c r="AP33" s="37"/>
+      <c r="AQ33" s="37"/>
+      <c r="AR33" s="37"/>
+      <c r="AS33" s="37"/>
+      <c r="AT33" s="37"/>
+      <c r="AU33" s="37"/>
+      <c r="AV33" s="37"/>
+      <c r="AW33" s="37"/>
+      <c r="AX33" s="37"/>
+      <c r="AY33" s="37"/>
+      <c r="AZ33" s="37"/>
+      <c r="BA33" s="37"/>
+      <c r="BB33" s="37"/>
+      <c r="BC33" s="37"/>
+      <c r="BD33" s="37"/>
+      <c r="BE33" s="7"/>
     </row>
-    <row r="34" ht="14.25" spans="2:57">
-      <c r="B34" s="40" t="s">
+    <row r="34" spans="2:57" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B34" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="31">
         <f>_acsReport_day_each!BM2</f>
         <v>0</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="31">
         <f>_acsReport_day_each!BN2</f>
         <v>0</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="31">
         <f>_acsReport_day_each!BO2</f>
         <v>0</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="51"/>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="51"/>
-      <c r="AN34" s="51"/>
-      <c r="AO34" s="51"/>
-      <c r="AP34" s="51"/>
-      <c r="AQ34" s="51"/>
-      <c r="AR34" s="51"/>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="51"/>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
-      <c r="BB34" s="51"/>
-      <c r="BC34" s="51"/>
-      <c r="BD34" s="51"/>
-      <c r="BE34" s="8"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37"/>
+      <c r="AL34" s="37"/>
+      <c r="AM34" s="37"/>
+      <c r="AN34" s="37"/>
+      <c r="AO34" s="37"/>
+      <c r="AP34" s="37"/>
+      <c r="AQ34" s="37"/>
+      <c r="AR34" s="37"/>
+      <c r="AS34" s="37"/>
+      <c r="AT34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AV34" s="37"/>
+      <c r="AW34" s="37"/>
+      <c r="AX34" s="37"/>
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="37"/>
+      <c r="BA34" s="37"/>
+      <c r="BB34" s="37"/>
+      <c r="BC34" s="37"/>
+      <c r="BD34" s="37"/>
+      <c r="BE34" s="7"/>
     </row>
-    <row r="35" ht="22.5" spans="2:57">
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="51"/>
-      <c r="AF35" s="51"/>
-      <c r="AG35" s="51"/>
-      <c r="AH35" s="51"/>
-      <c r="AI35" s="51"/>
-      <c r="AJ35" s="51"/>
-      <c r="AK35" s="51"/>
-      <c r="AL35" s="51"/>
-      <c r="AM35" s="51"/>
-      <c r="AN35" s="51"/>
-      <c r="AO35" s="51"/>
-      <c r="AP35" s="51"/>
-      <c r="AQ35" s="51"/>
-      <c r="AR35" s="51"/>
-      <c r="AS35" s="51"/>
-      <c r="AT35" s="51"/>
-      <c r="AU35" s="51"/>
-      <c r="AV35" s="51"/>
-      <c r="AW35" s="51"/>
-      <c r="AX35" s="51"/>
-      <c r="AY35" s="51"/>
-      <c r="AZ35" s="51"/>
-      <c r="BA35" s="51"/>
-      <c r="BB35" s="51"/>
-      <c r="BC35" s="51"/>
-      <c r="BD35" s="51"/>
-      <c r="BE35" s="8"/>
+    <row r="35" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="37"/>
+      <c r="AK35" s="37"/>
+      <c r="AL35" s="37"/>
+      <c r="AM35" s="37"/>
+      <c r="AN35" s="37"/>
+      <c r="AO35" s="37"/>
+      <c r="AP35" s="37"/>
+      <c r="AQ35" s="37"/>
+      <c r="AR35" s="37"/>
+      <c r="AS35" s="37"/>
+      <c r="AT35" s="37"/>
+      <c r="AU35" s="37"/>
+      <c r="AV35" s="37"/>
+      <c r="AW35" s="37"/>
+      <c r="AX35" s="37"/>
+      <c r="AY35" s="37"/>
+      <c r="AZ35" s="37"/>
+      <c r="BA35" s="37"/>
+      <c r="BB35" s="37"/>
+      <c r="BC35" s="37"/>
+      <c r="BD35" s="37"/>
+      <c r="BE35" s="7"/>
     </row>
-    <row r="36" ht="22.5" spans="2:57">
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="51"/>
-      <c r="AF36" s="51"/>
-      <c r="AG36" s="51"/>
-      <c r="AH36" s="51"/>
-      <c r="AI36" s="51"/>
-      <c r="AJ36" s="51"/>
-      <c r="AK36" s="51"/>
-      <c r="AL36" s="51"/>
-      <c r="AM36" s="51"/>
-      <c r="AN36" s="51"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
-      <c r="AQ36" s="51"/>
-      <c r="AR36" s="51"/>
-      <c r="AS36" s="51"/>
-      <c r="AT36" s="51"/>
-      <c r="AU36" s="51"/>
-      <c r="AV36" s="51"/>
-      <c r="AW36" s="51"/>
-      <c r="AX36" s="51"/>
-      <c r="AY36" s="51"/>
-      <c r="AZ36" s="51"/>
-      <c r="BA36" s="51"/>
-      <c r="BB36" s="51"/>
-      <c r="BC36" s="51"/>
-      <c r="BD36" s="51"/>
-      <c r="BE36" s="8"/>
+    <row r="36" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="37"/>
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="37"/>
+      <c r="AO36" s="37"/>
+      <c r="AP36" s="37"/>
+      <c r="AQ36" s="37"/>
+      <c r="AR36" s="37"/>
+      <c r="AS36" s="37"/>
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AV36" s="37"/>
+      <c r="AW36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="37"/>
+      <c r="BA36" s="37"/>
+      <c r="BB36" s="37"/>
+      <c r="BC36" s="37"/>
+      <c r="BD36" s="37"/>
+      <c r="BE36" s="7"/>
     </row>
-    <row r="37" ht="22.5" spans="2:57">
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="51"/>
-      <c r="AE37" s="51"/>
-      <c r="AF37" s="51"/>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
-      <c r="AM37" s="51"/>
-      <c r="AN37" s="51"/>
-      <c r="AO37" s="51"/>
-      <c r="AP37" s="51"/>
-      <c r="AQ37" s="51"/>
-      <c r="AR37" s="51"/>
-      <c r="AS37" s="51"/>
-      <c r="AT37" s="51"/>
-      <c r="AU37" s="51"/>
-      <c r="AV37" s="51"/>
-      <c r="AW37" s="51"/>
-      <c r="AX37" s="51"/>
-      <c r="AY37" s="51"/>
-      <c r="AZ37" s="51"/>
-      <c r="BA37" s="51"/>
-      <c r="BB37" s="51"/>
-      <c r="BC37" s="51"/>
-      <c r="BD37" s="51"/>
-      <c r="BE37" s="8"/>
+    <row r="37" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="37"/>
+      <c r="AL37" s="37"/>
+      <c r="AM37" s="37"/>
+      <c r="AN37" s="37"/>
+      <c r="AO37" s="37"/>
+      <c r="AP37" s="37"/>
+      <c r="AQ37" s="37"/>
+      <c r="AR37" s="37"/>
+      <c r="AS37" s="37"/>
+      <c r="AT37" s="37"/>
+      <c r="AU37" s="37"/>
+      <c r="AV37" s="37"/>
+      <c r="AW37" s="37"/>
+      <c r="AX37" s="37"/>
+      <c r="AY37" s="37"/>
+      <c r="AZ37" s="37"/>
+      <c r="BA37" s="37"/>
+      <c r="BB37" s="37"/>
+      <c r="BC37" s="37"/>
+      <c r="BD37" s="37"/>
+      <c r="BE37" s="7"/>
     </row>
-    <row r="38" ht="22.5" spans="2:57">
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="51"/>
-      <c r="AC38" s="51"/>
-      <c r="AD38" s="51"/>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="51"/>
-      <c r="AG38" s="51"/>
-      <c r="AH38" s="51"/>
-      <c r="AI38" s="51"/>
-      <c r="AJ38" s="51"/>
-      <c r="AK38" s="51"/>
-      <c r="AL38" s="51"/>
-      <c r="AM38" s="51"/>
-      <c r="AN38" s="51"/>
-      <c r="AO38" s="51"/>
-      <c r="AP38" s="51"/>
-      <c r="AQ38" s="51"/>
-      <c r="AR38" s="51"/>
-      <c r="AS38" s="51"/>
-      <c r="AT38" s="51"/>
-      <c r="AU38" s="51"/>
-      <c r="AV38" s="51"/>
-      <c r="AW38" s="51"/>
-      <c r="AX38" s="51"/>
-      <c r="AY38" s="51"/>
-      <c r="AZ38" s="51"/>
-      <c r="BA38" s="51"/>
-      <c r="BB38" s="51"/>
-      <c r="BC38" s="51"/>
-      <c r="BD38" s="51"/>
-      <c r="BE38" s="8"/>
+    <row r="38" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="37"/>
+      <c r="AM38" s="37"/>
+      <c r="AN38" s="37"/>
+      <c r="AO38" s="37"/>
+      <c r="AP38" s="37"/>
+      <c r="AQ38" s="37"/>
+      <c r="AR38" s="37"/>
+      <c r="AS38" s="37"/>
+      <c r="AT38" s="37"/>
+      <c r="AU38" s="37"/>
+      <c r="AV38" s="37"/>
+      <c r="AW38" s="37"/>
+      <c r="AX38" s="37"/>
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="37"/>
+      <c r="BA38" s="37"/>
+      <c r="BB38" s="37"/>
+      <c r="BC38" s="37"/>
+      <c r="BD38" s="37"/>
+      <c r="BE38" s="7"/>
     </row>
-    <row r="39" ht="22.5" spans="2:57">
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="51"/>
-      <c r="AE39" s="51"/>
-      <c r="AF39" s="51"/>
-      <c r="AG39" s="51"/>
-      <c r="AH39" s="51"/>
-      <c r="AI39" s="51"/>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="51"/>
-      <c r="AO39" s="51"/>
-      <c r="AP39" s="51"/>
-      <c r="AQ39" s="51"/>
-      <c r="AR39" s="51"/>
-      <c r="AS39" s="51"/>
-      <c r="AT39" s="51"/>
-      <c r="AU39" s="51"/>
-      <c r="AV39" s="51"/>
-      <c r="AW39" s="51"/>
-      <c r="AX39" s="51"/>
-      <c r="AY39" s="51"/>
-      <c r="AZ39" s="51"/>
-      <c r="BA39" s="51"/>
-      <c r="BB39" s="51"/>
-      <c r="BC39" s="51"/>
-      <c r="BD39" s="51"/>
-      <c r="BE39" s="8"/>
+    <row r="39" spans="2:57" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
+      <c r="AF39" s="37"/>
+      <c r="AG39" s="37"/>
+      <c r="AH39" s="37"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="37"/>
+      <c r="AK39" s="37"/>
+      <c r="AL39" s="37"/>
+      <c r="AM39" s="37"/>
+      <c r="AN39" s="37"/>
+      <c r="AO39" s="37"/>
+      <c r="AP39" s="37"/>
+      <c r="AQ39" s="37"/>
+      <c r="AR39" s="37"/>
+      <c r="AS39" s="37"/>
+      <c r="AT39" s="37"/>
+      <c r="AU39" s="37"/>
+      <c r="AV39" s="37"/>
+      <c r="AW39" s="37"/>
+      <c r="AX39" s="37"/>
+      <c r="AY39" s="37"/>
+      <c r="AZ39" s="37"/>
+      <c r="BA39" s="37"/>
+      <c r="BB39" s="37"/>
+      <c r="BC39" s="37"/>
+      <c r="BD39" s="37"/>
+      <c r="BE39" s="7"/>
     </row>
-    <row r="40" ht="14.25" spans="2:57">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
-      <c r="AG40" s="8"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
-      <c r="AK40" s="8"/>
-      <c r="AL40" s="8"/>
-      <c r="AM40" s="8"/>
-      <c r="AN40" s="8"/>
-      <c r="AO40" s="8"/>
-      <c r="AP40" s="8"/>
-      <c r="AQ40" s="8"/>
-      <c r="AR40" s="8"/>
-      <c r="AS40" s="8"/>
-      <c r="AT40" s="8"/>
-      <c r="AU40" s="8"/>
-      <c r="AV40" s="8"/>
-      <c r="AW40" s="8"/>
-      <c r="AX40" s="8"/>
-      <c r="AY40" s="8"/>
-      <c r="AZ40" s="8"/>
-      <c r="BA40" s="8"/>
-      <c r="BB40" s="8"/>
-      <c r="BC40" s="8"/>
-      <c r="BD40" s="8"/>
-      <c r="BE40" s="8"/>
+    <row r="40" spans="2:57" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="7"/>
+      <c r="AS40" s="7"/>
+      <c r="AT40" s="7"/>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="7"/>
+      <c r="AW40" s="7"/>
+      <c r="AX40" s="7"/>
+      <c r="AY40" s="7"/>
+      <c r="AZ40" s="7"/>
+      <c r="BA40" s="7"/>
+      <c r="BB40" s="7"/>
+      <c r="BC40" s="7"/>
+      <c r="BD40" s="7"/>
+      <c r="BE40" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B1:BE1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="AA3:AL3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AP5:AR5"/>
-    <mergeCell ref="AS5:AU5"/>
     <mergeCell ref="AV5:AX5"/>
     <mergeCell ref="AY5:BA5"/>
     <mergeCell ref="BB5:BD5"/>
@@ -9491,23 +8856,42 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="BE5:BE6"/>
     <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="B1:BE1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="AA3:AL3"/>
+    <mergeCell ref="BB3:BE3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO1"/>
   <sheetViews>
-    <sheetView topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BG2" sqref="BG2"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BH8" sqref="BH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="28.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="31.625" customWidth="1"/>
     <col min="52" max="52" width="31.625" customWidth="1"/>
@@ -9516,7 +8900,7 @@
     <col min="62" max="62" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -9701,7 +9085,7 @@
         <v>101</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="BK1" s="2" t="s">
         <v>103</v>
@@ -9720,23 +9104,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>